--- a/database/industries/ghaza/ghebshahr/product/monthly_seprated.xlsx
+++ b/database/industries/ghaza/ghebshahr/product/monthly_seprated.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3513" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3463" uniqueCount="103">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3390,8 +3390,8 @@
       <c r="Z11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA11" s="13" t="s">
-        <v>58</v>
+      <c r="AA11" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AB11" s="13" t="n">
         <v>0</v>
@@ -3402,23 +3402,23 @@
       <c r="AD11" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE11" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG11" s="13" t="n">
-        <v>0</v>
+      <c r="AE11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF11" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI11" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ11" s="13" t="n">
-        <v>0</v>
+      <c r="AI11" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK11" s="13" t="s">
         <v>58</v>
@@ -3579,59 +3579,59 @@
       <c r="AJ12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AK12" s="16" t="s">
-        <v>58</v>
+      <c r="AK12" s="16" t="n">
+        <v>4289</v>
       </c>
       <c r="AL12" s="16" t="n">
-        <v>4289</v>
+        <v>3467</v>
       </c>
       <c r="AM12" s="16" t="n">
-        <v>3467</v>
+        <v>3768</v>
       </c>
       <c r="AN12" s="16" t="n">
-        <v>3768</v>
+        <v>3574</v>
       </c>
       <c r="AO12" s="16" t="n">
         <v>3574</v>
       </c>
       <c r="AP12" s="16" t="n">
-        <v>3574</v>
+        <v>1752</v>
       </c>
       <c r="AQ12" s="16" t="n">
-        <v>1752</v>
+        <v>3561</v>
       </c>
       <c r="AR12" s="16" t="n">
-        <v>3561</v>
+        <v>1987</v>
       </c>
       <c r="AS12" s="16" t="n">
-        <v>1987</v>
+        <v>869</v>
       </c>
       <c r="AT12" s="16" t="n">
-        <v>869</v>
+        <v>1454</v>
       </c>
       <c r="AU12" s="16" t="n">
-        <v>1454</v>
+        <v>772</v>
       </c>
       <c r="AV12" s="16" t="n">
-        <v>772</v>
+        <v>516</v>
       </c>
       <c r="AW12" s="16" t="n">
-        <v>516</v>
+        <v>0</v>
       </c>
       <c r="AX12" s="16" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="AY12" s="16" t="n">
-        <v>72</v>
+        <v>1169</v>
       </c>
       <c r="AZ12" s="16" t="n">
-        <v>1169</v>
+        <v>5728</v>
       </c>
       <c r="BA12" s="16" t="n">
-        <v>5728</v>
+        <v>5555</v>
       </c>
       <c r="BB12" s="16" t="n">
-        <v>2501</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3708,8 +3708,8 @@
       <c r="Z13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA13" s="13" t="s">
-        <v>58</v>
+      <c r="AA13" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AB13" s="13" t="n">
         <v>0</v>
@@ -3729,11 +3729,11 @@
       <c r="AG13" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AH13" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="13" t="s">
-        <v>58</v>
+      <c r="AH13" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI13" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AJ13" s="13" t="n">
         <v>0</v>
@@ -3744,11 +3744,11 @@
       <c r="AL13" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AM13" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN13" s="13" t="s">
-        <v>58</v>
+      <c r="AM13" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN13" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AO13" s="13" t="n">
         <v>0</v>
@@ -3780,11 +3780,11 @@
       <c r="AX13" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AY13" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ13" s="13" t="s">
-        <v>58</v>
+      <c r="AY13" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ13" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="BA13" s="13" t="n">
         <v>0</v>
@@ -3867,38 +3867,38 @@
       <c r="Z14" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AA14" s="16" t="s">
-        <v>58</v>
+      <c r="AA14" s="16" t="n">
+        <v>35613</v>
       </c>
       <c r="AB14" s="16" t="n">
-        <v>35613</v>
+        <v>34794</v>
       </c>
       <c r="AC14" s="16" t="n">
-        <v>34794</v>
+        <v>40774</v>
       </c>
       <c r="AD14" s="16" t="n">
-        <v>40774</v>
+        <v>34678</v>
       </c>
       <c r="AE14" s="16" t="n">
-        <v>34678</v>
+        <v>37779</v>
       </c>
       <c r="AF14" s="16" t="n">
-        <v>37779</v>
+        <v>43666</v>
       </c>
       <c r="AG14" s="16" t="n">
-        <v>43666</v>
+        <v>41900</v>
       </c>
       <c r="AH14" s="16" t="n">
-        <v>41900</v>
+        <v>37730</v>
       </c>
       <c r="AI14" s="16" t="n">
-        <v>37730</v>
+        <v>37107</v>
       </c>
       <c r="AJ14" s="16" t="n">
-        <v>37107</v>
-      </c>
-      <c r="AK14" s="16" t="n">
         <v>36577</v>
+      </c>
+      <c r="AK14" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AL14" s="16" t="s">
         <v>58</v>
@@ -4056,59 +4056,59 @@
       <c r="AJ15" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK15" s="13" t="s">
-        <v>58</v>
+      <c r="AK15" s="13" t="n">
+        <v>15555</v>
       </c>
       <c r="AL15" s="13" t="n">
-        <v>15555</v>
+        <v>15038</v>
       </c>
       <c r="AM15" s="13" t="n">
-        <v>15038</v>
+        <v>13094</v>
       </c>
       <c r="AN15" s="13" t="n">
-        <v>13094</v>
+        <v>16018</v>
       </c>
       <c r="AO15" s="13" t="n">
         <v>16018</v>
       </c>
       <c r="AP15" s="13" t="n">
-        <v>16018</v>
+        <v>8605</v>
       </c>
       <c r="AQ15" s="13" t="n">
-        <v>8605</v>
+        <v>8188</v>
       </c>
       <c r="AR15" s="13" t="n">
-        <v>8188</v>
+        <v>15293</v>
       </c>
       <c r="AS15" s="13" t="n">
-        <v>15293</v>
+        <v>16401</v>
       </c>
       <c r="AT15" s="13" t="n">
-        <v>16401</v>
+        <v>8406</v>
       </c>
       <c r="AU15" s="13" t="n">
-        <v>8406</v>
+        <v>12470</v>
       </c>
       <c r="AV15" s="13" t="n">
-        <v>12470</v>
+        <v>11489</v>
       </c>
       <c r="AW15" s="13" t="n">
-        <v>11489</v>
+        <v>11926</v>
       </c>
       <c r="AX15" s="13" t="n">
-        <v>11926</v>
+        <v>11410</v>
       </c>
       <c r="AY15" s="13" t="n">
-        <v>11410</v>
+        <v>12424</v>
       </c>
       <c r="AZ15" s="13" t="n">
-        <v>12424</v>
+        <v>14241</v>
       </c>
       <c r="BA15" s="13" t="n">
-        <v>14241</v>
+        <v>15425</v>
       </c>
       <c r="BB15" s="13" t="n">
-        <v>15406</v>
+        <v>10263</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4215,59 +4215,59 @@
       <c r="AJ16" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AK16" s="16" t="s">
-        <v>58</v>
+      <c r="AK16" s="16" t="n">
+        <v>11852</v>
       </c>
       <c r="AL16" s="16" t="n">
-        <v>11852</v>
+        <v>9202</v>
       </c>
       <c r="AM16" s="16" t="n">
-        <v>9202</v>
+        <v>13097</v>
       </c>
       <c r="AN16" s="16" t="n">
-        <v>13097</v>
+        <v>14878</v>
       </c>
       <c r="AO16" s="16" t="n">
         <v>14878</v>
       </c>
       <c r="AP16" s="16" t="n">
-        <v>14878</v>
+        <v>7513</v>
       </c>
       <c r="AQ16" s="16" t="n">
-        <v>7513</v>
+        <v>10530</v>
       </c>
       <c r="AR16" s="16" t="n">
-        <v>10530</v>
+        <v>6426</v>
       </c>
       <c r="AS16" s="16" t="n">
-        <v>6426</v>
+        <v>13291</v>
       </c>
       <c r="AT16" s="16" t="n">
-        <v>13291</v>
+        <v>7330</v>
       </c>
       <c r="AU16" s="16" t="n">
-        <v>7330</v>
+        <v>8752</v>
       </c>
       <c r="AV16" s="16" t="n">
-        <v>8752</v>
+        <v>8117</v>
       </c>
       <c r="AW16" s="16" t="n">
-        <v>8117</v>
+        <v>8725</v>
       </c>
       <c r="AX16" s="16" t="n">
-        <v>8725</v>
+        <v>7420</v>
       </c>
       <c r="AY16" s="16" t="n">
-        <v>7420</v>
+        <v>11241</v>
       </c>
       <c r="AZ16" s="16" t="n">
-        <v>11241</v>
+        <v>9541</v>
       </c>
       <c r="BA16" s="16" t="n">
-        <v>9541</v>
+        <v>13641</v>
       </c>
       <c r="BB16" s="16" t="n">
-        <v>13642</v>
+        <v>8359</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4374,59 +4374,59 @@
       <c r="AJ17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK17" s="13" t="s">
-        <v>58</v>
+      <c r="AK17" s="13" t="n">
+        <v>2407</v>
       </c>
       <c r="AL17" s="13" t="n">
-        <v>2407</v>
+        <v>3861</v>
       </c>
       <c r="AM17" s="13" t="n">
-        <v>3861</v>
+        <v>4573</v>
       </c>
       <c r="AN17" s="13" t="n">
-        <v>4573</v>
+        <v>4358</v>
       </c>
       <c r="AO17" s="13" t="n">
         <v>4358</v>
       </c>
       <c r="AP17" s="13" t="n">
-        <v>4358</v>
+        <v>4163</v>
       </c>
       <c r="AQ17" s="13" t="n">
-        <v>4163</v>
+        <v>1906</v>
       </c>
       <c r="AR17" s="13" t="n">
-        <v>1906</v>
+        <v>4930</v>
       </c>
       <c r="AS17" s="13" t="n">
-        <v>4930</v>
+        <v>7312</v>
       </c>
       <c r="AT17" s="13" t="n">
-        <v>7312</v>
+        <v>3900</v>
       </c>
       <c r="AU17" s="13" t="n">
-        <v>3900</v>
+        <v>6029</v>
       </c>
       <c r="AV17" s="13" t="n">
-        <v>6029</v>
+        <v>5956</v>
       </c>
       <c r="AW17" s="13" t="n">
-        <v>5956</v>
+        <v>5770</v>
       </c>
       <c r="AX17" s="13" t="n">
-        <v>5770</v>
+        <v>7382</v>
       </c>
       <c r="AY17" s="13" t="n">
-        <v>7382</v>
+        <v>6499</v>
       </c>
       <c r="AZ17" s="13" t="n">
-        <v>6499</v>
+        <v>6964</v>
       </c>
       <c r="BA17" s="13" t="n">
-        <v>6964</v>
+        <v>7817</v>
       </c>
       <c r="BB17" s="13" t="n">
-        <v>7817</v>
+        <v>5540</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4533,59 +4533,59 @@
       <c r="AJ18" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AK18" s="16" t="s">
-        <v>58</v>
+      <c r="AK18" s="16" t="n">
+        <v>999</v>
       </c>
       <c r="AL18" s="16" t="n">
-        <v>999</v>
+        <v>1110</v>
       </c>
       <c r="AM18" s="16" t="n">
-        <v>1110</v>
+        <v>2017</v>
       </c>
       <c r="AN18" s="16" t="n">
-        <v>2017</v>
+        <v>1862</v>
       </c>
       <c r="AO18" s="16" t="n">
         <v>1862</v>
       </c>
       <c r="AP18" s="16" t="n">
-        <v>1862</v>
+        <v>0</v>
       </c>
       <c r="AQ18" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AR18" s="16" t="n">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="AS18" s="16" t="n">
-        <v>219</v>
+        <v>2676</v>
       </c>
       <c r="AT18" s="16" t="n">
-        <v>2676</v>
+        <v>2374</v>
       </c>
       <c r="AU18" s="16" t="n">
-        <v>2374</v>
+        <v>2808</v>
       </c>
       <c r="AV18" s="16" t="n">
-        <v>2808</v>
+        <v>881</v>
       </c>
       <c r="AW18" s="16" t="n">
-        <v>881</v>
+        <v>605</v>
       </c>
       <c r="AX18" s="16" t="n">
-        <v>605</v>
+        <v>1937</v>
       </c>
       <c r="AY18" s="16" t="n">
-        <v>1937</v>
+        <v>1047</v>
       </c>
       <c r="AZ18" s="16" t="n">
-        <v>1047</v>
+        <v>1646</v>
       </c>
       <c r="BA18" s="16" t="n">
-        <v>1646</v>
+        <v>2014</v>
       </c>
       <c r="BB18" s="16" t="n">
-        <v>2014</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4692,26 +4692,26 @@
       <c r="AJ19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK19" s="13" t="s">
-        <v>58</v>
+      <c r="AK19" s="13" t="n">
+        <v>975</v>
       </c>
       <c r="AL19" s="13" t="n">
-        <v>975</v>
+        <v>454</v>
       </c>
       <c r="AM19" s="13" t="n">
-        <v>454</v>
+        <v>183</v>
       </c>
       <c r="AN19" s="13" t="n">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="AO19" s="13" t="n">
         <v>169</v>
       </c>
       <c r="AP19" s="13" t="n">
-        <v>169</v>
-      </c>
-      <c r="AQ19" s="13" t="n">
         <v>35</v>
+      </c>
+      <c r="AQ19" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AR19" s="13" t="s">
         <v>58</v>
@@ -4851,59 +4851,59 @@
       <c r="AJ20" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AK20" s="16" t="s">
-        <v>58</v>
+      <c r="AK20" s="16" t="n">
+        <v>88</v>
       </c>
       <c r="AL20" s="16" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="AM20" s="16" t="n">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AN20" s="16" t="n">
-        <v>75</v>
+        <v>221</v>
       </c>
       <c r="AO20" s="16" t="n">
         <v>221</v>
       </c>
       <c r="AP20" s="16" t="n">
-        <v>221</v>
+        <v>113</v>
       </c>
       <c r="AQ20" s="16" t="n">
-        <v>113</v>
+        <v>193</v>
       </c>
       <c r="AR20" s="16" t="n">
-        <v>193</v>
+        <v>269</v>
       </c>
       <c r="AS20" s="16" t="n">
-        <v>269</v>
+        <v>196</v>
       </c>
       <c r="AT20" s="16" t="n">
-        <v>196</v>
+        <v>5</v>
       </c>
       <c r="AU20" s="16" t="n">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="AV20" s="16" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="AW20" s="16" t="n">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="AX20" s="16" t="n">
-        <v>87</v>
+        <v>185</v>
       </c>
       <c r="AY20" s="16" t="n">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="AZ20" s="16" t="n">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="BA20" s="16" t="n">
-        <v>166</v>
+        <v>277</v>
       </c>
       <c r="BB20" s="16" t="n">
-        <v>207</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5010,17 +5010,17 @@
       <c r="AJ21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK21" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL21" s="13" t="n">
+      <c r="AK21" s="13" t="n">
         <v>885</v>
       </c>
-      <c r="AM21" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN21" s="13" t="n">
+      <c r="AL21" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM21" s="13" t="n">
         <v>616</v>
+      </c>
+      <c r="AN21" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AO21" s="13" t="s">
         <v>58</v>
@@ -5187,35 +5187,35 @@
       <c r="AP22" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AQ22" s="16" t="s">
-        <v>58</v>
+      <c r="AQ22" s="16" t="n">
+        <v>5</v>
       </c>
       <c r="AR22" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" s="16" t="n">
         <v>5</v>
-      </c>
-      <c r="AS22" s="16" t="n">
-        <v>0</v>
       </c>
       <c r="AT22" s="16" t="n">
         <v>5</v>
       </c>
       <c r="AU22" s="16" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AV22" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AW22" s="16" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AX22" s="16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY22" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ22" s="16" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AY22" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ22" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="BA22" s="16" t="n">
         <v>0</v>
@@ -5346,41 +5346,41 @@
       <c r="AP23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ23" s="13" t="s">
-        <v>58</v>
+      <c r="AQ23" s="13" t="n">
+        <v>56</v>
       </c>
       <c r="AR23" s="13" t="n">
         <v>56</v>
       </c>
       <c r="AS23" s="13" t="n">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="AT23" s="13" t="n">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="AU23" s="13" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="AV23" s="13" t="n">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="AW23" s="13" t="n">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="AX23" s="13" t="n">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="AY23" s="13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ23" s="13" t="n">
         <v>15</v>
       </c>
-      <c r="AZ23" s="13" t="n">
-        <v>34</v>
-      </c>
       <c r="BA23" s="13" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="BB23" s="13" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5511,8 +5511,8 @@
       <c r="AR24" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AS24" s="16" t="s">
-        <v>58</v>
+      <c r="AS24" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AT24" s="16" t="n">
         <v>0</v>
@@ -5526,8 +5526,8 @@
       <c r="AW24" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AX24" s="16" t="n">
-        <v>0</v>
+      <c r="AX24" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AY24" s="16" t="s">
         <v>58</v>
@@ -5535,8 +5535,8 @@
       <c r="AZ24" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="BA24" s="16" t="s">
-        <v>58</v>
+      <c r="BA24" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="BB24" s="16" t="n">
         <v>0</v>
@@ -5664,41 +5664,41 @@
       <c r="AP25" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ25" s="13" t="s">
-        <v>58</v>
+      <c r="AQ25" s="13" t="n">
+        <v>57</v>
       </c>
       <c r="AR25" s="13" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="AS25" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AT25" s="13" t="n">
-        <v>0</v>
+        <v>595</v>
       </c>
       <c r="AU25" s="13" t="n">
-        <v>595</v>
+        <v>233</v>
       </c>
       <c r="AV25" s="13" t="n">
-        <v>233</v>
+        <v>150</v>
       </c>
       <c r="AW25" s="13" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="AX25" s="13" t="n">
-        <v>65</v>
+        <v>281</v>
       </c>
       <c r="AY25" s="13" t="n">
-        <v>281</v>
+        <v>43</v>
       </c>
       <c r="AZ25" s="13" t="n">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="BA25" s="13" t="n">
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="BB25" s="13" t="n">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5823,8 +5823,8 @@
       <c r="AP26" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AQ26" s="16" t="s">
-        <v>58</v>
+      <c r="AQ26" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AR26" s="16" t="n">
         <v>0</v>
@@ -5847,11 +5847,11 @@
       <c r="AX26" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AY26" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ26" s="16" t="s">
-        <v>58</v>
+      <c r="AY26" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ26" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="BA26" s="16" t="n">
         <v>0</v>
@@ -5985,8 +5985,8 @@
       <c r="AQ27" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR27" s="13" t="s">
-        <v>58</v>
+      <c r="AR27" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AS27" s="13" t="n">
         <v>0</v>
@@ -6006,8 +6006,8 @@
       <c r="AX27" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AY27" s="13" t="n">
-        <v>0</v>
+      <c r="AY27" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AZ27" s="13" t="s">
         <v>58</v>
@@ -6092,88 +6092,88 @@
         <v>0</v>
       </c>
       <c r="AA28" s="18" t="n">
-        <v>0</v>
+        <v>35613</v>
       </c>
       <c r="AB28" s="18" t="n">
-        <v>35613</v>
+        <v>34794</v>
       </c>
       <c r="AC28" s="18" t="n">
-        <v>34794</v>
+        <v>40774</v>
       </c>
       <c r="AD28" s="18" t="n">
-        <v>40774</v>
+        <v>34678</v>
       </c>
       <c r="AE28" s="18" t="n">
-        <v>34678</v>
+        <v>37779</v>
       </c>
       <c r="AF28" s="18" t="n">
-        <v>37779</v>
+        <v>43666</v>
       </c>
       <c r="AG28" s="18" t="n">
-        <v>43666</v>
+        <v>41900</v>
       </c>
       <c r="AH28" s="18" t="n">
-        <v>41900</v>
+        <v>37730</v>
       </c>
       <c r="AI28" s="18" t="n">
-        <v>37730</v>
+        <v>37107</v>
       </c>
       <c r="AJ28" s="18" t="n">
-        <v>37107</v>
+        <v>36577</v>
       </c>
       <c r="AK28" s="18" t="n">
-        <v>36577</v>
+        <v>37050</v>
       </c>
       <c r="AL28" s="18" t="n">
-        <v>37050</v>
+        <v>33224</v>
       </c>
       <c r="AM28" s="18" t="n">
-        <v>33224</v>
+        <v>37423</v>
       </c>
       <c r="AN28" s="18" t="n">
-        <v>37423</v>
+        <v>41080</v>
       </c>
       <c r="AO28" s="18" t="n">
         <v>41080</v>
       </c>
       <c r="AP28" s="18" t="n">
-        <v>41080</v>
+        <v>22181</v>
       </c>
       <c r="AQ28" s="18" t="n">
-        <v>22181</v>
+        <v>24496</v>
       </c>
       <c r="AR28" s="18" t="n">
-        <v>24496</v>
+        <v>29180</v>
       </c>
       <c r="AS28" s="18" t="n">
-        <v>29180</v>
+        <v>40876</v>
       </c>
       <c r="AT28" s="18" t="n">
-        <v>40876</v>
+        <v>24069</v>
       </c>
       <c r="AU28" s="18" t="n">
-        <v>24069</v>
+        <v>31237</v>
       </c>
       <c r="AV28" s="18" t="n">
-        <v>31237</v>
+        <v>27241</v>
       </c>
       <c r="AW28" s="18" t="n">
-        <v>27241</v>
+        <v>27313</v>
       </c>
       <c r="AX28" s="18" t="n">
-        <v>27313</v>
+        <v>28702</v>
       </c>
       <c r="AY28" s="18" t="n">
-        <v>28702</v>
+        <v>32457</v>
       </c>
       <c r="AZ28" s="18" t="n">
-        <v>32457</v>
+        <v>38428</v>
       </c>
       <c r="BA28" s="18" t="n">
-        <v>38428</v>
+        <v>44771</v>
       </c>
       <c r="BB28" s="18" t="n">
-        <v>41629</v>
+        <v>27536</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6340,14 +6340,14 @@
       <c r="AK30" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL30" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM30" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN30" s="13" t="s">
-        <v>58</v>
+      <c r="AL30" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM30" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN30" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AO30" s="13" t="n">
         <v>0</v>
@@ -6361,8 +6361,8 @@
       <c r="AR30" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AS30" s="13" t="n">
-        <v>0</v>
+      <c r="AS30" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT30" s="13" t="s">
         <v>58</v>
@@ -6466,8 +6466,8 @@
       <c r="Z31" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AA31" s="16" t="s">
-        <v>58</v>
+      <c r="AA31" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AB31" s="16" t="n">
         <v>0</v>
@@ -6478,14 +6478,14 @@
       <c r="AD31" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AE31" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF31" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG31" s="16" t="n">
-        <v>0</v>
+      <c r="AE31" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF31" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AH31" s="16" t="s">
         <v>58</v>
@@ -6996,8 +6996,8 @@
       <c r="Z35" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="AA35" s="18" t="s">
-        <v>58</v>
+      <c r="AA35" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AB35" s="18" t="n">
         <v>0</v>
@@ -7154,88 +7154,88 @@
         <v>0</v>
       </c>
       <c r="AA36" s="20" t="n">
-        <v>0</v>
+        <v>35613</v>
       </c>
       <c r="AB36" s="20" t="n">
-        <v>35613</v>
+        <v>34794</v>
       </c>
       <c r="AC36" s="20" t="n">
-        <v>34794</v>
+        <v>40774</v>
       </c>
       <c r="AD36" s="20" t="n">
-        <v>40774</v>
+        <v>34678</v>
       </c>
       <c r="AE36" s="20" t="n">
-        <v>34678</v>
+        <v>37779</v>
       </c>
       <c r="AF36" s="20" t="n">
-        <v>37779</v>
+        <v>43666</v>
       </c>
       <c r="AG36" s="20" t="n">
-        <v>43666</v>
+        <v>41900</v>
       </c>
       <c r="AH36" s="20" t="n">
-        <v>41900</v>
+        <v>37730</v>
       </c>
       <c r="AI36" s="20" t="n">
-        <v>37730</v>
+        <v>37107</v>
       </c>
       <c r="AJ36" s="20" t="n">
-        <v>37107</v>
+        <v>36577</v>
       </c>
       <c r="AK36" s="20" t="n">
-        <v>36577</v>
+        <v>37050</v>
       </c>
       <c r="AL36" s="20" t="n">
-        <v>37050</v>
+        <v>33224</v>
       </c>
       <c r="AM36" s="20" t="n">
-        <v>33224</v>
+        <v>37423</v>
       </c>
       <c r="AN36" s="20" t="n">
-        <v>37423</v>
+        <v>41080</v>
       </c>
       <c r="AO36" s="20" t="n">
         <v>41080</v>
       </c>
       <c r="AP36" s="20" t="n">
-        <v>41080</v>
+        <v>22181</v>
       </c>
       <c r="AQ36" s="20" t="n">
-        <v>22181</v>
+        <v>24496</v>
       </c>
       <c r="AR36" s="20" t="n">
-        <v>24496</v>
+        <v>29180</v>
       </c>
       <c r="AS36" s="20" t="n">
-        <v>29180</v>
+        <v>40876</v>
       </c>
       <c r="AT36" s="20" t="n">
-        <v>40876</v>
+        <v>24069</v>
       </c>
       <c r="AU36" s="20" t="n">
-        <v>24069</v>
+        <v>31237</v>
       </c>
       <c r="AV36" s="20" t="n">
-        <v>31237</v>
+        <v>27241</v>
       </c>
       <c r="AW36" s="20" t="n">
-        <v>27241</v>
+        <v>27313</v>
       </c>
       <c r="AX36" s="20" t="n">
-        <v>27313</v>
+        <v>28702</v>
       </c>
       <c r="AY36" s="20" t="n">
-        <v>28702</v>
+        <v>32457</v>
       </c>
       <c r="AZ36" s="20" t="n">
-        <v>32457</v>
+        <v>38428</v>
       </c>
       <c r="BA36" s="20" t="n">
-        <v>38428</v>
+        <v>44771</v>
       </c>
       <c r="BB36" s="20" t="n">
-        <v>41629</v>
+        <v>27536</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7746,8 +7746,8 @@
       <c r="Z43" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA43" s="13" t="s">
-        <v>58</v>
+      <c r="AA43" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AB43" s="13" t="n">
         <v>0</v>
@@ -7758,23 +7758,23 @@
       <c r="AD43" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE43" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF43" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG43" s="13" t="n">
-        <v>0</v>
+      <c r="AE43" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF43" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH43" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI43" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ43" s="13" t="n">
-        <v>0</v>
+      <c r="AI43" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ43" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK43" s="13" t="s">
         <v>58</v>
@@ -7935,59 +7935,59 @@
       <c r="AJ44" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AK44" s="16" t="s">
-        <v>58</v>
+      <c r="AK44" s="16" t="n">
+        <v>3503</v>
       </c>
       <c r="AL44" s="16" t="n">
-        <v>3503</v>
+        <v>3498</v>
       </c>
       <c r="AM44" s="16" t="n">
-        <v>3498</v>
+        <v>4382</v>
       </c>
       <c r="AN44" s="16" t="n">
-        <v>4382</v>
+        <v>3904</v>
       </c>
       <c r="AO44" s="16" t="n">
         <v>3904</v>
       </c>
       <c r="AP44" s="16" t="n">
-        <v>3904</v>
+        <v>1164</v>
       </c>
       <c r="AQ44" s="16" t="n">
-        <v>1164</v>
+        <v>3511</v>
       </c>
       <c r="AR44" s="16" t="n">
-        <v>3511</v>
+        <v>2528</v>
       </c>
       <c r="AS44" s="16" t="n">
-        <v>2528</v>
+        <v>893</v>
       </c>
       <c r="AT44" s="16" t="n">
-        <v>893</v>
+        <v>1566</v>
       </c>
       <c r="AU44" s="16" t="n">
-        <v>1566</v>
+        <v>917</v>
       </c>
       <c r="AV44" s="16" t="n">
-        <v>917</v>
+        <v>479</v>
       </c>
       <c r="AW44" s="16" t="n">
-        <v>479</v>
+        <v>61</v>
       </c>
       <c r="AX44" s="16" t="n">
-        <v>61</v>
+        <v>-26</v>
       </c>
       <c r="AY44" s="16" t="n">
-        <v>-26</v>
+        <v>812</v>
       </c>
       <c r="AZ44" s="16" t="n">
-        <v>812</v>
+        <v>5918</v>
       </c>
       <c r="BA44" s="16" t="n">
-        <v>5918</v>
+        <v>5446</v>
       </c>
       <c r="BB44" s="16" t="n">
-        <v>5446</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8064,32 +8064,32 @@
       <c r="Z45" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA45" s="13" t="s">
-        <v>58</v>
+      <c r="AA45" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AB45" s="13" t="n">
-        <v>0</v>
+        <v>7125</v>
       </c>
       <c r="AC45" s="13" t="n">
-        <v>7125</v>
+        <v>1217</v>
       </c>
       <c r="AD45" s="13" t="n">
-        <v>1217</v>
-      </c>
-      <c r="AE45" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF45" s="13" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AE45" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF45" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AG45" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AH45" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI45" s="13" t="s">
-        <v>58</v>
+      <c r="AH45" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI45" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AJ45" s="13" t="n">
         <v>0</v>
@@ -8098,13 +8098,13 @@
         <v>0</v>
       </c>
       <c r="AL45" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM45" s="13" t="n">
         <v>1440</v>
       </c>
-      <c r="AN45" s="13" t="s">
-        <v>58</v>
+      <c r="AM45" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN45" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AO45" s="13" t="n">
         <v>0</v>
@@ -8113,13 +8113,13 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="13" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="AR45" s="13" t="n">
-        <v>-10</v>
+        <v>4842</v>
       </c>
       <c r="AS45" s="13" t="n">
-        <v>4842</v>
+        <v>0</v>
       </c>
       <c r="AT45" s="13" t="n">
         <v>0</v>
@@ -8136,11 +8136,11 @@
       <c r="AX45" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AY45" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ45" s="13" t="s">
-        <v>58</v>
+      <c r="AY45" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ45" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="BA45" s="13" t="n">
         <v>0</v>
@@ -8223,38 +8223,38 @@
       <c r="Z46" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AA46" s="16" t="s">
-        <v>58</v>
+      <c r="AA46" s="16" t="n">
+        <v>35582</v>
       </c>
       <c r="AB46" s="16" t="n">
-        <v>35582</v>
+        <v>35808</v>
       </c>
       <c r="AC46" s="16" t="n">
-        <v>35808</v>
+        <v>40442</v>
       </c>
       <c r="AD46" s="16" t="n">
-        <v>40442</v>
+        <v>34098</v>
       </c>
       <c r="AE46" s="16" t="n">
-        <v>34098</v>
+        <v>37586</v>
       </c>
       <c r="AF46" s="16" t="n">
-        <v>37586</v>
+        <v>42505</v>
       </c>
       <c r="AG46" s="16" t="n">
-        <v>42505</v>
+        <v>42534</v>
       </c>
       <c r="AH46" s="16" t="n">
-        <v>42534</v>
+        <v>35933</v>
       </c>
       <c r="AI46" s="16" t="n">
-        <v>35933</v>
+        <v>38172</v>
       </c>
       <c r="AJ46" s="16" t="n">
-        <v>38172</v>
-      </c>
-      <c r="AK46" s="16" t="n">
         <v>35675</v>
+      </c>
+      <c r="AK46" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AL46" s="16" t="s">
         <v>58</v>
@@ -8412,59 +8412,59 @@
       <c r="AJ47" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK47" s="13" t="s">
-        <v>58</v>
+      <c r="AK47" s="13" t="n">
+        <v>14054</v>
       </c>
       <c r="AL47" s="13" t="n">
-        <v>14054</v>
+        <v>13250</v>
       </c>
       <c r="AM47" s="13" t="n">
-        <v>13250</v>
+        <v>15306</v>
       </c>
       <c r="AN47" s="13" t="n">
-        <v>15306</v>
+        <v>15588</v>
       </c>
       <c r="AO47" s="13" t="n">
         <v>15588</v>
       </c>
       <c r="AP47" s="13" t="n">
-        <v>15588</v>
+        <v>8156</v>
       </c>
       <c r="AQ47" s="13" t="n">
-        <v>8156</v>
+        <v>7977</v>
       </c>
       <c r="AR47" s="13" t="n">
-        <v>7977</v>
+        <v>14780</v>
       </c>
       <c r="AS47" s="13" t="n">
-        <v>14780</v>
+        <v>17009</v>
       </c>
       <c r="AT47" s="13" t="n">
-        <v>17009</v>
+        <v>8622</v>
       </c>
       <c r="AU47" s="13" t="n">
-        <v>8622</v>
+        <v>11765</v>
       </c>
       <c r="AV47" s="13" t="n">
-        <v>11765</v>
+        <v>11860</v>
       </c>
       <c r="AW47" s="13" t="n">
-        <v>11860</v>
+        <v>12392</v>
       </c>
       <c r="AX47" s="13" t="n">
-        <v>12392</v>
+        <v>11711</v>
       </c>
       <c r="AY47" s="13" t="n">
-        <v>11711</v>
+        <v>12482</v>
       </c>
       <c r="AZ47" s="13" t="n">
-        <v>12482</v>
+        <v>12883</v>
       </c>
       <c r="BA47" s="13" t="n">
-        <v>12883</v>
+        <v>15123</v>
       </c>
       <c r="BB47" s="13" t="n">
-        <v>15123</v>
+        <v>9574</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8571,59 +8571,59 @@
       <c r="AJ48" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AK48" s="16" t="s">
-        <v>58</v>
+      <c r="AK48" s="16" t="n">
+        <v>11836</v>
       </c>
       <c r="AL48" s="16" t="n">
-        <v>11836</v>
+        <v>8307</v>
       </c>
       <c r="AM48" s="16" t="n">
-        <v>8307</v>
+        <v>13787</v>
       </c>
       <c r="AN48" s="16" t="n">
-        <v>13787</v>
+        <v>14665</v>
       </c>
       <c r="AO48" s="16" t="n">
         <v>14665</v>
       </c>
       <c r="AP48" s="16" t="n">
-        <v>14665</v>
+        <v>7533</v>
       </c>
       <c r="AQ48" s="16" t="n">
-        <v>7533</v>
+        <v>10235</v>
       </c>
       <c r="AR48" s="16" t="n">
-        <v>10235</v>
+        <v>6683</v>
       </c>
       <c r="AS48" s="16" t="n">
-        <v>6683</v>
+        <v>13633</v>
       </c>
       <c r="AT48" s="16" t="n">
-        <v>13633</v>
+        <v>6856</v>
       </c>
       <c r="AU48" s="16" t="n">
-        <v>6856</v>
+        <v>8501</v>
       </c>
       <c r="AV48" s="16" t="n">
-        <v>8501</v>
+        <v>8564</v>
       </c>
       <c r="AW48" s="16" t="n">
-        <v>8564</v>
+        <v>8804</v>
       </c>
       <c r="AX48" s="16" t="n">
-        <v>8804</v>
+        <v>7523</v>
       </c>
       <c r="AY48" s="16" t="n">
-        <v>7523</v>
+        <v>11394</v>
       </c>
       <c r="AZ48" s="16" t="n">
-        <v>11394</v>
+        <v>9012</v>
       </c>
       <c r="BA48" s="16" t="n">
-        <v>9012</v>
+        <v>13413</v>
       </c>
       <c r="BB48" s="16" t="n">
-        <v>13413</v>
+        <v>8356</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8730,59 +8730,59 @@
       <c r="AJ49" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK49" s="13" t="s">
-        <v>58</v>
+      <c r="AK49" s="13" t="n">
+        <v>4475</v>
       </c>
       <c r="AL49" s="13" t="n">
-        <v>4475</v>
+        <v>3738</v>
       </c>
       <c r="AM49" s="13" t="n">
-        <v>3738</v>
+        <v>4477</v>
       </c>
       <c r="AN49" s="13" t="n">
-        <v>4477</v>
+        <v>4282</v>
       </c>
       <c r="AO49" s="13" t="n">
         <v>4282</v>
       </c>
       <c r="AP49" s="13" t="n">
-        <v>4282</v>
+        <v>3633</v>
       </c>
       <c r="AQ49" s="13" t="n">
-        <v>3633</v>
+        <v>1823</v>
       </c>
       <c r="AR49" s="13" t="n">
-        <v>1823</v>
+        <v>4542</v>
       </c>
       <c r="AS49" s="13" t="n">
-        <v>4542</v>
+        <v>6752</v>
       </c>
       <c r="AT49" s="13" t="n">
-        <v>6752</v>
+        <v>3348</v>
       </c>
       <c r="AU49" s="13" t="n">
-        <v>3348</v>
+        <v>5615</v>
       </c>
       <c r="AV49" s="13" t="n">
-        <v>5615</v>
+        <v>5701</v>
       </c>
       <c r="AW49" s="13" t="n">
-        <v>5701</v>
+        <v>6331</v>
       </c>
       <c r="AX49" s="13" t="n">
-        <v>6331</v>
+        <v>6936</v>
       </c>
       <c r="AY49" s="13" t="n">
-        <v>6936</v>
+        <v>6259</v>
       </c>
       <c r="AZ49" s="13" t="n">
-        <v>6259</v>
+        <v>7135</v>
       </c>
       <c r="BA49" s="13" t="n">
-        <v>7135</v>
+        <v>8091</v>
       </c>
       <c r="BB49" s="13" t="n">
-        <v>8091</v>
+        <v>5360</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8889,59 +8889,59 @@
       <c r="AJ50" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AK50" s="16" t="s">
-        <v>58</v>
+      <c r="AK50" s="16" t="n">
+        <v>1023</v>
       </c>
       <c r="AL50" s="16" t="n">
-        <v>1023</v>
+        <v>1079</v>
       </c>
       <c r="AM50" s="16" t="n">
-        <v>1079</v>
+        <v>2031</v>
       </c>
       <c r="AN50" s="16" t="n">
-        <v>2031</v>
+        <v>1822</v>
       </c>
       <c r="AO50" s="16" t="n">
         <v>1822</v>
       </c>
       <c r="AP50" s="16" t="n">
-        <v>1822</v>
+        <v>33</v>
       </c>
       <c r="AQ50" s="16" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AR50" s="16" t="n">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="AS50" s="16" t="n">
-        <v>217</v>
+        <v>2438</v>
       </c>
       <c r="AT50" s="16" t="n">
-        <v>2438</v>
+        <v>2301</v>
       </c>
       <c r="AU50" s="16" t="n">
-        <v>2301</v>
+        <v>2803</v>
       </c>
       <c r="AV50" s="16" t="n">
-        <v>2803</v>
+        <v>1099</v>
       </c>
       <c r="AW50" s="16" t="n">
-        <v>1099</v>
+        <v>622</v>
       </c>
       <c r="AX50" s="16" t="n">
-        <v>622</v>
+        <v>1956</v>
       </c>
       <c r="AY50" s="16" t="n">
-        <v>1956</v>
+        <v>1034</v>
       </c>
       <c r="AZ50" s="16" t="n">
-        <v>1034</v>
+        <v>1583</v>
       </c>
       <c r="BA50" s="16" t="n">
-        <v>1583</v>
+        <v>1933</v>
       </c>
       <c r="BB50" s="16" t="n">
-        <v>1933</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9048,26 +9048,26 @@
       <c r="AJ51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK51" s="13" t="s">
-        <v>58</v>
+      <c r="AK51" s="13" t="n">
+        <v>549</v>
       </c>
       <c r="AL51" s="13" t="n">
-        <v>549</v>
+        <v>464</v>
       </c>
       <c r="AM51" s="13" t="n">
-        <v>464</v>
+        <v>183</v>
       </c>
       <c r="AN51" s="13" t="n">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="AO51" s="13" t="n">
         <v>172</v>
       </c>
       <c r="AP51" s="13" t="n">
-        <v>172</v>
-      </c>
-      <c r="AQ51" s="13" t="n">
         <v>41</v>
+      </c>
+      <c r="AQ51" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AR51" s="13" t="s">
         <v>58</v>
@@ -9207,59 +9207,59 @@
       <c r="AJ52" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AK52" s="16" t="s">
-        <v>58</v>
+      <c r="AK52" s="16" t="n">
+        <v>93</v>
       </c>
       <c r="AL52" s="16" t="n">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="AM52" s="16" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="AN52" s="16" t="n">
-        <v>83</v>
+        <v>170</v>
       </c>
       <c r="AO52" s="16" t="n">
         <v>170</v>
       </c>
       <c r="AP52" s="16" t="n">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="AQ52" s="16" t="n">
-        <v>143</v>
+        <v>252</v>
       </c>
       <c r="AR52" s="16" t="n">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="AS52" s="16" t="n">
-        <v>232</v>
+        <v>126</v>
       </c>
       <c r="AT52" s="16" t="n">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="AU52" s="16" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AV52" s="16" t="n">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="AW52" s="16" t="n">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="AX52" s="16" t="n">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="AY52" s="16" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AZ52" s="16" t="n">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="BA52" s="16" t="n">
-        <v>132</v>
+        <v>212</v>
       </c>
       <c r="BB52" s="16" t="n">
-        <v>212</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9366,17 +9366,17 @@
       <c r="AJ53" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK53" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL53" s="13" t="n">
+      <c r="AK53" s="13" t="n">
         <v>853</v>
       </c>
-      <c r="AM53" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN53" s="13" t="n">
+      <c r="AL53" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM53" s="13" t="n">
         <v>653</v>
+      </c>
+      <c r="AN53" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AO53" s="13" t="s">
         <v>58</v>
@@ -9543,35 +9543,35 @@
       <c r="AP54" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AQ54" s="16" t="s">
-        <v>58</v>
+      <c r="AQ54" s="16" t="n">
+        <v>5</v>
       </c>
       <c r="AR54" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS54" s="16" t="n">
         <v>5</v>
-      </c>
-      <c r="AS54" s="16" t="n">
-        <v>0</v>
       </c>
       <c r="AT54" s="16" t="n">
         <v>5</v>
       </c>
       <c r="AU54" s="16" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AV54" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AW54" s="16" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AX54" s="16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY54" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ54" s="16" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AY54" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ54" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="BA54" s="16" t="n">
         <v>0</v>
@@ -9702,41 +9702,41 @@
       <c r="AP55" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ55" s="13" t="s">
-        <v>58</v>
+      <c r="AQ55" s="13" t="n">
+        <v>56</v>
       </c>
       <c r="AR55" s="13" t="n">
         <v>56</v>
       </c>
       <c r="AS55" s="13" t="n">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="AT55" s="13" t="n">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="AU55" s="13" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="AV55" s="13" t="n">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="AW55" s="13" t="n">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="AX55" s="13" t="n">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="AY55" s="13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ55" s="13" t="n">
         <v>15</v>
       </c>
-      <c r="AZ55" s="13" t="n">
-        <v>34</v>
-      </c>
       <c r="BA55" s="13" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="BB55" s="13" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9867,8 +9867,8 @@
       <c r="AR56" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AS56" s="16" t="s">
-        <v>58</v>
+      <c r="AS56" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AT56" s="16" t="n">
         <v>0</v>
@@ -9882,8 +9882,8 @@
       <c r="AW56" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AX56" s="16" t="n">
-        <v>0</v>
+      <c r="AX56" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AY56" s="16" t="s">
         <v>58</v>
@@ -9891,8 +9891,8 @@
       <c r="AZ56" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="BA56" s="16" t="s">
-        <v>58</v>
+      <c r="BA56" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="BB56" s="16" t="n">
         <v>0</v>
@@ -10020,41 +10020,41 @@
       <c r="AP57" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ57" s="13" t="s">
-        <v>58</v>
+      <c r="AQ57" s="13" t="n">
+        <v>57</v>
       </c>
       <c r="AR57" s="13" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="AS57" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AT57" s="13" t="n">
-        <v>0</v>
+        <v>595</v>
       </c>
       <c r="AU57" s="13" t="n">
-        <v>595</v>
+        <v>233</v>
       </c>
       <c r="AV57" s="13" t="n">
-        <v>233</v>
+        <v>150</v>
       </c>
       <c r="AW57" s="13" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="AX57" s="13" t="n">
-        <v>65</v>
+        <v>280</v>
       </c>
       <c r="AY57" s="13" t="n">
-        <v>280</v>
+        <v>43</v>
       </c>
       <c r="AZ57" s="13" t="n">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="BA57" s="13" t="n">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="BB57" s="13" t="n">
-        <v>42</v>
+        <v>345</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10179,8 +10179,8 @@
       <c r="AP58" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AQ58" s="16" t="s">
-        <v>58</v>
+      <c r="AQ58" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AR58" s="16" t="n">
         <v>0</v>
@@ -10203,11 +10203,11 @@
       <c r="AX58" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AY58" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ58" s="16" t="s">
-        <v>58</v>
+      <c r="AY58" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ58" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="BA58" s="16" t="n">
         <v>0</v>
@@ -10341,8 +10341,8 @@
       <c r="AQ59" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR59" s="13" t="s">
-        <v>58</v>
+      <c r="AR59" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AS59" s="13" t="n">
         <v>0</v>
@@ -10362,8 +10362,8 @@
       <c r="AX59" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AY59" s="13" t="n">
-        <v>0</v>
+      <c r="AY59" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AZ59" s="13" t="s">
         <v>58</v>
@@ -10448,88 +10448,88 @@
         <v>0</v>
       </c>
       <c r="AA60" s="18" t="n">
-        <v>0</v>
+        <v>35582</v>
       </c>
       <c r="AB60" s="18" t="n">
-        <v>35582</v>
+        <v>42933</v>
       </c>
       <c r="AC60" s="18" t="n">
-        <v>42933</v>
+        <v>41659</v>
       </c>
       <c r="AD60" s="18" t="n">
-        <v>41659</v>
+        <v>34098</v>
       </c>
       <c r="AE60" s="18" t="n">
-        <v>34098</v>
+        <v>37586</v>
       </c>
       <c r="AF60" s="18" t="n">
-        <v>37586</v>
+        <v>42505</v>
       </c>
       <c r="AG60" s="18" t="n">
-        <v>42505</v>
+        <v>42534</v>
       </c>
       <c r="AH60" s="18" t="n">
-        <v>42534</v>
+        <v>35933</v>
       </c>
       <c r="AI60" s="18" t="n">
-        <v>35933</v>
+        <v>38172</v>
       </c>
       <c r="AJ60" s="18" t="n">
-        <v>38172</v>
+        <v>35675</v>
       </c>
       <c r="AK60" s="18" t="n">
-        <v>35675</v>
+        <v>36386</v>
       </c>
       <c r="AL60" s="18" t="n">
-        <v>36386</v>
+        <v>31876</v>
       </c>
       <c r="AM60" s="18" t="n">
-        <v>31876</v>
+        <v>40902</v>
       </c>
       <c r="AN60" s="18" t="n">
-        <v>40902</v>
+        <v>40603</v>
       </c>
       <c r="AO60" s="18" t="n">
         <v>40603</v>
       </c>
       <c r="AP60" s="18" t="n">
-        <v>40603</v>
+        <v>20703</v>
       </c>
       <c r="AQ60" s="18" t="n">
-        <v>20703</v>
+        <v>23906</v>
       </c>
       <c r="AR60" s="18" t="n">
-        <v>23906</v>
+        <v>33880</v>
       </c>
       <c r="AS60" s="18" t="n">
-        <v>33880</v>
+        <v>40982</v>
       </c>
       <c r="AT60" s="18" t="n">
-        <v>40982</v>
+        <v>23377</v>
       </c>
       <c r="AU60" s="18" t="n">
-        <v>23377</v>
+        <v>30014</v>
       </c>
       <c r="AV60" s="18" t="n">
-        <v>30014</v>
+        <v>28020</v>
       </c>
       <c r="AW60" s="18" t="n">
-        <v>28020</v>
+        <v>28500</v>
       </c>
       <c r="AX60" s="18" t="n">
-        <v>28500</v>
+        <v>28517</v>
       </c>
       <c r="AY60" s="18" t="n">
-        <v>28517</v>
+        <v>32178</v>
       </c>
       <c r="AZ60" s="18" t="n">
-        <v>32178</v>
+        <v>36784</v>
       </c>
       <c r="BA60" s="18" t="n">
-        <v>36784</v>
+        <v>44260</v>
       </c>
       <c r="BB60" s="18" t="n">
-        <v>44260</v>
+        <v>27099</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10696,14 +10696,14 @@
       <c r="AK62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL62" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM62" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN62" s="13" t="s">
-        <v>58</v>
+      <c r="AL62" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM62" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN62" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AO62" s="13" t="n">
         <v>0</v>
@@ -10717,8 +10717,8 @@
       <c r="AR62" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AS62" s="13" t="n">
-        <v>0</v>
+      <c r="AS62" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT62" s="13" t="s">
         <v>58</v>
@@ -10822,8 +10822,8 @@
       <c r="Z63" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AA63" s="16" t="s">
-        <v>58</v>
+      <c r="AA63" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AB63" s="16" t="n">
         <v>0</v>
@@ -10834,14 +10834,14 @@
       <c r="AD63" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AE63" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF63" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG63" s="16" t="n">
-        <v>0</v>
+      <c r="AE63" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF63" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG63" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AH63" s="16" t="s">
         <v>58</v>
@@ -11234,14 +11234,14 @@
       <c r="AM66" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN66" s="13" t="s">
-        <v>58</v>
+      <c r="AN66" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AO66" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AP66" s="13" t="n">
-        <v>0</v>
+      <c r="AP66" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ66" s="13" t="s">
         <v>58</v>
@@ -11352,8 +11352,8 @@
       <c r="Z67" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="AA67" s="18" t="s">
-        <v>58</v>
+      <c r="AA67" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AB67" s="18" t="n">
         <v>0</v>
@@ -11566,8 +11566,8 @@
       <c r="Z69" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="AA69" s="20" t="s">
-        <v>58</v>
+      <c r="AA69" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="AB69" s="20" t="n">
         <v>0</v>
@@ -11724,88 +11724,88 @@
         <v>0</v>
       </c>
       <c r="AA70" s="18" t="n">
-        <v>0</v>
+        <v>35582</v>
       </c>
       <c r="AB70" s="18" t="n">
-        <v>35582</v>
+        <v>42933</v>
       </c>
       <c r="AC70" s="18" t="n">
-        <v>42933</v>
+        <v>41659</v>
       </c>
       <c r="AD70" s="18" t="n">
-        <v>41659</v>
+        <v>34098</v>
       </c>
       <c r="AE70" s="18" t="n">
-        <v>34098</v>
+        <v>37586</v>
       </c>
       <c r="AF70" s="18" t="n">
-        <v>37586</v>
+        <v>42505</v>
       </c>
       <c r="AG70" s="18" t="n">
-        <v>42505</v>
+        <v>42534</v>
       </c>
       <c r="AH70" s="18" t="n">
-        <v>42534</v>
+        <v>35933</v>
       </c>
       <c r="AI70" s="18" t="n">
-        <v>35933</v>
+        <v>38172</v>
       </c>
       <c r="AJ70" s="18" t="n">
-        <v>38172</v>
+        <v>35675</v>
       </c>
       <c r="AK70" s="18" t="n">
-        <v>35675</v>
+        <v>36386</v>
       </c>
       <c r="AL70" s="18" t="n">
-        <v>36386</v>
+        <v>31876</v>
       </c>
       <c r="AM70" s="18" t="n">
-        <v>31876</v>
+        <v>40902</v>
       </c>
       <c r="AN70" s="18" t="n">
-        <v>40902</v>
+        <v>40603</v>
       </c>
       <c r="AO70" s="18" t="n">
         <v>40603</v>
       </c>
       <c r="AP70" s="18" t="n">
-        <v>40603</v>
+        <v>20703</v>
       </c>
       <c r="AQ70" s="18" t="n">
-        <v>20703</v>
+        <v>23906</v>
       </c>
       <c r="AR70" s="18" t="n">
-        <v>23906</v>
+        <v>33880</v>
       </c>
       <c r="AS70" s="18" t="n">
-        <v>33880</v>
+        <v>40982</v>
       </c>
       <c r="AT70" s="18" t="n">
-        <v>40982</v>
+        <v>23377</v>
       </c>
       <c r="AU70" s="18" t="n">
-        <v>23377</v>
+        <v>30014</v>
       </c>
       <c r="AV70" s="18" t="n">
-        <v>30014</v>
+        <v>28020</v>
       </c>
       <c r="AW70" s="18" t="n">
-        <v>28020</v>
+        <v>28500</v>
       </c>
       <c r="AX70" s="18" t="n">
-        <v>28500</v>
+        <v>28517</v>
       </c>
       <c r="AY70" s="18" t="n">
-        <v>28517</v>
+        <v>32178</v>
       </c>
       <c r="AZ70" s="18" t="n">
-        <v>32178</v>
+        <v>36784</v>
       </c>
       <c r="BA70" s="18" t="n">
-        <v>36784</v>
+        <v>44260</v>
       </c>
       <c r="BB70" s="18" t="n">
-        <v>44260</v>
+        <v>27099</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12316,11 +12316,11 @@
       <c r="Z77" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA77" s="13" t="s">
-        <v>58</v>
+      <c r="AA77" s="13" t="n">
+        <v>8</v>
       </c>
       <c r="AB77" s="13" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AC77" s="13" t="n">
         <v>0</v>
@@ -12346,8 +12346,8 @@
       <c r="AJ77" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AK77" s="13" t="n">
-        <v>0</v>
+      <c r="AK77" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AL77" s="13" t="s">
         <v>58</v>
@@ -12505,59 +12505,59 @@
       <c r="AJ78" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AK78" s="16" t="s">
-        <v>58</v>
+      <c r="AK78" s="16" t="n">
+        <v>184112</v>
       </c>
       <c r="AL78" s="16" t="n">
-        <v>184112</v>
+        <v>100888</v>
       </c>
       <c r="AM78" s="16" t="n">
-        <v>100888</v>
+        <v>169113</v>
       </c>
       <c r="AN78" s="16" t="n">
-        <v>169113</v>
+        <v>141870</v>
       </c>
       <c r="AO78" s="16" t="n">
         <v>141870</v>
       </c>
       <c r="AP78" s="16" t="n">
-        <v>141870</v>
+        <v>29874</v>
       </c>
       <c r="AQ78" s="16" t="n">
-        <v>29874</v>
+        <v>135144</v>
       </c>
       <c r="AR78" s="16" t="n">
-        <v>135144</v>
+        <v>97532</v>
       </c>
       <c r="AS78" s="16" t="n">
-        <v>97532</v>
+        <v>20143</v>
       </c>
       <c r="AT78" s="16" t="n">
-        <v>20143</v>
+        <v>85602</v>
       </c>
       <c r="AU78" s="16" t="n">
-        <v>85602</v>
+        <v>30909</v>
       </c>
       <c r="AV78" s="16" t="n">
-        <v>30909</v>
+        <v>15096</v>
       </c>
       <c r="AW78" s="16" t="n">
-        <v>15096</v>
+        <v>6251</v>
       </c>
       <c r="AX78" s="16" t="n">
-        <v>6251</v>
+        <v>-2714</v>
       </c>
       <c r="AY78" s="16" t="n">
-        <v>-2714</v>
+        <v>48207</v>
       </c>
       <c r="AZ78" s="16" t="n">
-        <v>48207</v>
+        <v>205238</v>
       </c>
       <c r="BA78" s="16" t="n">
-        <v>205238</v>
+        <v>212048</v>
       </c>
       <c r="BB78" s="16" t="n">
-        <v>212048</v>
+        <v>154349</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12634,23 +12634,23 @@
       <c r="Z79" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA79" s="13" t="s">
-        <v>58</v>
+      <c r="AA79" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AB79" s="13" t="n">
-        <v>0</v>
+        <v>213749</v>
       </c>
       <c r="AC79" s="13" t="n">
-        <v>213749</v>
+        <v>28280</v>
       </c>
       <c r="AD79" s="13" t="n">
-        <v>28280</v>
+        <v>0</v>
       </c>
       <c r="AE79" s="13" t="n">
-        <v>0</v>
+        <v>115649</v>
       </c>
       <c r="AF79" s="13" t="n">
-        <v>115649</v>
+        <v>0</v>
       </c>
       <c r="AG79" s="13" t="n">
         <v>0</v>
@@ -12668,13 +12668,13 @@
         <v>0</v>
       </c>
       <c r="AL79" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM79" s="13" t="n">
         <v>43386</v>
       </c>
-      <c r="AN79" s="13" t="s">
-        <v>58</v>
+      <c r="AM79" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN79" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AO79" s="13" t="n">
         <v>0</v>
@@ -12683,13 +12683,13 @@
         <v>0</v>
       </c>
       <c r="AQ79" s="13" t="n">
-        <v>0</v>
+        <v>-262</v>
       </c>
       <c r="AR79" s="13" t="n">
-        <v>-262</v>
+        <v>339266</v>
       </c>
       <c r="AS79" s="13" t="n">
-        <v>339266</v>
+        <v>0</v>
       </c>
       <c r="AT79" s="13" t="n">
         <v>0</v>
@@ -12706,11 +12706,11 @@
       <c r="AX79" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AY79" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ79" s="13" t="s">
-        <v>58</v>
+      <c r="AY79" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ79" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="BA79" s="13" t="n">
         <v>0</v>
@@ -12793,38 +12793,38 @@
       <c r="Z80" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AA80" s="16" t="s">
-        <v>58</v>
+      <c r="AA80" s="16" t="n">
+        <v>3655355</v>
       </c>
       <c r="AB80" s="16" t="n">
-        <v>3655355</v>
+        <v>3729388</v>
       </c>
       <c r="AC80" s="16" t="n">
-        <v>3729388</v>
+        <v>4807213</v>
       </c>
       <c r="AD80" s="16" t="n">
-        <v>4807213</v>
+        <v>3815596</v>
       </c>
       <c r="AE80" s="16" t="n">
-        <v>3815596</v>
+        <v>4515304</v>
       </c>
       <c r="AF80" s="16" t="n">
-        <v>4515304</v>
+        <v>6347852</v>
       </c>
       <c r="AG80" s="16" t="n">
-        <v>6347852</v>
+        <v>6548395</v>
       </c>
       <c r="AH80" s="16" t="n">
-        <v>6548395</v>
+        <v>5368182</v>
       </c>
       <c r="AI80" s="16" t="n">
-        <v>5368182</v>
+        <v>5581282</v>
       </c>
       <c r="AJ80" s="16" t="n">
-        <v>5581282</v>
-      </c>
-      <c r="AK80" s="16" t="n">
         <v>5342739</v>
+      </c>
+      <c r="AK80" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AL80" s="16" t="s">
         <v>58</v>
@@ -12982,59 +12982,59 @@
       <c r="AJ81" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK81" s="13" t="s">
-        <v>58</v>
+      <c r="AK81" s="13" t="n">
+        <v>2179816</v>
       </c>
       <c r="AL81" s="13" t="n">
-        <v>2179816</v>
+        <v>2031620</v>
       </c>
       <c r="AM81" s="13" t="n">
-        <v>2031620</v>
+        <v>2409060</v>
       </c>
       <c r="AN81" s="13" t="n">
-        <v>2409060</v>
+        <v>2449732</v>
       </c>
       <c r="AO81" s="13" t="n">
         <v>2449732</v>
       </c>
       <c r="AP81" s="13" t="n">
-        <v>2449732</v>
+        <v>1347901</v>
       </c>
       <c r="AQ81" s="13" t="n">
-        <v>1347901</v>
+        <v>3551156</v>
       </c>
       <c r="AR81" s="13" t="n">
-        <v>3551156</v>
+        <v>11053151</v>
       </c>
       <c r="AS81" s="13" t="n">
-        <v>11053151</v>
+        <v>12388622</v>
       </c>
       <c r="AT81" s="13" t="n">
-        <v>12388622</v>
+        <v>5918985</v>
       </c>
       <c r="AU81" s="13" t="n">
-        <v>5918985</v>
+        <v>7715448</v>
       </c>
       <c r="AV81" s="13" t="n">
-        <v>7715448</v>
+        <v>7797090</v>
       </c>
       <c r="AW81" s="13" t="n">
-        <v>7797090</v>
+        <v>8228997</v>
       </c>
       <c r="AX81" s="13" t="n">
-        <v>8228997</v>
+        <v>7718281</v>
       </c>
       <c r="AY81" s="13" t="n">
-        <v>7718281</v>
+        <v>8181778</v>
       </c>
       <c r="AZ81" s="13" t="n">
-        <v>8181778</v>
+        <v>8540434</v>
       </c>
       <c r="BA81" s="13" t="n">
-        <v>8540434</v>
+        <v>9980572</v>
       </c>
       <c r="BB81" s="13" t="n">
-        <v>9980572</v>
+        <v>6320405</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13141,59 +13141,59 @@
       <c r="AJ82" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AK82" s="16" t="s">
-        <v>58</v>
+      <c r="AK82" s="16" t="n">
+        <v>1990379</v>
       </c>
       <c r="AL82" s="16" t="n">
-        <v>1990379</v>
+        <v>1393162</v>
       </c>
       <c r="AM82" s="16" t="n">
-        <v>1393162</v>
+        <v>2396343</v>
       </c>
       <c r="AN82" s="16" t="n">
-        <v>2396343</v>
+        <v>2498117</v>
       </c>
       <c r="AO82" s="16" t="n">
         <v>2498117</v>
       </c>
       <c r="AP82" s="16" t="n">
-        <v>2498117</v>
+        <v>1377461</v>
       </c>
       <c r="AQ82" s="16" t="n">
-        <v>1377461</v>
+        <v>4006676</v>
       </c>
       <c r="AR82" s="16" t="n">
-        <v>4006676</v>
+        <v>5128830</v>
       </c>
       <c r="AS82" s="16" t="n">
-        <v>5128830</v>
+        <v>10113091</v>
       </c>
       <c r="AT82" s="16" t="n">
-        <v>10113091</v>
+        <v>4694801</v>
       </c>
       <c r="AU82" s="16" t="n">
-        <v>4694801</v>
+        <v>5647651</v>
       </c>
       <c r="AV82" s="16" t="n">
-        <v>5647651</v>
+        <v>5722602</v>
       </c>
       <c r="AW82" s="16" t="n">
-        <v>5722602</v>
+        <v>5890757</v>
       </c>
       <c r="AX82" s="16" t="n">
-        <v>5890757</v>
+        <v>5139229</v>
       </c>
       <c r="AY82" s="16" t="n">
-        <v>5139229</v>
+        <v>7760858</v>
       </c>
       <c r="AZ82" s="16" t="n">
-        <v>7760858</v>
+        <v>6045209</v>
       </c>
       <c r="BA82" s="16" t="n">
-        <v>6045209</v>
+        <v>8968674</v>
       </c>
       <c r="BB82" s="16" t="n">
-        <v>8968674</v>
+        <v>5572784</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13300,59 +13300,59 @@
       <c r="AJ83" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK83" s="13" t="s">
-        <v>58</v>
+      <c r="AK83" s="13" t="n">
+        <v>551764</v>
       </c>
       <c r="AL83" s="13" t="n">
-        <v>551764</v>
+        <v>508487</v>
       </c>
       <c r="AM83" s="13" t="n">
-        <v>508487</v>
+        <v>596920</v>
       </c>
       <c r="AN83" s="13" t="n">
-        <v>596920</v>
+        <v>710666</v>
       </c>
       <c r="AO83" s="13" t="n">
         <v>710666</v>
       </c>
       <c r="AP83" s="13" t="n">
-        <v>710666</v>
+        <v>571759</v>
       </c>
       <c r="AQ83" s="13" t="n">
-        <v>571759</v>
+        <v>649186</v>
       </c>
       <c r="AR83" s="13" t="n">
-        <v>649186</v>
+        <v>2814568</v>
       </c>
       <c r="AS83" s="13" t="n">
-        <v>2814568</v>
+        <v>3960617</v>
       </c>
       <c r="AT83" s="13" t="n">
-        <v>3960617</v>
+        <v>1798975</v>
       </c>
       <c r="AU83" s="13" t="n">
-        <v>1798975</v>
+        <v>2829608</v>
       </c>
       <c r="AV83" s="13" t="n">
-        <v>2829608</v>
+        <v>2918854</v>
       </c>
       <c r="AW83" s="13" t="n">
-        <v>2918854</v>
+        <v>3267005</v>
       </c>
       <c r="AX83" s="13" t="n">
-        <v>3267005</v>
+        <v>3557633</v>
       </c>
       <c r="AY83" s="13" t="n">
-        <v>3557633</v>
+        <v>3189463</v>
       </c>
       <c r="AZ83" s="13" t="n">
-        <v>3189463</v>
+        <v>3633774</v>
       </c>
       <c r="BA83" s="13" t="n">
-        <v>3633774</v>
+        <v>4128142</v>
       </c>
       <c r="BB83" s="13" t="n">
-        <v>4128142</v>
+        <v>2709456</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13459,59 +13459,59 @@
       <c r="AJ84" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AK84" s="16" t="s">
-        <v>58</v>
+      <c r="AK84" s="16" t="n">
+        <v>144954</v>
       </c>
       <c r="AL84" s="16" t="n">
-        <v>144954</v>
+        <v>153336</v>
       </c>
       <c r="AM84" s="16" t="n">
-        <v>153336</v>
+        <v>290369</v>
       </c>
       <c r="AN84" s="16" t="n">
-        <v>290369</v>
+        <v>263632</v>
       </c>
       <c r="AO84" s="16" t="n">
         <v>263632</v>
       </c>
       <c r="AP84" s="16" t="n">
-        <v>263632</v>
+        <v>4720</v>
       </c>
       <c r="AQ84" s="16" t="n">
-        <v>4720</v>
+        <v>-19</v>
       </c>
       <c r="AR84" s="16" t="n">
-        <v>-19</v>
+        <v>143662</v>
       </c>
       <c r="AS84" s="16" t="n">
-        <v>143662</v>
+        <v>1550873</v>
       </c>
       <c r="AT84" s="16" t="n">
-        <v>1550873</v>
+        <v>1339792</v>
       </c>
       <c r="AU84" s="16" t="n">
-        <v>1339792</v>
+        <v>1522055</v>
       </c>
       <c r="AV84" s="16" t="n">
-        <v>1522055</v>
+        <v>598446</v>
       </c>
       <c r="AW84" s="16" t="n">
-        <v>598446</v>
+        <v>341009</v>
       </c>
       <c r="AX84" s="16" t="n">
-        <v>341009</v>
+        <v>1061413</v>
       </c>
       <c r="AY84" s="16" t="n">
-        <v>1061413</v>
+        <v>559177</v>
       </c>
       <c r="AZ84" s="16" t="n">
-        <v>559177</v>
+        <v>862431</v>
       </c>
       <c r="BA84" s="16" t="n">
-        <v>862431</v>
+        <v>1055544</v>
       </c>
       <c r="BB84" s="16" t="n">
-        <v>1055544</v>
+        <v>807248</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13618,26 +13618,26 @@
       <c r="AJ85" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK85" s="13" t="s">
-        <v>58</v>
+      <c r="AK85" s="13" t="n">
+        <v>55414</v>
       </c>
       <c r="AL85" s="13" t="n">
-        <v>55414</v>
+        <v>59392</v>
       </c>
       <c r="AM85" s="13" t="n">
-        <v>59392</v>
+        <v>18473</v>
       </c>
       <c r="AN85" s="13" t="n">
-        <v>18473</v>
+        <v>11498</v>
       </c>
       <c r="AO85" s="13" t="n">
         <v>11498</v>
       </c>
       <c r="AP85" s="13" t="n">
-        <v>11498</v>
-      </c>
-      <c r="AQ85" s="13" t="n">
         <v>11257</v>
+      </c>
+      <c r="AQ85" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AR85" s="13" t="s">
         <v>58</v>
@@ -13777,59 +13777,59 @@
       <c r="AJ86" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AK86" s="16" t="s">
-        <v>58</v>
+      <c r="AK86" s="16" t="n">
+        <v>32600</v>
       </c>
       <c r="AL86" s="16" t="n">
-        <v>32600</v>
+        <v>35923</v>
       </c>
       <c r="AM86" s="16" t="n">
-        <v>35923</v>
+        <v>29219</v>
       </c>
       <c r="AN86" s="16" t="n">
-        <v>29219</v>
+        <v>49267</v>
       </c>
       <c r="AO86" s="16" t="n">
         <v>49267</v>
       </c>
       <c r="AP86" s="16" t="n">
-        <v>49267</v>
+        <v>42731</v>
       </c>
       <c r="AQ86" s="16" t="n">
-        <v>42731</v>
+        <v>72175</v>
       </c>
       <c r="AR86" s="16" t="n">
-        <v>72175</v>
+        <v>204656</v>
       </c>
       <c r="AS86" s="16" t="n">
-        <v>204656</v>
+        <v>114877</v>
       </c>
       <c r="AT86" s="16" t="n">
-        <v>114877</v>
+        <v>77596</v>
       </c>
       <c r="AU86" s="16" t="n">
-        <v>77596</v>
+        <v>72221</v>
       </c>
       <c r="AV86" s="16" t="n">
-        <v>72221</v>
+        <v>55843</v>
       </c>
       <c r="AW86" s="16" t="n">
-        <v>55843</v>
+        <v>70928</v>
       </c>
       <c r="AX86" s="16" t="n">
-        <v>70928</v>
+        <v>93636</v>
       </c>
       <c r="AY86" s="16" t="n">
-        <v>93636</v>
+        <v>92778</v>
       </c>
       <c r="AZ86" s="16" t="n">
-        <v>92778</v>
+        <v>102666</v>
       </c>
       <c r="BA86" s="16" t="n">
-        <v>102666</v>
+        <v>160297</v>
       </c>
       <c r="BB86" s="16" t="n">
-        <v>160297</v>
+        <v>60994</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13936,17 +13936,17 @@
       <c r="AJ87" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK87" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL87" s="13" t="n">
+      <c r="AK87" s="13" t="n">
         <v>101644</v>
       </c>
-      <c r="AM87" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN87" s="13" t="n">
+      <c r="AL87" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM87" s="13" t="n">
         <v>73964</v>
+      </c>
+      <c r="AN87" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AO87" s="13" t="s">
         <v>58</v>
@@ -14113,35 +14113,35 @@
       <c r="AP88" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AQ88" s="16" t="s">
-        <v>58</v>
+      <c r="AQ88" s="16" t="n">
+        <v>6437</v>
       </c>
       <c r="AR88" s="16" t="n">
-        <v>6437</v>
+        <v>0</v>
       </c>
       <c r="AS88" s="16" t="n">
-        <v>0</v>
+        <v>6247</v>
       </c>
       <c r="AT88" s="16" t="n">
-        <v>6247</v>
+        <v>7238</v>
       </c>
       <c r="AU88" s="16" t="n">
-        <v>7238</v>
+        <v>0</v>
       </c>
       <c r="AV88" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AW88" s="16" t="n">
-        <v>0</v>
+        <v>16838</v>
       </c>
       <c r="AX88" s="16" t="n">
-        <v>16838</v>
-      </c>
-      <c r="AY88" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ88" s="16" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AY88" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ88" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="BA88" s="16" t="n">
         <v>0</v>
@@ -14272,41 +14272,41 @@
       <c r="AP89" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ89" s="13" t="s">
-        <v>58</v>
+      <c r="AQ89" s="13" t="n">
+        <v>12590</v>
       </c>
       <c r="AR89" s="13" t="n">
-        <v>12590</v>
+        <v>34081</v>
       </c>
       <c r="AS89" s="13" t="n">
-        <v>34081</v>
+        <v>77096</v>
       </c>
       <c r="AT89" s="13" t="n">
-        <v>77096</v>
+        <v>0</v>
       </c>
       <c r="AU89" s="13" t="n">
-        <v>0</v>
+        <v>48216</v>
       </c>
       <c r="AV89" s="13" t="n">
-        <v>48216</v>
+        <v>51013</v>
       </c>
       <c r="AW89" s="13" t="n">
-        <v>51013</v>
+        <v>64692</v>
       </c>
       <c r="AX89" s="13" t="n">
-        <v>64692</v>
+        <v>7779</v>
       </c>
       <c r="AY89" s="13" t="n">
+        <v>17826</v>
+      </c>
+      <c r="AZ89" s="13" t="n">
         <v>7779</v>
       </c>
-      <c r="AZ89" s="13" t="n">
-        <v>17826</v>
-      </c>
       <c r="BA89" s="13" t="n">
-        <v>7779</v>
+        <v>0</v>
       </c>
       <c r="BB89" s="13" t="n">
-        <v>0</v>
+        <v>3155</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14437,8 +14437,8 @@
       <c r="AR90" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AS90" s="16" t="s">
-        <v>58</v>
+      <c r="AS90" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AT90" s="16" t="n">
         <v>0</v>
@@ -14452,8 +14452,8 @@
       <c r="AW90" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AX90" s="16" t="n">
-        <v>0</v>
+      <c r="AX90" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AY90" s="16" t="s">
         <v>58</v>
@@ -14461,8 +14461,8 @@
       <c r="AZ90" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="BA90" s="16" t="s">
-        <v>58</v>
+      <c r="BA90" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="BB90" s="16" t="n">
         <v>0</v>
@@ -14590,41 +14590,41 @@
       <c r="AP91" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ91" s="13" t="s">
-        <v>58</v>
+      <c r="AQ91" s="13" t="n">
+        <v>5416</v>
       </c>
       <c r="AR91" s="13" t="n">
-        <v>5416</v>
+        <v>0</v>
       </c>
       <c r="AS91" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AT91" s="13" t="n">
-        <v>0</v>
+        <v>327520</v>
       </c>
       <c r="AU91" s="13" t="n">
-        <v>327520</v>
+        <v>116927</v>
       </c>
       <c r="AV91" s="13" t="n">
-        <v>116927</v>
+        <v>75490</v>
       </c>
       <c r="AW91" s="13" t="n">
-        <v>75490</v>
+        <v>32484</v>
       </c>
       <c r="AX91" s="13" t="n">
-        <v>32484</v>
+        <v>140960</v>
       </c>
       <c r="AY91" s="13" t="n">
-        <v>140960</v>
+        <v>21515</v>
       </c>
       <c r="AZ91" s="13" t="n">
-        <v>21515</v>
+        <v>53326</v>
       </c>
       <c r="BA91" s="13" t="n">
-        <v>53326</v>
+        <v>21245</v>
       </c>
       <c r="BB91" s="13" t="n">
-        <v>21245</v>
+        <v>45994</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14749,8 +14749,8 @@
       <c r="AP92" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AQ92" s="16" t="s">
-        <v>58</v>
+      <c r="AQ92" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AR92" s="16" t="n">
         <v>0</v>
@@ -14773,11 +14773,11 @@
       <c r="AX92" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AY92" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ92" s="16" t="s">
-        <v>58</v>
+      <c r="AY92" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ92" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="BA92" s="16" t="n">
         <v>0</v>
@@ -14911,8 +14911,8 @@
       <c r="AQ93" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR93" s="13" t="s">
-        <v>58</v>
+      <c r="AR93" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AS93" s="13" t="n">
         <v>0</v>
@@ -14932,8 +14932,8 @@
       <c r="AX93" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AY93" s="13" t="n">
-        <v>0</v>
+      <c r="AY93" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AZ93" s="13" t="s">
         <v>58</v>
@@ -15018,88 +15018,88 @@
         <v>0</v>
       </c>
       <c r="AA94" s="18" t="n">
-        <v>0</v>
+        <v>3655363</v>
       </c>
       <c r="AB94" s="18" t="n">
-        <v>3655363</v>
+        <v>3943137</v>
       </c>
       <c r="AC94" s="18" t="n">
-        <v>3943137</v>
+        <v>4835493</v>
       </c>
       <c r="AD94" s="18" t="n">
-        <v>4835493</v>
+        <v>3815596</v>
       </c>
       <c r="AE94" s="18" t="n">
-        <v>3815596</v>
+        <v>4630953</v>
       </c>
       <c r="AF94" s="18" t="n">
-        <v>4630953</v>
+        <v>6347852</v>
       </c>
       <c r="AG94" s="18" t="n">
-        <v>6347852</v>
+        <v>6548395</v>
       </c>
       <c r="AH94" s="18" t="n">
-        <v>6548395</v>
+        <v>5368182</v>
       </c>
       <c r="AI94" s="18" t="n">
-        <v>5368182</v>
+        <v>5581282</v>
       </c>
       <c r="AJ94" s="18" t="n">
-        <v>5581282</v>
+        <v>5342739</v>
       </c>
       <c r="AK94" s="18" t="n">
-        <v>5342739</v>
+        <v>5240683</v>
       </c>
       <c r="AL94" s="18" t="n">
-        <v>5240683</v>
+        <v>4326194</v>
       </c>
       <c r="AM94" s="18" t="n">
-        <v>4326194</v>
+        <v>5983461</v>
       </c>
       <c r="AN94" s="18" t="n">
-        <v>5983461</v>
+        <v>6124782</v>
       </c>
       <c r="AO94" s="18" t="n">
         <v>6124782</v>
       </c>
       <c r="AP94" s="18" t="n">
-        <v>6124782</v>
+        <v>3385703</v>
       </c>
       <c r="AQ94" s="18" t="n">
-        <v>3385703</v>
+        <v>8438499</v>
       </c>
       <c r="AR94" s="18" t="n">
-        <v>8438499</v>
+        <v>19815746</v>
       </c>
       <c r="AS94" s="18" t="n">
-        <v>19815746</v>
+        <v>28231566</v>
       </c>
       <c r="AT94" s="18" t="n">
-        <v>28231566</v>
+        <v>14250509</v>
       </c>
       <c r="AU94" s="18" t="n">
-        <v>14250509</v>
+        <v>17983035</v>
       </c>
       <c r="AV94" s="18" t="n">
-        <v>17983035</v>
+        <v>17234434</v>
       </c>
       <c r="AW94" s="18" t="n">
-        <v>17234434</v>
+        <v>17918961</v>
       </c>
       <c r="AX94" s="18" t="n">
-        <v>17918961</v>
+        <v>17716217</v>
       </c>
       <c r="AY94" s="18" t="n">
-        <v>17716217</v>
+        <v>19871602</v>
       </c>
       <c r="AZ94" s="18" t="n">
-        <v>19871602</v>
+        <v>19450857</v>
       </c>
       <c r="BA94" s="18" t="n">
-        <v>19450857</v>
+        <v>24526522</v>
       </c>
       <c r="BB94" s="18" t="n">
-        <v>24526522</v>
+        <v>15674385</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15266,14 +15266,14 @@
       <c r="AK96" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL96" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM96" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN96" s="13" t="s">
-        <v>58</v>
+      <c r="AL96" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM96" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN96" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AO96" s="13" t="n">
         <v>0</v>
@@ -15287,8 +15287,8 @@
       <c r="AR96" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AS96" s="13" t="n">
-        <v>0</v>
+      <c r="AS96" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT96" s="13" t="s">
         <v>58</v>
@@ -15392,8 +15392,8 @@
       <c r="Z97" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AA97" s="16" t="s">
-        <v>58</v>
+      <c r="AA97" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AB97" s="16" t="n">
         <v>0</v>
@@ -15425,8 +15425,8 @@
       <c r="AK97" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AL97" s="16" t="n">
-        <v>0</v>
+      <c r="AL97" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AM97" s="16" t="s">
         <v>58</v>
@@ -15804,8 +15804,8 @@
       <c r="AM100" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN100" s="13" t="s">
-        <v>58</v>
+      <c r="AN100" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AO100" s="13" t="n">
         <v>0</v>
@@ -15819,8 +15819,8 @@
       <c r="AR100" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AS100" s="13" t="n">
-        <v>0</v>
+      <c r="AS100" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT100" s="13" t="s">
         <v>58</v>
@@ -15924,8 +15924,8 @@
       <c r="Z101" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="AA101" s="18" t="s">
-        <v>58</v>
+      <c r="AA101" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="AB101" s="23" t="n">
         <v>0</v>
@@ -16140,8 +16140,8 @@
       <c r="Z103" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="AA103" s="20" t="s">
-        <v>58</v>
+      <c r="AA103" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AB103" s="24" t="n">
         <v>0</v>
@@ -16356,89 +16356,89 @@
       <c r="Z105" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA105" s="13" t="s">
-        <v>58</v>
+      <c r="AA105" s="13" t="n">
+        <v>-94163</v>
       </c>
       <c r="AB105" s="13" t="n">
-        <v>-94163</v>
+        <v>-137794</v>
       </c>
       <c r="AC105" s="13" t="n">
-        <v>-137794</v>
+        <v>-160867</v>
       </c>
       <c r="AD105" s="13" t="n">
-        <v>-160867</v>
+        <v>-132957</v>
       </c>
       <c r="AE105" s="13" t="n">
-        <v>-132957</v>
+        <v>-166178</v>
       </c>
       <c r="AF105" s="13" t="n">
-        <v>-166178</v>
+        <v>-159975</v>
       </c>
       <c r="AG105" s="13" t="n">
-        <v>-159975</v>
+        <v>-199790</v>
       </c>
       <c r="AH105" s="13" t="n">
-        <v>-199790</v>
+        <v>-141327</v>
       </c>
       <c r="AI105" s="13" t="n">
-        <v>-141327</v>
+        <v>-226083</v>
       </c>
       <c r="AJ105" s="13" t="n">
-        <v>-226083</v>
+        <v>-162469</v>
       </c>
       <c r="AK105" s="13" t="n">
-        <v>-162469</v>
+        <v>-9851</v>
       </c>
       <c r="AL105" s="13" t="n">
-        <v>-9851</v>
+        <v>-174864</v>
       </c>
       <c r="AM105" s="13" t="n">
-        <v>-174864</v>
+        <v>-144552</v>
       </c>
       <c r="AN105" s="13" t="n">
-        <v>-144552</v>
+        <v>-194266</v>
       </c>
       <c r="AO105" s="13" t="n">
         <v>-194266</v>
       </c>
       <c r="AP105" s="13" t="n">
-        <v>-194266</v>
+        <v>-112332</v>
       </c>
       <c r="AQ105" s="13" t="n">
-        <v>-112332</v>
+        <v>-223594</v>
       </c>
       <c r="AR105" s="13" t="n">
-        <v>-223594</v>
+        <v>-412144</v>
       </c>
       <c r="AS105" s="13" t="n">
-        <v>-412144</v>
+        <v>-1150534</v>
       </c>
       <c r="AT105" s="13" t="n">
-        <v>-1150534</v>
+        <v>-1545296</v>
       </c>
       <c r="AU105" s="13" t="n">
-        <v>-1545296</v>
+        <v>-1258430</v>
       </c>
       <c r="AV105" s="13" t="n">
-        <v>-1258430</v>
+        <v>-1711873</v>
       </c>
       <c r="AW105" s="13" t="n">
-        <v>-1711873</v>
+        <v>-1862159</v>
       </c>
       <c r="AX105" s="13" t="n">
-        <v>-1862159</v>
+        <v>-1571755</v>
       </c>
       <c r="AY105" s="13" t="n">
-        <v>-1571755</v>
+        <v>-1437843</v>
       </c>
       <c r="AZ105" s="13" t="n">
-        <v>-1437843</v>
+        <v>-1498634</v>
       </c>
       <c r="BA105" s="13" t="n">
-        <v>-1498634</v>
+        <v>-2290215</v>
       </c>
       <c r="BB105" s="13" t="n">
-        <v>-2290215</v>
+        <v>-1089588</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16514,88 +16514,88 @@
         <v>0</v>
       </c>
       <c r="AA106" s="23" t="n">
-        <v>0</v>
+        <v>3561200</v>
       </c>
       <c r="AB106" s="23" t="n">
-        <v>3561200</v>
+        <v>3805343</v>
       </c>
       <c r="AC106" s="23" t="n">
-        <v>3805343</v>
+        <v>4674626</v>
       </c>
       <c r="AD106" s="23" t="n">
-        <v>4674626</v>
+        <v>3682639</v>
       </c>
       <c r="AE106" s="23" t="n">
-        <v>3682639</v>
+        <v>4464775</v>
       </c>
       <c r="AF106" s="23" t="n">
-        <v>4464775</v>
+        <v>6187877</v>
       </c>
       <c r="AG106" s="23" t="n">
-        <v>6187877</v>
+        <v>6348605</v>
       </c>
       <c r="AH106" s="23" t="n">
-        <v>6348605</v>
+        <v>5226855</v>
       </c>
       <c r="AI106" s="23" t="n">
-        <v>5226855</v>
+        <v>5355199</v>
       </c>
       <c r="AJ106" s="23" t="n">
-        <v>5355199</v>
+        <v>5180270</v>
       </c>
       <c r="AK106" s="23" t="n">
-        <v>5180270</v>
+        <v>5230832</v>
       </c>
       <c r="AL106" s="23" t="n">
-        <v>5230832</v>
+        <v>4151330</v>
       </c>
       <c r="AM106" s="23" t="n">
-        <v>4151330</v>
+        <v>5838909</v>
       </c>
       <c r="AN106" s="23" t="n">
-        <v>5838909</v>
+        <v>5930516</v>
       </c>
       <c r="AO106" s="23" t="n">
         <v>5930516</v>
       </c>
       <c r="AP106" s="23" t="n">
-        <v>5930516</v>
+        <v>3273371</v>
       </c>
       <c r="AQ106" s="23" t="n">
-        <v>3273371</v>
+        <v>8214905</v>
       </c>
       <c r="AR106" s="23" t="n">
-        <v>8214905</v>
+        <v>19403602</v>
       </c>
       <c r="AS106" s="23" t="n">
-        <v>19403602</v>
+        <v>27081032</v>
       </c>
       <c r="AT106" s="23" t="n">
-        <v>27081032</v>
+        <v>12705213</v>
       </c>
       <c r="AU106" s="23" t="n">
-        <v>12705213</v>
+        <v>16724605</v>
       </c>
       <c r="AV106" s="23" t="n">
-        <v>16724605</v>
+        <v>15522561</v>
       </c>
       <c r="AW106" s="23" t="n">
-        <v>15522561</v>
+        <v>16056802</v>
       </c>
       <c r="AX106" s="23" t="n">
-        <v>16056802</v>
+        <v>16144462</v>
       </c>
       <c r="AY106" s="23" t="n">
-        <v>16144462</v>
+        <v>18433759</v>
       </c>
       <c r="AZ106" s="23" t="n">
-        <v>18433759</v>
+        <v>17952223</v>
       </c>
       <c r="BA106" s="23" t="n">
-        <v>17952223</v>
+        <v>22236307</v>
       </c>
       <c r="BB106" s="23" t="n">
-        <v>22236307</v>
+        <v>14584797</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17136,59 +17136,59 @@
       <c r="AJ113" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK113" s="13" t="s">
-        <v>58</v>
+      <c r="AK113" s="13" t="n">
+        <v>52558379</v>
       </c>
       <c r="AL113" s="13" t="n">
-        <v>52558379</v>
+        <v>28841624</v>
       </c>
       <c r="AM113" s="13" t="n">
-        <v>28841624</v>
+        <v>38592652</v>
       </c>
       <c r="AN113" s="13" t="n">
-        <v>38592652</v>
+        <v>36339652</v>
       </c>
       <c r="AO113" s="13" t="n">
         <v>36339652</v>
       </c>
       <c r="AP113" s="13" t="n">
-        <v>36339652</v>
+        <v>25664948</v>
       </c>
       <c r="AQ113" s="13" t="n">
-        <v>25664948</v>
+        <v>38491598</v>
       </c>
       <c r="AR113" s="13" t="n">
-        <v>38491598</v>
+        <v>38580696</v>
       </c>
       <c r="AS113" s="13" t="n">
-        <v>38580696</v>
+        <v>22556551</v>
       </c>
       <c r="AT113" s="13" t="n">
-        <v>22556551</v>
+        <v>54662835</v>
       </c>
       <c r="AU113" s="13" t="n">
-        <v>54662835</v>
+        <v>33706652</v>
       </c>
       <c r="AV113" s="13" t="n">
-        <v>33706652</v>
+        <v>31515658</v>
       </c>
       <c r="AW113" s="13" t="n">
-        <v>31515658</v>
+        <v>102475410</v>
       </c>
       <c r="AX113" s="13" t="n">
-        <v>102475410</v>
+        <v>104384615</v>
       </c>
       <c r="AY113" s="13" t="n">
-        <v>104384615</v>
+        <v>59368227</v>
       </c>
       <c r="AZ113" s="13" t="n">
-        <v>59368227</v>
+        <v>34680297</v>
       </c>
       <c r="BA113" s="13" t="n">
-        <v>34680297</v>
+        <v>38936467</v>
       </c>
       <c r="BB113" s="13" t="n">
-        <v>38936467</v>
+        <v>81752648</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17268,21 +17268,21 @@
       <c r="AA114" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AB114" s="16" t="s">
-        <v>58</v>
+      <c r="AB114" s="16" t="n">
+        <v>29999860</v>
       </c>
       <c r="AC114" s="16" t="n">
-        <v>29999860</v>
-      </c>
-      <c r="AD114" s="16" t="n">
         <v>23237469</v>
       </c>
-      <c r="AE114" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF114" s="16" t="n">
+      <c r="AD114" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE114" s="16" t="n">
         <v>30322234</v>
       </c>
+      <c r="AF114" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AG114" s="16" t="s">
         <v>58</v>
       </c>
@@ -17298,12 +17298,12 @@
       <c r="AK114" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AL114" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM114" s="16" t="n">
+      <c r="AL114" s="16" t="n">
         <v>30129167</v>
       </c>
+      <c r="AM114" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AN114" s="16" t="s">
         <v>58</v>
       </c>
@@ -17313,14 +17313,14 @@
       <c r="AP114" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AQ114" s="16" t="s">
-        <v>58</v>
+      <c r="AQ114" s="16" t="n">
+        <v>26200000</v>
       </c>
       <c r="AR114" s="16" t="n">
-        <v>26200000</v>
-      </c>
-      <c r="AS114" s="16" t="n">
         <v>70067328</v>
+      </c>
+      <c r="AS114" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AT114" s="16" t="s">
         <v>58</v>
@@ -17424,38 +17424,38 @@
       <c r="Z115" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA115" s="13" t="s">
-        <v>58</v>
+      <c r="AA115" s="13" t="n">
+        <v>102730454</v>
       </c>
       <c r="AB115" s="13" t="n">
-        <v>102730454</v>
+        <v>104149576</v>
       </c>
       <c r="AC115" s="13" t="n">
-        <v>104149576</v>
+        <v>118866846</v>
       </c>
       <c r="AD115" s="13" t="n">
-        <v>118866846</v>
+        <v>111900874</v>
       </c>
       <c r="AE115" s="13" t="n">
-        <v>111900874</v>
+        <v>120132603</v>
       </c>
       <c r="AF115" s="13" t="n">
-        <v>120132603</v>
+        <v>149343654</v>
       </c>
       <c r="AG115" s="13" t="n">
-        <v>149343654</v>
+        <v>153956717</v>
       </c>
       <c r="AH115" s="13" t="n">
-        <v>153956717</v>
+        <v>149394206</v>
       </c>
       <c r="AI115" s="13" t="n">
-        <v>149394206</v>
+        <v>146214031</v>
       </c>
       <c r="AJ115" s="13" t="n">
-        <v>146214031</v>
-      </c>
-      <c r="AK115" s="13" t="n">
         <v>149761430</v>
+      </c>
+      <c r="AK115" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AL115" s="13" t="s">
         <v>58</v>
@@ -17613,59 +17613,59 @@
       <c r="AJ116" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AK116" s="16" t="s">
-        <v>58</v>
+      <c r="AK116" s="16" t="n">
+        <v>155102889</v>
       </c>
       <c r="AL116" s="16" t="n">
-        <v>155102889</v>
+        <v>153329811</v>
       </c>
       <c r="AM116" s="16" t="n">
-        <v>153329811</v>
+        <v>157393179</v>
       </c>
       <c r="AN116" s="16" t="n">
-        <v>157393179</v>
+        <v>157154991</v>
       </c>
       <c r="AO116" s="16" t="n">
         <v>157154991</v>
       </c>
       <c r="AP116" s="16" t="n">
-        <v>157154991</v>
+        <v>165264958</v>
       </c>
       <c r="AQ116" s="16" t="n">
-        <v>165264958</v>
+        <v>445174376</v>
       </c>
       <c r="AR116" s="16" t="n">
-        <v>445174376</v>
+        <v>747845129</v>
       </c>
       <c r="AS116" s="16" t="n">
-        <v>747845129</v>
+        <v>728356870</v>
       </c>
       <c r="AT116" s="16" t="n">
-        <v>728356870</v>
+        <v>686497912</v>
       </c>
       <c r="AU116" s="16" t="n">
-        <v>686497912</v>
+        <v>655796685</v>
       </c>
       <c r="AV116" s="16" t="n">
-        <v>655796685</v>
+        <v>657427487</v>
       </c>
       <c r="AW116" s="16" t="n">
-        <v>657427487</v>
+        <v>664057214</v>
       </c>
       <c r="AX116" s="16" t="n">
-        <v>664057214</v>
+        <v>659062505</v>
       </c>
       <c r="AY116" s="16" t="n">
-        <v>659062505</v>
+        <v>655486140</v>
       </c>
       <c r="AZ116" s="16" t="n">
-        <v>655486140</v>
+        <v>662922766</v>
       </c>
       <c r="BA116" s="16" t="n">
-        <v>662922766</v>
+        <v>659959796</v>
       </c>
       <c r="BB116" s="16" t="n">
-        <v>659959796</v>
+        <v>660163464</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17772,59 +17772,59 @@
       <c r="AJ117" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK117" s="13" t="s">
-        <v>58</v>
+      <c r="AK117" s="13" t="n">
+        <v>168163146</v>
       </c>
       <c r="AL117" s="13" t="n">
-        <v>168163146</v>
+        <v>167709402</v>
       </c>
       <c r="AM117" s="13" t="n">
-        <v>167709402</v>
+        <v>173811779</v>
       </c>
       <c r="AN117" s="13" t="n">
-        <v>173811779</v>
+        <v>170345517</v>
       </c>
       <c r="AO117" s="13" t="n">
         <v>170345517</v>
       </c>
       <c r="AP117" s="13" t="n">
-        <v>170345517</v>
+        <v>182856896</v>
       </c>
       <c r="AQ117" s="13" t="n">
-        <v>182856896</v>
+        <v>391468100</v>
       </c>
       <c r="AR117" s="13" t="n">
-        <v>391468100</v>
+        <v>767444262</v>
       </c>
       <c r="AS117" s="13" t="n">
-        <v>767444262</v>
+        <v>741809653</v>
       </c>
       <c r="AT117" s="13" t="n">
-        <v>741809653</v>
+        <v>684772608</v>
       </c>
       <c r="AU117" s="13" t="n">
-        <v>684772608</v>
+        <v>664351370</v>
       </c>
       <c r="AV117" s="13" t="n">
-        <v>664351370</v>
+        <v>668216021</v>
       </c>
       <c r="AW117" s="13" t="n">
-        <v>668216021</v>
+        <v>669100068</v>
       </c>
       <c r="AX117" s="13" t="n">
-        <v>669100068</v>
+        <v>683135584</v>
       </c>
       <c r="AY117" s="13" t="n">
-        <v>683135584</v>
+        <v>681135510</v>
       </c>
       <c r="AZ117" s="13" t="n">
-        <v>681135510</v>
+        <v>670795495</v>
       </c>
       <c r="BA117" s="13" t="n">
-        <v>670795495</v>
+        <v>668655334</v>
       </c>
       <c r="BB117" s="13" t="n">
-        <v>668655334</v>
+        <v>666920057</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17931,59 +17931,59 @@
       <c r="AJ118" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AK118" s="16" t="s">
-        <v>58</v>
+      <c r="AK118" s="16" t="n">
+        <v>123299218</v>
       </c>
       <c r="AL118" s="16" t="n">
-        <v>123299218</v>
+        <v>136031835</v>
       </c>
       <c r="AM118" s="16" t="n">
-        <v>136031835</v>
+        <v>133330355</v>
       </c>
       <c r="AN118" s="16" t="n">
-        <v>133330355</v>
+        <v>165965904</v>
       </c>
       <c r="AO118" s="16" t="n">
         <v>165965904</v>
       </c>
       <c r="AP118" s="16" t="n">
-        <v>165965904</v>
+        <v>157379301</v>
       </c>
       <c r="AQ118" s="16" t="n">
-        <v>157379301</v>
+        <v>356108612</v>
       </c>
       <c r="AR118" s="16" t="n">
-        <v>356108612</v>
+        <v>619675914</v>
       </c>
       <c r="AS118" s="16" t="n">
-        <v>619675914</v>
+        <v>586584271</v>
       </c>
       <c r="AT118" s="16" t="n">
-        <v>586584271</v>
+        <v>537328256</v>
       </c>
       <c r="AU118" s="16" t="n">
-        <v>537328256</v>
+        <v>503937311</v>
       </c>
       <c r="AV118" s="16" t="n">
-        <v>503937311</v>
+        <v>511989826</v>
       </c>
       <c r="AW118" s="16" t="n">
-        <v>511989826</v>
+        <v>516033012</v>
       </c>
       <c r="AX118" s="16" t="n">
-        <v>516033012</v>
+        <v>512922866</v>
       </c>
       <c r="AY118" s="16" t="n">
-        <v>512922866</v>
+        <v>509580284</v>
       </c>
       <c r="AZ118" s="16" t="n">
-        <v>509580284</v>
+        <v>509288577</v>
       </c>
       <c r="BA118" s="16" t="n">
-        <v>509288577</v>
+        <v>510214065</v>
       </c>
       <c r="BB118" s="16" t="n">
-        <v>510214065</v>
+        <v>505495522</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18090,59 +18090,59 @@
       <c r="AJ119" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK119" s="13" t="s">
-        <v>58</v>
+      <c r="AK119" s="13" t="n">
+        <v>141695015</v>
       </c>
       <c r="AL119" s="13" t="n">
-        <v>141695015</v>
+        <v>142109361</v>
       </c>
       <c r="AM119" s="13" t="n">
-        <v>142109361</v>
+        <v>142968488</v>
       </c>
       <c r="AN119" s="13" t="n">
-        <v>142968488</v>
+        <v>144693743</v>
       </c>
       <c r="AO119" s="13" t="n">
         <v>144693743</v>
       </c>
       <c r="AP119" s="13" t="n">
-        <v>144693743</v>
-      </c>
-      <c r="AQ119" s="13" t="n">
         <v>143030303</v>
       </c>
-      <c r="AR119" s="13" t="s">
-        <v>58</v>
+      <c r="AQ119" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR119" s="13" t="n">
+        <v>662036866</v>
       </c>
       <c r="AS119" s="13" t="n">
-        <v>662036866</v>
+        <v>636125103</v>
       </c>
       <c r="AT119" s="13" t="n">
-        <v>636125103</v>
+        <v>582265102</v>
       </c>
       <c r="AU119" s="13" t="n">
-        <v>582265102</v>
+        <v>543009276</v>
       </c>
       <c r="AV119" s="13" t="n">
-        <v>543009276</v>
+        <v>544536852</v>
       </c>
       <c r="AW119" s="13" t="n">
-        <v>544536852</v>
+        <v>548245981</v>
       </c>
       <c r="AX119" s="13" t="n">
-        <v>548245981</v>
+        <v>542644683</v>
       </c>
       <c r="AY119" s="13" t="n">
-        <v>542644683</v>
+        <v>540790135</v>
       </c>
       <c r="AZ119" s="13" t="n">
-        <v>540790135</v>
+        <v>544807960</v>
       </c>
       <c r="BA119" s="13" t="n">
-        <v>544807960</v>
+        <v>546065184</v>
       </c>
       <c r="BB119" s="13" t="n">
-        <v>546065184</v>
+        <v>540688547</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18249,26 +18249,26 @@
       <c r="AJ120" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AK120" s="16" t="s">
-        <v>58</v>
+      <c r="AK120" s="16" t="n">
+        <v>100936248</v>
       </c>
       <c r="AL120" s="16" t="n">
-        <v>100936248</v>
+        <v>128000000</v>
       </c>
       <c r="AM120" s="16" t="n">
-        <v>128000000</v>
+        <v>100945355</v>
       </c>
       <c r="AN120" s="16" t="n">
-        <v>100945355</v>
+        <v>66848837</v>
       </c>
       <c r="AO120" s="16" t="n">
         <v>66848837</v>
       </c>
       <c r="AP120" s="16" t="n">
-        <v>66848837</v>
-      </c>
-      <c r="AQ120" s="16" t="n">
         <v>274560976</v>
+      </c>
+      <c r="AQ120" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AR120" s="16" t="s">
         <v>58</v>
@@ -18408,59 +18408,59 @@
       <c r="AJ121" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK121" s="13" t="s">
-        <v>58</v>
+      <c r="AK121" s="13" t="n">
+        <v>350537634</v>
       </c>
       <c r="AL121" s="13" t="n">
-        <v>350537634</v>
+        <v>359230000</v>
       </c>
       <c r="AM121" s="13" t="n">
-        <v>359230000</v>
+        <v>352036145</v>
       </c>
       <c r="AN121" s="13" t="n">
-        <v>352036145</v>
+        <v>289805882</v>
       </c>
       <c r="AO121" s="13" t="n">
         <v>289805882</v>
       </c>
       <c r="AP121" s="13" t="n">
-        <v>289805882</v>
+        <v>298818182</v>
       </c>
       <c r="AQ121" s="13" t="n">
-        <v>298818182</v>
+        <v>286408730</v>
       </c>
       <c r="AR121" s="13" t="n">
-        <v>286408730</v>
+        <v>882137931</v>
       </c>
       <c r="AS121" s="13" t="n">
-        <v>882137931</v>
+        <v>911722222</v>
       </c>
       <c r="AT121" s="13" t="n">
-        <v>911722222</v>
+        <v>923761905</v>
       </c>
       <c r="AU121" s="13" t="n">
-        <v>923761905</v>
+        <v>830126437</v>
       </c>
       <c r="AV121" s="13" t="n">
-        <v>830126437</v>
+        <v>809318841</v>
       </c>
       <c r="AW121" s="13" t="n">
-        <v>809318841</v>
+        <v>788088889</v>
       </c>
       <c r="AX121" s="13" t="n">
-        <v>788088889</v>
+        <v>767508197</v>
       </c>
       <c r="AY121" s="13" t="n">
-        <v>767508197</v>
+        <v>773150000</v>
       </c>
       <c r="AZ121" s="13" t="n">
-        <v>773150000</v>
+        <v>777772727</v>
       </c>
       <c r="BA121" s="13" t="n">
-        <v>777772727</v>
+        <v>756117925</v>
       </c>
       <c r="BB121" s="13" t="n">
-        <v>756117925</v>
+        <v>792129870</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18567,17 +18567,17 @@
       <c r="AJ122" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AK122" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL122" s="16" t="n">
+      <c r="AK122" s="16" t="n">
         <v>119160610</v>
       </c>
-      <c r="AM122" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN122" s="16" t="n">
+      <c r="AL122" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM122" s="16" t="n">
         <v>113267994</v>
+      </c>
+      <c r="AN122" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AO122" s="16" t="s">
         <v>58</v>
@@ -18744,29 +18744,29 @@
       <c r="AP123" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ123" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR123" s="13" t="n">
+      <c r="AQ123" s="13" t="n">
         <v>1287400000</v>
       </c>
-      <c r="AS123" s="13" t="s">
-        <v>58</v>
+      <c r="AR123" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS123" s="13" t="n">
+        <v>1249400000</v>
       </c>
       <c r="AT123" s="13" t="n">
-        <v>1249400000</v>
-      </c>
-      <c r="AU123" s="13" t="n">
         <v>1447600000</v>
       </c>
+      <c r="AU123" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AV123" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW123" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX123" s="13" t="n">
+      <c r="AW123" s="13" t="n">
         <v>1683800000</v>
+      </c>
+      <c r="AX123" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AY123" s="13" t="s">
         <v>58</v>
@@ -18903,41 +18903,41 @@
       <c r="AP124" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AQ124" s="16" t="s">
-        <v>58</v>
+      <c r="AQ124" s="16" t="n">
+        <v>224821429</v>
       </c>
       <c r="AR124" s="16" t="n">
-        <v>224821429</v>
+        <v>608589286</v>
       </c>
       <c r="AS124" s="16" t="n">
-        <v>608589286</v>
-      </c>
-      <c r="AT124" s="16" t="n">
         <v>611873016</v>
       </c>
-      <c r="AU124" s="16" t="s">
-        <v>58</v>
+      <c r="AT124" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU124" s="16" t="n">
+        <v>518451613</v>
       </c>
       <c r="AV124" s="16" t="n">
-        <v>518451613</v>
+        <v>520540816</v>
       </c>
       <c r="AW124" s="16" t="n">
-        <v>520540816</v>
+        <v>517536000</v>
       </c>
       <c r="AX124" s="16" t="n">
-        <v>517536000</v>
+        <v>518600000</v>
       </c>
       <c r="AY124" s="16" t="n">
+        <v>524294118</v>
+      </c>
+      <c r="AZ124" s="16" t="n">
         <v>518600000</v>
       </c>
-      <c r="AZ124" s="16" t="n">
-        <v>524294118</v>
-      </c>
-      <c r="BA124" s="16" t="n">
-        <v>518600000</v>
-      </c>
-      <c r="BB124" s="16" t="s">
-        <v>58</v>
+      <c r="BA124" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB124" s="16" t="n">
+        <v>525833333</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19221,41 +19221,41 @@
       <c r="AP126" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AQ126" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR126" s="16" t="n">
+      <c r="AQ126" s="16" t="n">
         <v>95017544</v>
       </c>
+      <c r="AR126" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AS126" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AT126" s="16" t="s">
-        <v>58</v>
+      <c r="AT126" s="16" t="n">
+        <v>550453782</v>
       </c>
       <c r="AU126" s="16" t="n">
-        <v>550453782</v>
+        <v>501832618</v>
       </c>
       <c r="AV126" s="16" t="n">
-        <v>501832618</v>
+        <v>503266667</v>
       </c>
       <c r="AW126" s="16" t="n">
-        <v>503266667</v>
+        <v>499753846</v>
       </c>
       <c r="AX126" s="16" t="n">
-        <v>499753846</v>
+        <v>503428571</v>
       </c>
       <c r="AY126" s="16" t="n">
-        <v>503428571</v>
+        <v>500348837</v>
       </c>
       <c r="AZ126" s="16" t="n">
-        <v>500348837</v>
+        <v>503075472</v>
       </c>
       <c r="BA126" s="16" t="n">
-        <v>503075472</v>
+        <v>505833333</v>
       </c>
       <c r="BB126" s="16" t="n">
-        <v>505833333</v>
+        <v>133315942</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19587,8 +19587,8 @@
       <c r="AM129" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN129" s="13" t="s">
-        <v>58</v>
+      <c r="AN129" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AO129" s="13" t="n">
         <v>0</v>
@@ -19602,8 +19602,8 @@
       <c r="AR129" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AS129" s="13" t="n">
-        <v>0</v>
+      <c r="AS129" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT129" s="13" t="s">
         <v>58</v>

--- a/database/industries/ghaza/ghebshahr/product/monthly_seprated.xlsx
+++ b/database/industries/ghaza/ghebshahr/product/monthly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\ghebshahr\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VAHID\Desktop\Trade\database\industries\ghaza\ghebshahr\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4543CF1-89E5-4A55-BA79-94A7985509B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2507F717-0BE9-4D7F-9B20-4FE17674A09D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3463" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3412" uniqueCount="103">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 3 منتهی به 1397/12</t>
   </si>
   <si>
     <t>ماه 4 منتهی به 1398/01</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 4 منتهی به 1402/01</t>
+  </si>
+  <si>
+    <t>ماه 5 منتهی به 1402/02</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -1549,8 +1549,8 @@
       <c r="Y11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z11" s="11" t="s">
-        <v>58</v>
+      <c r="Z11" s="11">
+        <v>0</v>
       </c>
       <c r="AA11" s="11">
         <v>0</v>
@@ -1561,23 +1561,23 @@
       <c r="AC11" s="11">
         <v>0</v>
       </c>
-      <c r="AD11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF11" s="11">
-        <v>0</v>
+      <c r="AD11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI11" s="11">
-        <v>0</v>
+      <c r="AH11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ11" s="11" t="s">
         <v>58</v>
@@ -1738,62 +1738,62 @@
       <c r="AI12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ12" s="13" t="s">
-        <v>58</v>
+      <c r="AJ12" s="13">
+        <v>4289</v>
       </c>
       <c r="AK12" s="13">
-        <v>4289</v>
+        <v>3467</v>
       </c>
       <c r="AL12" s="13">
-        <v>3467</v>
+        <v>3768</v>
       </c>
       <c r="AM12" s="13">
-        <v>3768</v>
+        <v>3574</v>
       </c>
       <c r="AN12" s="13">
         <v>3574</v>
       </c>
       <c r="AO12" s="13">
-        <v>3574</v>
+        <v>1752</v>
       </c>
       <c r="AP12" s="13">
-        <v>1752</v>
+        <v>3561</v>
       </c>
       <c r="AQ12" s="13">
-        <v>3561</v>
+        <v>1987</v>
       </c>
       <c r="AR12" s="13">
-        <v>1987</v>
+        <v>869</v>
       </c>
       <c r="AS12" s="13">
-        <v>869</v>
+        <v>1454</v>
       </c>
       <c r="AT12" s="13">
-        <v>1454</v>
+        <v>772</v>
       </c>
       <c r="AU12" s="13">
-        <v>772</v>
+        <v>516</v>
       </c>
       <c r="AV12" s="13">
-        <v>516</v>
+        <v>0</v>
       </c>
       <c r="AW12" s="13">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="AX12" s="13">
-        <v>72</v>
+        <v>1169</v>
       </c>
       <c r="AY12" s="13">
-        <v>1169</v>
+        <v>5728</v>
       </c>
       <c r="AZ12" s="13">
-        <v>5728</v>
+        <v>5555</v>
       </c>
       <c r="BA12" s="13">
-        <v>5555</v>
+        <v>1747</v>
       </c>
       <c r="BB12" s="13">
-        <v>1747</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1867,8 +1867,8 @@
       <c r="Y13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z13" s="11" t="s">
-        <v>58</v>
+      <c r="Z13" s="11">
+        <v>0</v>
       </c>
       <c r="AA13" s="11">
         <v>0</v>
@@ -1888,11 +1888,11 @@
       <c r="AF13" s="11">
         <v>0</v>
       </c>
-      <c r="AG13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="11" t="s">
-        <v>58</v>
+      <c r="AG13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH13" s="11">
+        <v>0</v>
       </c>
       <c r="AI13" s="11">
         <v>0</v>
@@ -1903,11 +1903,11 @@
       <c r="AK13" s="11">
         <v>0</v>
       </c>
-      <c r="AL13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM13" s="11" t="s">
-        <v>58</v>
+      <c r="AL13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM13" s="11">
+        <v>0</v>
       </c>
       <c r="AN13" s="11">
         <v>0</v>
@@ -1939,11 +1939,11 @@
       <c r="AW13" s="11">
         <v>0</v>
       </c>
-      <c r="AX13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AY13" s="11" t="s">
-        <v>58</v>
+      <c r="AX13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY13" s="11">
+        <v>0</v>
       </c>
       <c r="AZ13" s="11">
         <v>0</v>
@@ -2026,38 +2026,38 @@
       <c r="Y14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z14" s="13" t="s">
-        <v>58</v>
+      <c r="Z14" s="13">
+        <v>35613</v>
       </c>
       <c r="AA14" s="13">
-        <v>35613</v>
+        <v>34794</v>
       </c>
       <c r="AB14" s="13">
-        <v>34794</v>
+        <v>40774</v>
       </c>
       <c r="AC14" s="13">
-        <v>40774</v>
+        <v>34678</v>
       </c>
       <c r="AD14" s="13">
-        <v>34678</v>
+        <v>37779</v>
       </c>
       <c r="AE14" s="13">
-        <v>37779</v>
+        <v>43666</v>
       </c>
       <c r="AF14" s="13">
-        <v>43666</v>
+        <v>41900</v>
       </c>
       <c r="AG14" s="13">
-        <v>41900</v>
+        <v>37730</v>
       </c>
       <c r="AH14" s="13">
-        <v>37730</v>
+        <v>37107</v>
       </c>
       <c r="AI14" s="13">
-        <v>37107</v>
-      </c>
-      <c r="AJ14" s="13">
         <v>36577</v>
+      </c>
+      <c r="AJ14" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK14" s="13" t="s">
         <v>58</v>
@@ -2215,62 +2215,62 @@
       <c r="AI15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ15" s="11" t="s">
-        <v>58</v>
+      <c r="AJ15" s="11">
+        <v>15555</v>
       </c>
       <c r="AK15" s="11">
-        <v>15555</v>
+        <v>15038</v>
       </c>
       <c r="AL15" s="11">
-        <v>15038</v>
+        <v>13094</v>
       </c>
       <c r="AM15" s="11">
-        <v>13094</v>
+        <v>16018</v>
       </c>
       <c r="AN15" s="11">
         <v>16018</v>
       </c>
       <c r="AO15" s="11">
-        <v>16018</v>
+        <v>8605</v>
       </c>
       <c r="AP15" s="11">
-        <v>8605</v>
+        <v>8188</v>
       </c>
       <c r="AQ15" s="11">
-        <v>8188</v>
+        <v>15293</v>
       </c>
       <c r="AR15" s="11">
-        <v>15293</v>
+        <v>16401</v>
       </c>
       <c r="AS15" s="11">
-        <v>16401</v>
+        <v>8406</v>
       </c>
       <c r="AT15" s="11">
-        <v>8406</v>
+        <v>12470</v>
       </c>
       <c r="AU15" s="11">
-        <v>12470</v>
+        <v>11489</v>
       </c>
       <c r="AV15" s="11">
-        <v>11489</v>
+        <v>11926</v>
       </c>
       <c r="AW15" s="11">
-        <v>11926</v>
+        <v>11410</v>
       </c>
       <c r="AX15" s="11">
-        <v>11410</v>
+        <v>12424</v>
       </c>
       <c r="AY15" s="11">
-        <v>12424</v>
+        <v>14241</v>
       </c>
       <c r="AZ15" s="11">
-        <v>14241</v>
+        <v>15425</v>
       </c>
       <c r="BA15" s="11">
-        <v>15425</v>
+        <v>10263</v>
       </c>
       <c r="BB15" s="11">
-        <v>10263</v>
+        <v>10160</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2374,62 +2374,62 @@
       <c r="AI16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ16" s="13" t="s">
-        <v>58</v>
+      <c r="AJ16" s="13">
+        <v>11852</v>
       </c>
       <c r="AK16" s="13">
-        <v>11852</v>
+        <v>9202</v>
       </c>
       <c r="AL16" s="13">
-        <v>9202</v>
+        <v>13097</v>
       </c>
       <c r="AM16" s="13">
-        <v>13097</v>
+        <v>14878</v>
       </c>
       <c r="AN16" s="13">
         <v>14878</v>
       </c>
       <c r="AO16" s="13">
-        <v>14878</v>
+        <v>7513</v>
       </c>
       <c r="AP16" s="13">
-        <v>7513</v>
+        <v>10530</v>
       </c>
       <c r="AQ16" s="13">
-        <v>10530</v>
+        <v>6426</v>
       </c>
       <c r="AR16" s="13">
-        <v>6426</v>
+        <v>13291</v>
       </c>
       <c r="AS16" s="13">
-        <v>13291</v>
+        <v>7330</v>
       </c>
       <c r="AT16" s="13">
-        <v>7330</v>
+        <v>8752</v>
       </c>
       <c r="AU16" s="13">
-        <v>8752</v>
+        <v>8117</v>
       </c>
       <c r="AV16" s="13">
-        <v>8117</v>
+        <v>8725</v>
       </c>
       <c r="AW16" s="13">
-        <v>8725</v>
+        <v>7420</v>
       </c>
       <c r="AX16" s="13">
-        <v>7420</v>
+        <v>11241</v>
       </c>
       <c r="AY16" s="13">
-        <v>11241</v>
+        <v>9541</v>
       </c>
       <c r="AZ16" s="13">
-        <v>9541</v>
+        <v>13641</v>
       </c>
       <c r="BA16" s="13">
-        <v>13641</v>
+        <v>8359</v>
       </c>
       <c r="BB16" s="13">
-        <v>8359</v>
+        <v>6349</v>
       </c>
     </row>
     <row r="17" spans="2:54" x14ac:dyDescent="0.3">
@@ -2533,62 +2533,62 @@
       <c r="AI17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ17" s="11" t="s">
-        <v>58</v>
+      <c r="AJ17" s="11">
+        <v>2407</v>
       </c>
       <c r="AK17" s="11">
-        <v>2407</v>
+        <v>3861</v>
       </c>
       <c r="AL17" s="11">
-        <v>3861</v>
+        <v>4573</v>
       </c>
       <c r="AM17" s="11">
-        <v>4573</v>
+        <v>4358</v>
       </c>
       <c r="AN17" s="11">
         <v>4358</v>
       </c>
       <c r="AO17" s="11">
-        <v>4358</v>
+        <v>4163</v>
       </c>
       <c r="AP17" s="11">
-        <v>4163</v>
+        <v>1906</v>
       </c>
       <c r="AQ17" s="11">
-        <v>1906</v>
+        <v>4930</v>
       </c>
       <c r="AR17" s="11">
-        <v>4930</v>
+        <v>7312</v>
       </c>
       <c r="AS17" s="11">
-        <v>7312</v>
+        <v>3900</v>
       </c>
       <c r="AT17" s="11">
-        <v>3900</v>
+        <v>6029</v>
       </c>
       <c r="AU17" s="11">
-        <v>6029</v>
+        <v>5956</v>
       </c>
       <c r="AV17" s="11">
-        <v>5956</v>
+        <v>5770</v>
       </c>
       <c r="AW17" s="11">
-        <v>5770</v>
+        <v>7382</v>
       </c>
       <c r="AX17" s="11">
-        <v>7382</v>
+        <v>6499</v>
       </c>
       <c r="AY17" s="11">
-        <v>6499</v>
+        <v>6964</v>
       </c>
       <c r="AZ17" s="11">
-        <v>6964</v>
+        <v>7817</v>
       </c>
       <c r="BA17" s="11">
-        <v>7817</v>
+        <v>5540</v>
       </c>
       <c r="BB17" s="11">
-        <v>5540</v>
+        <v>8615</v>
       </c>
     </row>
     <row r="18" spans="2:54" x14ac:dyDescent="0.3">
@@ -2692,62 +2692,62 @@
       <c r="AI18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ18" s="13" t="s">
-        <v>58</v>
+      <c r="AJ18" s="13">
+        <v>999</v>
       </c>
       <c r="AK18" s="13">
-        <v>999</v>
+        <v>1110</v>
       </c>
       <c r="AL18" s="13">
-        <v>1110</v>
+        <v>2017</v>
       </c>
       <c r="AM18" s="13">
-        <v>2017</v>
+        <v>1862</v>
       </c>
       <c r="AN18" s="13">
         <v>1862</v>
       </c>
       <c r="AO18" s="13">
-        <v>1862</v>
+        <v>0</v>
       </c>
       <c r="AP18" s="13">
         <v>0</v>
       </c>
       <c r="AQ18" s="13">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="AR18" s="13">
-        <v>219</v>
+        <v>2676</v>
       </c>
       <c r="AS18" s="13">
-        <v>2676</v>
+        <v>2374</v>
       </c>
       <c r="AT18" s="13">
-        <v>2374</v>
+        <v>2808</v>
       </c>
       <c r="AU18" s="13">
-        <v>2808</v>
+        <v>881</v>
       </c>
       <c r="AV18" s="13">
-        <v>881</v>
+        <v>605</v>
       </c>
       <c r="AW18" s="13">
-        <v>605</v>
+        <v>1937</v>
       </c>
       <c r="AX18" s="13">
-        <v>1937</v>
+        <v>1047</v>
       </c>
       <c r="AY18" s="13">
-        <v>1047</v>
+        <v>1646</v>
       </c>
       <c r="AZ18" s="13">
-        <v>1646</v>
+        <v>2014</v>
       </c>
       <c r="BA18" s="13">
-        <v>2014</v>
+        <v>1467</v>
       </c>
       <c r="BB18" s="13">
-        <v>1467</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.3">
@@ -2851,26 +2851,26 @@
       <c r="AI19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ19" s="11" t="s">
-        <v>58</v>
+      <c r="AJ19" s="11">
+        <v>975</v>
       </c>
       <c r="AK19" s="11">
-        <v>975</v>
+        <v>454</v>
       </c>
       <c r="AL19" s="11">
-        <v>454</v>
+        <v>183</v>
       </c>
       <c r="AM19" s="11">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="AN19" s="11">
         <v>169</v>
       </c>
       <c r="AO19" s="11">
-        <v>169</v>
-      </c>
-      <c r="AP19" s="11">
         <v>35</v>
+      </c>
+      <c r="AP19" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AQ19" s="11" t="s">
         <v>58</v>
@@ -3010,62 +3010,62 @@
       <c r="AI20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ20" s="13" t="s">
-        <v>58</v>
+      <c r="AJ20" s="13">
+        <v>88</v>
       </c>
       <c r="AK20" s="13">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="AL20" s="13">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AM20" s="13">
-        <v>75</v>
+        <v>221</v>
       </c>
       <c r="AN20" s="13">
         <v>221</v>
       </c>
       <c r="AO20" s="13">
-        <v>221</v>
+        <v>113</v>
       </c>
       <c r="AP20" s="13">
+        <v>193</v>
+      </c>
+      <c r="AQ20" s="13">
+        <v>269</v>
+      </c>
+      <c r="AR20" s="13">
+        <v>196</v>
+      </c>
+      <c r="AS20" s="13">
+        <v>5</v>
+      </c>
+      <c r="AT20" s="13">
+        <v>80</v>
+      </c>
+      <c r="AU20" s="13">
+        <v>34</v>
+      </c>
+      <c r="AV20" s="13">
+        <v>87</v>
+      </c>
+      <c r="AW20" s="13">
+        <v>185</v>
+      </c>
+      <c r="AX20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY20" s="13">
+        <v>166</v>
+      </c>
+      <c r="AZ20" s="13">
+        <v>277</v>
+      </c>
+      <c r="BA20" s="13">
+        <v>91</v>
+      </c>
+      <c r="BB20" s="13">
         <v>113</v>
-      </c>
-      <c r="AQ20" s="13">
-        <v>193</v>
-      </c>
-      <c r="AR20" s="13">
-        <v>269</v>
-      </c>
-      <c r="AS20" s="13">
-        <v>196</v>
-      </c>
-      <c r="AT20" s="13">
-        <v>5</v>
-      </c>
-      <c r="AU20" s="13">
-        <v>80</v>
-      </c>
-      <c r="AV20" s="13">
-        <v>34</v>
-      </c>
-      <c r="AW20" s="13">
-        <v>87</v>
-      </c>
-      <c r="AX20" s="13">
-        <v>185</v>
-      </c>
-      <c r="AY20" s="13">
-        <v>0</v>
-      </c>
-      <c r="AZ20" s="13">
-        <v>166</v>
-      </c>
-      <c r="BA20" s="13">
-        <v>277</v>
-      </c>
-      <c r="BB20" s="13">
-        <v>91</v>
       </c>
     </row>
     <row r="21" spans="2:54" x14ac:dyDescent="0.3">
@@ -3169,17 +3169,17 @@
       <c r="AI21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ21" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK21" s="11">
+      <c r="AJ21" s="11">
         <v>885</v>
       </c>
-      <c r="AL21" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM21" s="11">
+      <c r="AK21" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL21" s="11">
         <v>616</v>
+      </c>
+      <c r="AM21" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AN21" s="11" t="s">
         <v>58</v>
@@ -3346,44 +3346,44 @@
       <c r="AO22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP22" s="13" t="s">
-        <v>58</v>
+      <c r="AP22" s="13">
+        <v>5</v>
       </c>
       <c r="AQ22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR22" s="13">
         <v>5</v>
-      </c>
-      <c r="AR22" s="13">
-        <v>0</v>
       </c>
       <c r="AS22" s="13">
         <v>5</v>
       </c>
       <c r="AT22" s="13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AU22" s="13">
         <v>0</v>
       </c>
       <c r="AV22" s="13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AW22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AX22" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AZ22" s="13">
+        <v>0</v>
+      </c>
+      <c r="BA22" s="13">
+        <v>0</v>
+      </c>
+      <c r="BB22" s="13">
         <v>10</v>
-      </c>
-      <c r="AX22" s="13">
-        <v>0</v>
-      </c>
-      <c r="AY22" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ22" s="13">
-        <v>0</v>
-      </c>
-      <c r="BA22" s="13">
-        <v>0</v>
-      </c>
-      <c r="BB22" s="13">
-        <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:54" x14ac:dyDescent="0.3">
@@ -3505,44 +3505,44 @@
       <c r="AO23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP23" s="11" t="s">
-        <v>58</v>
+      <c r="AP23" s="11">
+        <v>56</v>
       </c>
       <c r="AQ23" s="11">
         <v>56</v>
       </c>
       <c r="AR23" s="11">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="AS23" s="11">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="11">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="AU23" s="11">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="AV23" s="11">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="AW23" s="11">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="AX23" s="11">
+        <v>34</v>
+      </c>
+      <c r="AY23" s="11">
         <v>15</v>
       </c>
-      <c r="AY23" s="11">
-        <v>34</v>
-      </c>
       <c r="AZ23" s="11">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="BA23" s="11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BB23" s="11">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="2:54" x14ac:dyDescent="0.3">
@@ -3670,8 +3670,8 @@
       <c r="AQ24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR24" s="13" t="s">
-        <v>58</v>
+      <c r="AR24" s="13">
+        <v>0</v>
       </c>
       <c r="AS24" s="13">
         <v>0</v>
@@ -3685,8 +3685,8 @@
       <c r="AV24" s="13">
         <v>0</v>
       </c>
-      <c r="AW24" s="13">
-        <v>0</v>
+      <c r="AW24" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AX24" s="13" t="s">
         <v>58</v>
@@ -3694,8 +3694,8 @@
       <c r="AY24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ24" s="13" t="s">
-        <v>58</v>
+      <c r="AZ24" s="13">
+        <v>0</v>
       </c>
       <c r="BA24" s="13">
         <v>0</v>
@@ -3823,44 +3823,44 @@
       <c r="AO25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP25" s="11" t="s">
-        <v>58</v>
+      <c r="AP25" s="11">
+        <v>57</v>
       </c>
       <c r="AQ25" s="11">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="AR25" s="11">
         <v>0</v>
       </c>
       <c r="AS25" s="11">
-        <v>0</v>
+        <v>595</v>
       </c>
       <c r="AT25" s="11">
-        <v>595</v>
+        <v>233</v>
       </c>
       <c r="AU25" s="11">
-        <v>233</v>
+        <v>150</v>
       </c>
       <c r="AV25" s="11">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="AW25" s="11">
-        <v>65</v>
+        <v>281</v>
       </c>
       <c r="AX25" s="11">
-        <v>281</v>
+        <v>43</v>
       </c>
       <c r="AY25" s="11">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="AZ25" s="11">
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="BA25" s="11">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="BB25" s="11">
-        <v>63</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="2:54" x14ac:dyDescent="0.3">
@@ -3982,8 +3982,8 @@
       <c r="AO26" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP26" s="13" t="s">
-        <v>58</v>
+      <c r="AP26" s="13">
+        <v>0</v>
       </c>
       <c r="AQ26" s="13">
         <v>0</v>
@@ -4006,11 +4006,11 @@
       <c r="AW26" s="13">
         <v>0</v>
       </c>
-      <c r="AX26" s="13">
-        <v>0</v>
-      </c>
-      <c r="AY26" s="13" t="s">
-        <v>58</v>
+      <c r="AX26" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY26" s="13">
+        <v>0</v>
       </c>
       <c r="AZ26" s="13">
         <v>0</v>
@@ -4144,8 +4144,8 @@
       <c r="AP27" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ27" s="11" t="s">
-        <v>58</v>
+      <c r="AQ27" s="11">
+        <v>0</v>
       </c>
       <c r="AR27" s="11">
         <v>0</v>
@@ -4165,8 +4165,8 @@
       <c r="AW27" s="11">
         <v>0</v>
       </c>
-      <c r="AX27" s="11">
-        <v>0</v>
+      <c r="AX27" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AY27" s="11" t="s">
         <v>58</v>
@@ -4251,91 +4251,91 @@
         <v>0</v>
       </c>
       <c r="Z28" s="15">
-        <v>0</v>
+        <v>35613</v>
       </c>
       <c r="AA28" s="15">
-        <v>35613</v>
+        <v>34794</v>
       </c>
       <c r="AB28" s="15">
-        <v>34794</v>
+        <v>40774</v>
       </c>
       <c r="AC28" s="15">
-        <v>40774</v>
+        <v>34678</v>
       </c>
       <c r="AD28" s="15">
-        <v>34678</v>
+        <v>37779</v>
       </c>
       <c r="AE28" s="15">
-        <v>37779</v>
+        <v>43666</v>
       </c>
       <c r="AF28" s="15">
-        <v>43666</v>
+        <v>41900</v>
       </c>
       <c r="AG28" s="15">
-        <v>41900</v>
+        <v>37730</v>
       </c>
       <c r="AH28" s="15">
-        <v>37730</v>
+        <v>37107</v>
       </c>
       <c r="AI28" s="15">
-        <v>37107</v>
+        <v>36577</v>
       </c>
       <c r="AJ28" s="15">
-        <v>36577</v>
+        <v>37050</v>
       </c>
       <c r="AK28" s="15">
-        <v>37050</v>
+        <v>33224</v>
       </c>
       <c r="AL28" s="15">
-        <v>33224</v>
+        <v>37423</v>
       </c>
       <c r="AM28" s="15">
-        <v>37423</v>
+        <v>41080</v>
       </c>
       <c r="AN28" s="15">
         <v>41080</v>
       </c>
       <c r="AO28" s="15">
-        <v>41080</v>
+        <v>22181</v>
       </c>
       <c r="AP28" s="15">
-        <v>22181</v>
+        <v>24496</v>
       </c>
       <c r="AQ28" s="15">
-        <v>24496</v>
+        <v>29180</v>
       </c>
       <c r="AR28" s="15">
-        <v>29180</v>
+        <v>40876</v>
       </c>
       <c r="AS28" s="15">
-        <v>40876</v>
+        <v>24069</v>
       </c>
       <c r="AT28" s="15">
-        <v>24069</v>
+        <v>31237</v>
       </c>
       <c r="AU28" s="15">
-        <v>31237</v>
+        <v>27241</v>
       </c>
       <c r="AV28" s="15">
-        <v>27241</v>
+        <v>27313</v>
       </c>
       <c r="AW28" s="15">
-        <v>27313</v>
+        <v>28702</v>
       </c>
       <c r="AX28" s="15">
-        <v>28702</v>
+        <v>32457</v>
       </c>
       <c r="AY28" s="15">
-        <v>32457</v>
+        <v>38428</v>
       </c>
       <c r="AZ28" s="15">
-        <v>38428</v>
+        <v>44771</v>
       </c>
       <c r="BA28" s="15">
-        <v>44771</v>
+        <v>27536</v>
       </c>
       <c r="BB28" s="15">
-        <v>27536</v>
+        <v>29803</v>
       </c>
     </row>
     <row r="29" spans="2:54" x14ac:dyDescent="0.3">
@@ -4499,14 +4499,14 @@
       <c r="AJ30" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK30" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL30" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM30" s="11" t="s">
-        <v>58</v>
+      <c r="AK30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM30" s="11">
+        <v>0</v>
       </c>
       <c r="AN30" s="11">
         <v>0</v>
@@ -4520,8 +4520,8 @@
       <c r="AQ30" s="11">
         <v>0</v>
       </c>
-      <c r="AR30" s="11">
-        <v>0</v>
+      <c r="AR30" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS30" s="11" t="s">
         <v>58</v>
@@ -4625,8 +4625,8 @@
       <c r="Y31" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z31" s="13" t="s">
-        <v>58</v>
+      <c r="Z31" s="13">
+        <v>0</v>
       </c>
       <c r="AA31" s="13">
         <v>0</v>
@@ -4637,14 +4637,14 @@
       <c r="AC31" s="13">
         <v>0</v>
       </c>
-      <c r="AD31" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE31" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF31" s="13">
-        <v>0</v>
+      <c r="AD31" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE31" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AG31" s="13" t="s">
         <v>58</v>
@@ -5155,8 +5155,8 @@
       <c r="Y35" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Z35" s="15" t="s">
-        <v>58</v>
+      <c r="Z35" s="15">
+        <v>0</v>
       </c>
       <c r="AA35" s="15">
         <v>0</v>
@@ -5313,91 +5313,91 @@
         <v>0</v>
       </c>
       <c r="Z36" s="17">
-        <v>0</v>
+        <v>35613</v>
       </c>
       <c r="AA36" s="17">
-        <v>35613</v>
+        <v>34794</v>
       </c>
       <c r="AB36" s="17">
-        <v>34794</v>
+        <v>40774</v>
       </c>
       <c r="AC36" s="17">
-        <v>40774</v>
+        <v>34678</v>
       </c>
       <c r="AD36" s="17">
-        <v>34678</v>
+        <v>37779</v>
       </c>
       <c r="AE36" s="17">
-        <v>37779</v>
+        <v>43666</v>
       </c>
       <c r="AF36" s="17">
-        <v>43666</v>
+        <v>41900</v>
       </c>
       <c r="AG36" s="17">
-        <v>41900</v>
+        <v>37730</v>
       </c>
       <c r="AH36" s="17">
-        <v>37730</v>
+        <v>37107</v>
       </c>
       <c r="AI36" s="17">
-        <v>37107</v>
+        <v>36577</v>
       </c>
       <c r="AJ36" s="17">
-        <v>36577</v>
+        <v>37050</v>
       </c>
       <c r="AK36" s="17">
-        <v>37050</v>
+        <v>33224</v>
       </c>
       <c r="AL36" s="17">
-        <v>33224</v>
+        <v>37423</v>
       </c>
       <c r="AM36" s="17">
-        <v>37423</v>
+        <v>41080</v>
       </c>
       <c r="AN36" s="17">
         <v>41080</v>
       </c>
       <c r="AO36" s="17">
-        <v>41080</v>
+        <v>22181</v>
       </c>
       <c r="AP36" s="17">
-        <v>22181</v>
+        <v>24496</v>
       </c>
       <c r="AQ36" s="17">
-        <v>24496</v>
+        <v>29180</v>
       </c>
       <c r="AR36" s="17">
-        <v>29180</v>
+        <v>40876</v>
       </c>
       <c r="AS36" s="17">
-        <v>40876</v>
+        <v>24069</v>
       </c>
       <c r="AT36" s="17">
-        <v>24069</v>
+        <v>31237</v>
       </c>
       <c r="AU36" s="17">
-        <v>31237</v>
+        <v>27241</v>
       </c>
       <c r="AV36" s="17">
-        <v>27241</v>
+        <v>27313</v>
       </c>
       <c r="AW36" s="17">
-        <v>27313</v>
+        <v>28702</v>
       </c>
       <c r="AX36" s="17">
-        <v>28702</v>
+        <v>32457</v>
       </c>
       <c r="AY36" s="17">
-        <v>32457</v>
+        <v>38428</v>
       </c>
       <c r="AZ36" s="17">
-        <v>38428</v>
+        <v>44771</v>
       </c>
       <c r="BA36" s="17">
-        <v>44771</v>
+        <v>27536</v>
       </c>
       <c r="BB36" s="17">
-        <v>27536</v>
+        <v>29803</v>
       </c>
     </row>
     <row r="37" spans="2:54" x14ac:dyDescent="0.3">
@@ -5905,8 +5905,8 @@
       <c r="Y43" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z43" s="11" t="s">
-        <v>58</v>
+      <c r="Z43" s="11">
+        <v>0</v>
       </c>
       <c r="AA43" s="11">
         <v>0</v>
@@ -5917,23 +5917,23 @@
       <c r="AC43" s="11">
         <v>0</v>
       </c>
-      <c r="AD43" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE43" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF43" s="11">
-        <v>0</v>
+      <c r="AD43" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE43" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG43" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH43" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI43" s="11">
-        <v>0</v>
+      <c r="AH43" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI43" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ43" s="11" t="s">
         <v>58</v>
@@ -6094,62 +6094,62 @@
       <c r="AI44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ44" s="13" t="s">
-        <v>58</v>
+      <c r="AJ44" s="13">
+        <v>3503</v>
       </c>
       <c r="AK44" s="13">
-        <v>3503</v>
+        <v>3498</v>
       </c>
       <c r="AL44" s="13">
-        <v>3498</v>
+        <v>4382</v>
       </c>
       <c r="AM44" s="13">
-        <v>4382</v>
+        <v>3904</v>
       </c>
       <c r="AN44" s="13">
         <v>3904</v>
       </c>
       <c r="AO44" s="13">
-        <v>3904</v>
+        <v>1164</v>
       </c>
       <c r="AP44" s="13">
-        <v>1164</v>
+        <v>3511</v>
       </c>
       <c r="AQ44" s="13">
-        <v>3511</v>
+        <v>2528</v>
       </c>
       <c r="AR44" s="13">
-        <v>2528</v>
+        <v>893</v>
       </c>
       <c r="AS44" s="13">
-        <v>893</v>
+        <v>1566</v>
       </c>
       <c r="AT44" s="13">
-        <v>1566</v>
+        <v>917</v>
       </c>
       <c r="AU44" s="13">
-        <v>917</v>
+        <v>479</v>
       </c>
       <c r="AV44" s="13">
-        <v>479</v>
+        <v>61</v>
       </c>
       <c r="AW44" s="13">
-        <v>61</v>
+        <v>-26</v>
       </c>
       <c r="AX44" s="13">
-        <v>-26</v>
+        <v>812</v>
       </c>
       <c r="AY44" s="13">
-        <v>812</v>
+        <v>5918</v>
       </c>
       <c r="AZ44" s="13">
-        <v>5918</v>
+        <v>5446</v>
       </c>
       <c r="BA44" s="13">
-        <v>5446</v>
+        <v>1888</v>
       </c>
       <c r="BB44" s="13">
-        <v>1888</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="45" spans="2:54" x14ac:dyDescent="0.3">
@@ -6223,32 +6223,32 @@
       <c r="Y45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z45" s="11" t="s">
-        <v>58</v>
+      <c r="Z45" s="11">
+        <v>0</v>
       </c>
       <c r="AA45" s="11">
-        <v>0</v>
+        <v>7125</v>
       </c>
       <c r="AB45" s="11">
-        <v>7125</v>
+        <v>1217</v>
       </c>
       <c r="AC45" s="11">
-        <v>1217</v>
-      </c>
-      <c r="AD45" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE45" s="11" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AD45" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE45" s="11">
+        <v>0</v>
       </c>
       <c r="AF45" s="11">
         <v>0</v>
       </c>
-      <c r="AG45" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH45" s="11" t="s">
-        <v>58</v>
+      <c r="AG45" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH45" s="11">
+        <v>0</v>
       </c>
       <c r="AI45" s="11">
         <v>0</v>
@@ -6257,13 +6257,13 @@
         <v>0</v>
       </c>
       <c r="AK45" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL45" s="11">
         <v>1440</v>
       </c>
-      <c r="AM45" s="11" t="s">
-        <v>58</v>
+      <c r="AL45" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM45" s="11">
+        <v>0</v>
       </c>
       <c r="AN45" s="11">
         <v>0</v>
@@ -6272,13 +6272,13 @@
         <v>0</v>
       </c>
       <c r="AP45" s="11">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="AQ45" s="11">
-        <v>-10</v>
+        <v>4842</v>
       </c>
       <c r="AR45" s="11">
-        <v>4842</v>
+        <v>0</v>
       </c>
       <c r="AS45" s="11">
         <v>0</v>
@@ -6295,11 +6295,11 @@
       <c r="AW45" s="11">
         <v>0</v>
       </c>
-      <c r="AX45" s="11">
-        <v>0</v>
-      </c>
-      <c r="AY45" s="11" t="s">
-        <v>58</v>
+      <c r="AX45" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY45" s="11">
+        <v>0</v>
       </c>
       <c r="AZ45" s="11">
         <v>0</v>
@@ -6382,38 +6382,38 @@
       <c r="Y46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z46" s="13" t="s">
-        <v>58</v>
+      <c r="Z46" s="13">
+        <v>35582</v>
       </c>
       <c r="AA46" s="13">
-        <v>35582</v>
+        <v>35808</v>
       </c>
       <c r="AB46" s="13">
-        <v>35808</v>
+        <v>40442</v>
       </c>
       <c r="AC46" s="13">
-        <v>40442</v>
+        <v>34098</v>
       </c>
       <c r="AD46" s="13">
-        <v>34098</v>
+        <v>37586</v>
       </c>
       <c r="AE46" s="13">
-        <v>37586</v>
+        <v>42505</v>
       </c>
       <c r="AF46" s="13">
-        <v>42505</v>
+        <v>42534</v>
       </c>
       <c r="AG46" s="13">
-        <v>42534</v>
+        <v>35933</v>
       </c>
       <c r="AH46" s="13">
-        <v>35933</v>
+        <v>38172</v>
       </c>
       <c r="AI46" s="13">
-        <v>38172</v>
-      </c>
-      <c r="AJ46" s="13">
         <v>35675</v>
+      </c>
+      <c r="AJ46" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK46" s="13" t="s">
         <v>58</v>
@@ -6571,62 +6571,62 @@
       <c r="AI47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ47" s="11" t="s">
-        <v>58</v>
+      <c r="AJ47" s="11">
+        <v>14054</v>
       </c>
       <c r="AK47" s="11">
-        <v>14054</v>
+        <v>13250</v>
       </c>
       <c r="AL47" s="11">
-        <v>13250</v>
+        <v>15306</v>
       </c>
       <c r="AM47" s="11">
-        <v>15306</v>
+        <v>15588</v>
       </c>
       <c r="AN47" s="11">
         <v>15588</v>
       </c>
       <c r="AO47" s="11">
-        <v>15588</v>
+        <v>8156</v>
       </c>
       <c r="AP47" s="11">
-        <v>8156</v>
+        <v>7977</v>
       </c>
       <c r="AQ47" s="11">
-        <v>7977</v>
+        <v>14780</v>
       </c>
       <c r="AR47" s="11">
-        <v>14780</v>
+        <v>17009</v>
       </c>
       <c r="AS47" s="11">
-        <v>17009</v>
+        <v>8622</v>
       </c>
       <c r="AT47" s="11">
-        <v>8622</v>
+        <v>11765</v>
       </c>
       <c r="AU47" s="11">
-        <v>11765</v>
+        <v>11860</v>
       </c>
       <c r="AV47" s="11">
-        <v>11860</v>
+        <v>12392</v>
       </c>
       <c r="AW47" s="11">
-        <v>12392</v>
+        <v>11711</v>
       </c>
       <c r="AX47" s="11">
-        <v>11711</v>
+        <v>12482</v>
       </c>
       <c r="AY47" s="11">
-        <v>12482</v>
+        <v>12883</v>
       </c>
       <c r="AZ47" s="11">
-        <v>12883</v>
+        <v>15123</v>
       </c>
       <c r="BA47" s="11">
-        <v>15123</v>
+        <v>9574</v>
       </c>
       <c r="BB47" s="11">
-        <v>9574</v>
+        <v>9772</v>
       </c>
     </row>
     <row r="48" spans="2:54" x14ac:dyDescent="0.3">
@@ -6730,62 +6730,62 @@
       <c r="AI48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ48" s="13" t="s">
-        <v>58</v>
+      <c r="AJ48" s="13">
+        <v>11836</v>
       </c>
       <c r="AK48" s="13">
-        <v>11836</v>
+        <v>8307</v>
       </c>
       <c r="AL48" s="13">
-        <v>8307</v>
+        <v>13787</v>
       </c>
       <c r="AM48" s="13">
-        <v>13787</v>
+        <v>14665</v>
       </c>
       <c r="AN48" s="13">
         <v>14665</v>
       </c>
       <c r="AO48" s="13">
-        <v>14665</v>
+        <v>7533</v>
       </c>
       <c r="AP48" s="13">
-        <v>7533</v>
+        <v>10235</v>
       </c>
       <c r="AQ48" s="13">
-        <v>10235</v>
+        <v>6683</v>
       </c>
       <c r="AR48" s="13">
-        <v>6683</v>
+        <v>13633</v>
       </c>
       <c r="AS48" s="13">
-        <v>13633</v>
+        <v>6856</v>
       </c>
       <c r="AT48" s="13">
-        <v>6856</v>
+        <v>8501</v>
       </c>
       <c r="AU48" s="13">
-        <v>8501</v>
+        <v>8564</v>
       </c>
       <c r="AV48" s="13">
-        <v>8564</v>
+        <v>8804</v>
       </c>
       <c r="AW48" s="13">
-        <v>8804</v>
+        <v>7523</v>
       </c>
       <c r="AX48" s="13">
-        <v>7523</v>
+        <v>11394</v>
       </c>
       <c r="AY48" s="13">
-        <v>11394</v>
+        <v>9012</v>
       </c>
       <c r="AZ48" s="13">
-        <v>9012</v>
+        <v>13413</v>
       </c>
       <c r="BA48" s="13">
-        <v>13413</v>
+        <v>8356</v>
       </c>
       <c r="BB48" s="13">
-        <v>8356</v>
+        <v>6725</v>
       </c>
     </row>
     <row r="49" spans="2:54" x14ac:dyDescent="0.3">
@@ -6889,62 +6889,62 @@
       <c r="AI49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ49" s="11" t="s">
-        <v>58</v>
+      <c r="AJ49" s="11">
+        <v>4475</v>
       </c>
       <c r="AK49" s="11">
-        <v>4475</v>
+        <v>3738</v>
       </c>
       <c r="AL49" s="11">
-        <v>3738</v>
+        <v>4477</v>
       </c>
       <c r="AM49" s="11">
-        <v>4477</v>
+        <v>4282</v>
       </c>
       <c r="AN49" s="11">
         <v>4282</v>
       </c>
       <c r="AO49" s="11">
-        <v>4282</v>
+        <v>3633</v>
       </c>
       <c r="AP49" s="11">
-        <v>3633</v>
+        <v>1823</v>
       </c>
       <c r="AQ49" s="11">
-        <v>1823</v>
+        <v>4542</v>
       </c>
       <c r="AR49" s="11">
-        <v>4542</v>
+        <v>6752</v>
       </c>
       <c r="AS49" s="11">
-        <v>6752</v>
+        <v>3348</v>
       </c>
       <c r="AT49" s="11">
-        <v>3348</v>
+        <v>5615</v>
       </c>
       <c r="AU49" s="11">
-        <v>5615</v>
+        <v>5701</v>
       </c>
       <c r="AV49" s="11">
-        <v>5701</v>
+        <v>6331</v>
       </c>
       <c r="AW49" s="11">
-        <v>6331</v>
+        <v>6936</v>
       </c>
       <c r="AX49" s="11">
-        <v>6936</v>
+        <v>6259</v>
       </c>
       <c r="AY49" s="11">
-        <v>6259</v>
+        <v>7135</v>
       </c>
       <c r="AZ49" s="11">
-        <v>7135</v>
+        <v>8091</v>
       </c>
       <c r="BA49" s="11">
-        <v>8091</v>
+        <v>5360</v>
       </c>
       <c r="BB49" s="11">
-        <v>5360</v>
+        <v>7812</v>
       </c>
     </row>
     <row r="50" spans="2:54" x14ac:dyDescent="0.3">
@@ -7048,62 +7048,62 @@
       <c r="AI50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ50" s="13" t="s">
-        <v>58</v>
+      <c r="AJ50" s="13">
+        <v>1023</v>
       </c>
       <c r="AK50" s="13">
-        <v>1023</v>
+        <v>1079</v>
       </c>
       <c r="AL50" s="13">
-        <v>1079</v>
+        <v>2031</v>
       </c>
       <c r="AM50" s="13">
-        <v>2031</v>
+        <v>1822</v>
       </c>
       <c r="AN50" s="13">
         <v>1822</v>
       </c>
       <c r="AO50" s="13">
-        <v>1822</v>
+        <v>33</v>
       </c>
       <c r="AP50" s="13">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AQ50" s="13">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="AR50" s="13">
-        <v>217</v>
+        <v>2438</v>
       </c>
       <c r="AS50" s="13">
-        <v>2438</v>
+        <v>2301</v>
       </c>
       <c r="AT50" s="13">
-        <v>2301</v>
+        <v>2803</v>
       </c>
       <c r="AU50" s="13">
-        <v>2803</v>
+        <v>1099</v>
       </c>
       <c r="AV50" s="13">
-        <v>1099</v>
+        <v>622</v>
       </c>
       <c r="AW50" s="13">
-        <v>622</v>
+        <v>1956</v>
       </c>
       <c r="AX50" s="13">
-        <v>1956</v>
+        <v>1034</v>
       </c>
       <c r="AY50" s="13">
-        <v>1034</v>
+        <v>1583</v>
       </c>
       <c r="AZ50" s="13">
-        <v>1583</v>
+        <v>1933</v>
       </c>
       <c r="BA50" s="13">
-        <v>1933</v>
+        <v>1493</v>
       </c>
       <c r="BB50" s="13">
-        <v>1493</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="51" spans="2:54" x14ac:dyDescent="0.3">
@@ -7207,26 +7207,26 @@
       <c r="AI51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ51" s="11" t="s">
-        <v>58</v>
+      <c r="AJ51" s="11">
+        <v>549</v>
       </c>
       <c r="AK51" s="11">
-        <v>549</v>
+        <v>464</v>
       </c>
       <c r="AL51" s="11">
-        <v>464</v>
+        <v>183</v>
       </c>
       <c r="AM51" s="11">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="AN51" s="11">
         <v>172</v>
       </c>
       <c r="AO51" s="11">
-        <v>172</v>
-      </c>
-      <c r="AP51" s="11">
         <v>41</v>
+      </c>
+      <c r="AP51" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AQ51" s="11" t="s">
         <v>58</v>
@@ -7366,62 +7366,62 @@
       <c r="AI52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ52" s="13" t="s">
-        <v>58</v>
+      <c r="AJ52" s="13">
+        <v>93</v>
       </c>
       <c r="AK52" s="13">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="AL52" s="13">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="AM52" s="13">
-        <v>83</v>
+        <v>170</v>
       </c>
       <c r="AN52" s="13">
         <v>170</v>
       </c>
       <c r="AO52" s="13">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="AP52" s="13">
-        <v>143</v>
+        <v>252</v>
       </c>
       <c r="AQ52" s="13">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="AR52" s="13">
-        <v>232</v>
+        <v>126</v>
       </c>
       <c r="AS52" s="13">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="AT52" s="13">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AU52" s="13">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="AV52" s="13">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="AW52" s="13">
+        <v>122</v>
+      </c>
+      <c r="AX52" s="13">
+        <v>120</v>
+      </c>
+      <c r="AY52" s="13">
+        <v>132</v>
+      </c>
+      <c r="AZ52" s="13">
+        <v>212</v>
+      </c>
+      <c r="BA52" s="13">
+        <v>77</v>
+      </c>
+      <c r="BB52" s="13">
         <v>90</v>
-      </c>
-      <c r="AX52" s="13">
-        <v>122</v>
-      </c>
-      <c r="AY52" s="13">
-        <v>120</v>
-      </c>
-      <c r="AZ52" s="13">
-        <v>132</v>
-      </c>
-      <c r="BA52" s="13">
-        <v>212</v>
-      </c>
-      <c r="BB52" s="13">
-        <v>77</v>
       </c>
     </row>
     <row r="53" spans="2:54" x14ac:dyDescent="0.3">
@@ -7525,17 +7525,17 @@
       <c r="AI53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ53" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK53" s="11">
+      <c r="AJ53" s="11">
         <v>853</v>
       </c>
-      <c r="AL53" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM53" s="11">
+      <c r="AK53" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL53" s="11">
         <v>653</v>
+      </c>
+      <c r="AM53" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AN53" s="11" t="s">
         <v>58</v>
@@ -7702,44 +7702,44 @@
       <c r="AO54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP54" s="13" t="s">
-        <v>58</v>
+      <c r="AP54" s="13">
+        <v>5</v>
       </c>
       <c r="AQ54" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR54" s="13">
         <v>5</v>
-      </c>
-      <c r="AR54" s="13">
-        <v>0</v>
       </c>
       <c r="AS54" s="13">
         <v>5</v>
       </c>
       <c r="AT54" s="13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AU54" s="13">
         <v>0</v>
       </c>
       <c r="AV54" s="13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AW54" s="13">
+        <v>0</v>
+      </c>
+      <c r="AX54" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY54" s="13">
+        <v>0</v>
+      </c>
+      <c r="AZ54" s="13">
+        <v>0</v>
+      </c>
+      <c r="BA54" s="13">
+        <v>0</v>
+      </c>
+      <c r="BB54" s="13">
         <v>10</v>
-      </c>
-      <c r="AX54" s="13">
-        <v>0</v>
-      </c>
-      <c r="AY54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ54" s="13">
-        <v>0</v>
-      </c>
-      <c r="BA54" s="13">
-        <v>0</v>
-      </c>
-      <c r="BB54" s="13">
-        <v>0</v>
       </c>
     </row>
     <row r="55" spans="2:54" x14ac:dyDescent="0.3">
@@ -7861,44 +7861,44 @@
       <c r="AO55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP55" s="11" t="s">
-        <v>58</v>
+      <c r="AP55" s="11">
+        <v>56</v>
       </c>
       <c r="AQ55" s="11">
         <v>56</v>
       </c>
       <c r="AR55" s="11">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="AS55" s="11">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="AT55" s="11">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="AU55" s="11">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="AV55" s="11">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="AW55" s="11">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="AX55" s="11">
+        <v>34</v>
+      </c>
+      <c r="AY55" s="11">
         <v>15</v>
       </c>
-      <c r="AY55" s="11">
-        <v>34</v>
-      </c>
       <c r="AZ55" s="11">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="BA55" s="11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BB55" s="11">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="2:54" x14ac:dyDescent="0.3">
@@ -8026,8 +8026,8 @@
       <c r="AQ56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR56" s="13" t="s">
-        <v>58</v>
+      <c r="AR56" s="13">
+        <v>0</v>
       </c>
       <c r="AS56" s="13">
         <v>0</v>
@@ -8041,8 +8041,8 @@
       <c r="AV56" s="13">
         <v>0</v>
       </c>
-      <c r="AW56" s="13">
-        <v>0</v>
+      <c r="AW56" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AX56" s="13" t="s">
         <v>58</v>
@@ -8050,8 +8050,8 @@
       <c r="AY56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ56" s="13" t="s">
-        <v>58</v>
+      <c r="AZ56" s="13">
+        <v>0</v>
       </c>
       <c r="BA56" s="13">
         <v>0</v>
@@ -8179,44 +8179,44 @@
       <c r="AO57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP57" s="11" t="s">
-        <v>58</v>
+      <c r="AP57" s="11">
+        <v>57</v>
       </c>
       <c r="AQ57" s="11">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="AR57" s="11">
         <v>0</v>
       </c>
       <c r="AS57" s="11">
-        <v>0</v>
+        <v>595</v>
       </c>
       <c r="AT57" s="11">
-        <v>595</v>
+        <v>233</v>
       </c>
       <c r="AU57" s="11">
-        <v>233</v>
+        <v>150</v>
       </c>
       <c r="AV57" s="11">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="AW57" s="11">
-        <v>65</v>
+        <v>280</v>
       </c>
       <c r="AX57" s="11">
-        <v>280</v>
+        <v>43</v>
       </c>
       <c r="AY57" s="11">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="AZ57" s="11">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="BA57" s="11">
-        <v>42</v>
+        <v>345</v>
       </c>
       <c r="BB57" s="11">
-        <v>345</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="2:54" x14ac:dyDescent="0.3">
@@ -8338,8 +8338,8 @@
       <c r="AO58" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP58" s="13" t="s">
-        <v>58</v>
+      <c r="AP58" s="13">
+        <v>0</v>
       </c>
       <c r="AQ58" s="13">
         <v>0</v>
@@ -8362,11 +8362,11 @@
       <c r="AW58" s="13">
         <v>0</v>
       </c>
-      <c r="AX58" s="13">
-        <v>0</v>
-      </c>
-      <c r="AY58" s="13" t="s">
-        <v>58</v>
+      <c r="AX58" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY58" s="13">
+        <v>0</v>
       </c>
       <c r="AZ58" s="13">
         <v>0</v>
@@ -8500,8 +8500,8 @@
       <c r="AP59" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ59" s="11" t="s">
-        <v>58</v>
+      <c r="AQ59" s="11">
+        <v>0</v>
       </c>
       <c r="AR59" s="11">
         <v>0</v>
@@ -8521,8 +8521,8 @@
       <c r="AW59" s="11">
         <v>0</v>
       </c>
-      <c r="AX59" s="11">
-        <v>0</v>
+      <c r="AX59" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AY59" s="11" t="s">
         <v>58</v>
@@ -8607,91 +8607,91 @@
         <v>0</v>
       </c>
       <c r="Z60" s="15">
-        <v>0</v>
+        <v>35582</v>
       </c>
       <c r="AA60" s="15">
-        <v>35582</v>
+        <v>42933</v>
       </c>
       <c r="AB60" s="15">
-        <v>42933</v>
+        <v>41659</v>
       </c>
       <c r="AC60" s="15">
-        <v>41659</v>
+        <v>34098</v>
       </c>
       <c r="AD60" s="15">
-        <v>34098</v>
+        <v>37586</v>
       </c>
       <c r="AE60" s="15">
-        <v>37586</v>
+        <v>42505</v>
       </c>
       <c r="AF60" s="15">
-        <v>42505</v>
+        <v>42534</v>
       </c>
       <c r="AG60" s="15">
-        <v>42534</v>
+        <v>35933</v>
       </c>
       <c r="AH60" s="15">
-        <v>35933</v>
+        <v>38172</v>
       </c>
       <c r="AI60" s="15">
-        <v>38172</v>
+        <v>35675</v>
       </c>
       <c r="AJ60" s="15">
-        <v>35675</v>
+        <v>36386</v>
       </c>
       <c r="AK60" s="15">
-        <v>36386</v>
+        <v>31876</v>
       </c>
       <c r="AL60" s="15">
-        <v>31876</v>
+        <v>40902</v>
       </c>
       <c r="AM60" s="15">
-        <v>40902</v>
+        <v>40603</v>
       </c>
       <c r="AN60" s="15">
         <v>40603</v>
       </c>
       <c r="AO60" s="15">
-        <v>40603</v>
+        <v>20703</v>
       </c>
       <c r="AP60" s="15">
-        <v>20703</v>
+        <v>23906</v>
       </c>
       <c r="AQ60" s="15">
-        <v>23906</v>
+        <v>33880</v>
       </c>
       <c r="AR60" s="15">
-        <v>33880</v>
+        <v>40982</v>
       </c>
       <c r="AS60" s="15">
-        <v>40982</v>
+        <v>23377</v>
       </c>
       <c r="AT60" s="15">
-        <v>23377</v>
+        <v>30014</v>
       </c>
       <c r="AU60" s="15">
-        <v>30014</v>
+        <v>28020</v>
       </c>
       <c r="AV60" s="15">
-        <v>28020</v>
+        <v>28500</v>
       </c>
       <c r="AW60" s="15">
-        <v>28500</v>
+        <v>28517</v>
       </c>
       <c r="AX60" s="15">
-        <v>28517</v>
+        <v>32178</v>
       </c>
       <c r="AY60" s="15">
-        <v>32178</v>
+        <v>36784</v>
       </c>
       <c r="AZ60" s="15">
-        <v>36784</v>
+        <v>44260</v>
       </c>
       <c r="BA60" s="15">
-        <v>44260</v>
+        <v>27099</v>
       </c>
       <c r="BB60" s="15">
-        <v>27099</v>
+        <v>28586</v>
       </c>
     </row>
     <row r="61" spans="2:54" x14ac:dyDescent="0.3">
@@ -8855,14 +8855,14 @@
       <c r="AJ62" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK62" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL62" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM62" s="11" t="s">
-        <v>58</v>
+      <c r="AK62" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL62" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM62" s="11">
+        <v>0</v>
       </c>
       <c r="AN62" s="11">
         <v>0</v>
@@ -8876,8 +8876,8 @@
       <c r="AQ62" s="11">
         <v>0</v>
       </c>
-      <c r="AR62" s="11">
-        <v>0</v>
+      <c r="AR62" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS62" s="11" t="s">
         <v>58</v>
@@ -8981,8 +8981,8 @@
       <c r="Y63" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z63" s="13" t="s">
-        <v>58</v>
+      <c r="Z63" s="13">
+        <v>0</v>
       </c>
       <c r="AA63" s="13">
         <v>0</v>
@@ -8993,14 +8993,14 @@
       <c r="AC63" s="13">
         <v>0</v>
       </c>
-      <c r="AD63" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE63" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF63" s="13">
-        <v>0</v>
+      <c r="AD63" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE63" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AG63" s="13" t="s">
         <v>58</v>
@@ -9393,14 +9393,14 @@
       <c r="AL66" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM66" s="11" t="s">
-        <v>58</v>
+      <c r="AM66" s="11">
+        <v>0</v>
       </c>
       <c r="AN66" s="11">
         <v>0</v>
       </c>
-      <c r="AO66" s="11">
-        <v>0</v>
+      <c r="AO66" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AP66" s="11" t="s">
         <v>58</v>
@@ -9511,8 +9511,8 @@
       <c r="Y67" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Z67" s="15" t="s">
-        <v>58</v>
+      <c r="Z67" s="15">
+        <v>0</v>
       </c>
       <c r="AA67" s="15">
         <v>0</v>
@@ -9725,8 +9725,8 @@
       <c r="Y69" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Z69" s="17" t="s">
-        <v>58</v>
+      <c r="Z69" s="17">
+        <v>0</v>
       </c>
       <c r="AA69" s="17">
         <v>0</v>
@@ -9883,91 +9883,91 @@
         <v>0</v>
       </c>
       <c r="Z70" s="15">
-        <v>0</v>
+        <v>35582</v>
       </c>
       <c r="AA70" s="15">
-        <v>35582</v>
+        <v>42933</v>
       </c>
       <c r="AB70" s="15">
-        <v>42933</v>
+        <v>41659</v>
       </c>
       <c r="AC70" s="15">
-        <v>41659</v>
+        <v>34098</v>
       </c>
       <c r="AD70" s="15">
-        <v>34098</v>
+        <v>37586</v>
       </c>
       <c r="AE70" s="15">
-        <v>37586</v>
+        <v>42505</v>
       </c>
       <c r="AF70" s="15">
-        <v>42505</v>
+        <v>42534</v>
       </c>
       <c r="AG70" s="15">
-        <v>42534</v>
+        <v>35933</v>
       </c>
       <c r="AH70" s="15">
-        <v>35933</v>
+        <v>38172</v>
       </c>
       <c r="AI70" s="15">
-        <v>38172</v>
+        <v>35675</v>
       </c>
       <c r="AJ70" s="15">
-        <v>35675</v>
+        <v>36386</v>
       </c>
       <c r="AK70" s="15">
-        <v>36386</v>
+        <v>31876</v>
       </c>
       <c r="AL70" s="15">
-        <v>31876</v>
+        <v>40902</v>
       </c>
       <c r="AM70" s="15">
-        <v>40902</v>
+        <v>40603</v>
       </c>
       <c r="AN70" s="15">
         <v>40603</v>
       </c>
       <c r="AO70" s="15">
-        <v>40603</v>
+        <v>20703</v>
       </c>
       <c r="AP70" s="15">
-        <v>20703</v>
+        <v>23906</v>
       </c>
       <c r="AQ70" s="15">
-        <v>23906</v>
+        <v>33880</v>
       </c>
       <c r="AR70" s="15">
-        <v>33880</v>
+        <v>40982</v>
       </c>
       <c r="AS70" s="15">
-        <v>40982</v>
+        <v>23377</v>
       </c>
       <c r="AT70" s="15">
-        <v>23377</v>
+        <v>30014</v>
       </c>
       <c r="AU70" s="15">
-        <v>30014</v>
+        <v>28020</v>
       </c>
       <c r="AV70" s="15">
-        <v>28020</v>
+        <v>28500</v>
       </c>
       <c r="AW70" s="15">
-        <v>28500</v>
+        <v>28517</v>
       </c>
       <c r="AX70" s="15">
-        <v>28517</v>
+        <v>32178</v>
       </c>
       <c r="AY70" s="15">
-        <v>32178</v>
+        <v>36784</v>
       </c>
       <c r="AZ70" s="15">
-        <v>36784</v>
+        <v>44260</v>
       </c>
       <c r="BA70" s="15">
-        <v>44260</v>
+        <v>27099</v>
       </c>
       <c r="BB70" s="15">
-        <v>27099</v>
+        <v>28586</v>
       </c>
     </row>
     <row r="71" spans="2:54" x14ac:dyDescent="0.3">
@@ -10475,11 +10475,11 @@
       <c r="Y77" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z77" s="11" t="s">
-        <v>58</v>
+      <c r="Z77" s="11">
+        <v>8</v>
       </c>
       <c r="AA77" s="11">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AB77" s="11">
         <v>0</v>
@@ -10505,8 +10505,8 @@
       <c r="AI77" s="11">
         <v>0</v>
       </c>
-      <c r="AJ77" s="11">
-        <v>0</v>
+      <c r="AJ77" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK77" s="11" t="s">
         <v>58</v>
@@ -10664,62 +10664,62 @@
       <c r="AI78" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ78" s="13" t="s">
-        <v>58</v>
+      <c r="AJ78" s="13">
+        <v>184112</v>
       </c>
       <c r="AK78" s="13">
-        <v>184112</v>
+        <v>100888</v>
       </c>
       <c r="AL78" s="13">
-        <v>100888</v>
+        <v>169113</v>
       </c>
       <c r="AM78" s="13">
-        <v>169113</v>
+        <v>141870</v>
       </c>
       <c r="AN78" s="13">
         <v>141870</v>
       </c>
       <c r="AO78" s="13">
-        <v>141870</v>
+        <v>29874</v>
       </c>
       <c r="AP78" s="13">
-        <v>29874</v>
+        <v>135144</v>
       </c>
       <c r="AQ78" s="13">
-        <v>135144</v>
+        <v>97532</v>
       </c>
       <c r="AR78" s="13">
-        <v>97532</v>
+        <v>20143</v>
       </c>
       <c r="AS78" s="13">
-        <v>20143</v>
+        <v>85602</v>
       </c>
       <c r="AT78" s="13">
-        <v>85602</v>
+        <v>30909</v>
       </c>
       <c r="AU78" s="13">
-        <v>30909</v>
+        <v>15096</v>
       </c>
       <c r="AV78" s="13">
-        <v>15096</v>
+        <v>6251</v>
       </c>
       <c r="AW78" s="13">
-        <v>6251</v>
+        <v>-2714</v>
       </c>
       <c r="AX78" s="13">
-        <v>-2714</v>
+        <v>48207</v>
       </c>
       <c r="AY78" s="13">
-        <v>48207</v>
+        <v>205238</v>
       </c>
       <c r="AZ78" s="13">
-        <v>205238</v>
+        <v>212048</v>
       </c>
       <c r="BA78" s="13">
-        <v>212048</v>
+        <v>154349</v>
       </c>
       <c r="BB78" s="13">
-        <v>154349</v>
+        <v>214049</v>
       </c>
     </row>
     <row r="79" spans="2:54" x14ac:dyDescent="0.3">
@@ -10793,23 +10793,23 @@
       <c r="Y79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z79" s="11" t="s">
-        <v>58</v>
+      <c r="Z79" s="11">
+        <v>0</v>
       </c>
       <c r="AA79" s="11">
-        <v>0</v>
+        <v>213749</v>
       </c>
       <c r="AB79" s="11">
-        <v>213749</v>
+        <v>28280</v>
       </c>
       <c r="AC79" s="11">
-        <v>28280</v>
+        <v>0</v>
       </c>
       <c r="AD79" s="11">
-        <v>0</v>
+        <v>115649</v>
       </c>
       <c r="AE79" s="11">
-        <v>115649</v>
+        <v>0</v>
       </c>
       <c r="AF79" s="11">
         <v>0</v>
@@ -10827,13 +10827,13 @@
         <v>0</v>
       </c>
       <c r="AK79" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL79" s="11">
         <v>43386</v>
       </c>
-      <c r="AM79" s="11" t="s">
-        <v>58</v>
+      <c r="AL79" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM79" s="11">
+        <v>0</v>
       </c>
       <c r="AN79" s="11">
         <v>0</v>
@@ -10842,13 +10842,13 @@
         <v>0</v>
       </c>
       <c r="AP79" s="11">
-        <v>0</v>
+        <v>-262</v>
       </c>
       <c r="AQ79" s="11">
-        <v>-262</v>
+        <v>339266</v>
       </c>
       <c r="AR79" s="11">
-        <v>339266</v>
+        <v>0</v>
       </c>
       <c r="AS79" s="11">
         <v>0</v>
@@ -10865,11 +10865,11 @@
       <c r="AW79" s="11">
         <v>0</v>
       </c>
-      <c r="AX79" s="11">
-        <v>0</v>
-      </c>
-      <c r="AY79" s="11" t="s">
-        <v>58</v>
+      <c r="AX79" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY79" s="11">
+        <v>0</v>
       </c>
       <c r="AZ79" s="11">
         <v>0</v>
@@ -10952,38 +10952,38 @@
       <c r="Y80" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z80" s="13" t="s">
-        <v>58</v>
+      <c r="Z80" s="13">
+        <v>3655355</v>
       </c>
       <c r="AA80" s="13">
-        <v>3655355</v>
+        <v>3729388</v>
       </c>
       <c r="AB80" s="13">
-        <v>3729388</v>
+        <v>4807213</v>
       </c>
       <c r="AC80" s="13">
-        <v>4807213</v>
+        <v>3815596</v>
       </c>
       <c r="AD80" s="13">
-        <v>3815596</v>
+        <v>4515304</v>
       </c>
       <c r="AE80" s="13">
-        <v>4515304</v>
+        <v>6347852</v>
       </c>
       <c r="AF80" s="13">
-        <v>6347852</v>
+        <v>6548395</v>
       </c>
       <c r="AG80" s="13">
-        <v>6548395</v>
+        <v>5368182</v>
       </c>
       <c r="AH80" s="13">
-        <v>5368182</v>
+        <v>5581282</v>
       </c>
       <c r="AI80" s="13">
-        <v>5581282</v>
-      </c>
-      <c r="AJ80" s="13">
         <v>5342739</v>
+      </c>
+      <c r="AJ80" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK80" s="13" t="s">
         <v>58</v>
@@ -11141,62 +11141,62 @@
       <c r="AI81" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ81" s="11" t="s">
-        <v>58</v>
+      <c r="AJ81" s="11">
+        <v>2179816</v>
       </c>
       <c r="AK81" s="11">
-        <v>2179816</v>
+        <v>2031620</v>
       </c>
       <c r="AL81" s="11">
-        <v>2031620</v>
+        <v>2409060</v>
       </c>
       <c r="AM81" s="11">
-        <v>2409060</v>
+        <v>2449732</v>
       </c>
       <c r="AN81" s="11">
         <v>2449732</v>
       </c>
       <c r="AO81" s="11">
-        <v>2449732</v>
+        <v>1347901</v>
       </c>
       <c r="AP81" s="11">
-        <v>1347901</v>
+        <v>3551156</v>
       </c>
       <c r="AQ81" s="11">
-        <v>3551156</v>
+        <v>11053151</v>
       </c>
       <c r="AR81" s="11">
-        <v>11053151</v>
+        <v>12388622</v>
       </c>
       <c r="AS81" s="11">
-        <v>12388622</v>
+        <v>5918985</v>
       </c>
       <c r="AT81" s="11">
-        <v>5918985</v>
+        <v>7715448</v>
       </c>
       <c r="AU81" s="11">
-        <v>7715448</v>
+        <v>7797090</v>
       </c>
       <c r="AV81" s="11">
-        <v>7797090</v>
+        <v>8228997</v>
       </c>
       <c r="AW81" s="11">
-        <v>8228997</v>
+        <v>7718281</v>
       </c>
       <c r="AX81" s="11">
-        <v>7718281</v>
+        <v>8181778</v>
       </c>
       <c r="AY81" s="11">
-        <v>8181778</v>
+        <v>8540434</v>
       </c>
       <c r="AZ81" s="11">
-        <v>8540434</v>
+        <v>9980572</v>
       </c>
       <c r="BA81" s="11">
-        <v>9980572</v>
+        <v>6320405</v>
       </c>
       <c r="BB81" s="11">
-        <v>6320405</v>
+        <v>6434086</v>
       </c>
     </row>
     <row r="82" spans="2:54" x14ac:dyDescent="0.3">
@@ -11300,62 +11300,62 @@
       <c r="AI82" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ82" s="13" t="s">
-        <v>58</v>
+      <c r="AJ82" s="13">
+        <v>1990379</v>
       </c>
       <c r="AK82" s="13">
-        <v>1990379</v>
+        <v>1393162</v>
       </c>
       <c r="AL82" s="13">
-        <v>1393162</v>
+        <v>2396343</v>
       </c>
       <c r="AM82" s="13">
-        <v>2396343</v>
+        <v>2498117</v>
       </c>
       <c r="AN82" s="13">
         <v>2498117</v>
       </c>
       <c r="AO82" s="13">
-        <v>2498117</v>
+        <v>1377461</v>
       </c>
       <c r="AP82" s="13">
-        <v>1377461</v>
+        <v>4006676</v>
       </c>
       <c r="AQ82" s="13">
-        <v>4006676</v>
+        <v>5128830</v>
       </c>
       <c r="AR82" s="13">
-        <v>5128830</v>
+        <v>10113091</v>
       </c>
       <c r="AS82" s="13">
-        <v>10113091</v>
+        <v>4694801</v>
       </c>
       <c r="AT82" s="13">
-        <v>4694801</v>
+        <v>5647651</v>
       </c>
       <c r="AU82" s="13">
-        <v>5647651</v>
+        <v>5722602</v>
       </c>
       <c r="AV82" s="13">
-        <v>5722602</v>
+        <v>5890757</v>
       </c>
       <c r="AW82" s="13">
-        <v>5890757</v>
+        <v>5139229</v>
       </c>
       <c r="AX82" s="13">
-        <v>5139229</v>
+        <v>7760858</v>
       </c>
       <c r="AY82" s="13">
-        <v>7760858</v>
+        <v>6045209</v>
       </c>
       <c r="AZ82" s="13">
-        <v>6045209</v>
+        <v>8968674</v>
       </c>
       <c r="BA82" s="13">
-        <v>8968674</v>
+        <v>5572784</v>
       </c>
       <c r="BB82" s="13">
-        <v>5572784</v>
+        <v>4603905</v>
       </c>
     </row>
     <row r="83" spans="2:54" x14ac:dyDescent="0.3">
@@ -11459,62 +11459,62 @@
       <c r="AI83" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ83" s="11" t="s">
-        <v>58</v>
+      <c r="AJ83" s="11">
+        <v>551764</v>
       </c>
       <c r="AK83" s="11">
-        <v>551764</v>
+        <v>508487</v>
       </c>
       <c r="AL83" s="11">
-        <v>508487</v>
+        <v>596920</v>
       </c>
       <c r="AM83" s="11">
-        <v>596920</v>
+        <v>710666</v>
       </c>
       <c r="AN83" s="11">
         <v>710666</v>
       </c>
       <c r="AO83" s="11">
-        <v>710666</v>
+        <v>571759</v>
       </c>
       <c r="AP83" s="11">
-        <v>571759</v>
+        <v>649186</v>
       </c>
       <c r="AQ83" s="11">
-        <v>649186</v>
+        <v>2814568</v>
       </c>
       <c r="AR83" s="11">
-        <v>2814568</v>
+        <v>3960617</v>
       </c>
       <c r="AS83" s="11">
-        <v>3960617</v>
+        <v>1798975</v>
       </c>
       <c r="AT83" s="11">
-        <v>1798975</v>
+        <v>2829608</v>
       </c>
       <c r="AU83" s="11">
-        <v>2829608</v>
+        <v>2918854</v>
       </c>
       <c r="AV83" s="11">
-        <v>2918854</v>
+        <v>3267005</v>
       </c>
       <c r="AW83" s="11">
-        <v>3267005</v>
+        <v>3557633</v>
       </c>
       <c r="AX83" s="11">
-        <v>3557633</v>
+        <v>3189463</v>
       </c>
       <c r="AY83" s="11">
-        <v>3189463</v>
+        <v>3633774</v>
       </c>
       <c r="AZ83" s="11">
-        <v>3633774</v>
+        <v>4128142</v>
       </c>
       <c r="BA83" s="11">
-        <v>4128142</v>
+        <v>2709456</v>
       </c>
       <c r="BB83" s="11">
-        <v>2709456</v>
+        <v>4008186</v>
       </c>
     </row>
     <row r="84" spans="2:54" x14ac:dyDescent="0.3">
@@ -11618,62 +11618,62 @@
       <c r="AI84" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ84" s="13" t="s">
-        <v>58</v>
+      <c r="AJ84" s="13">
+        <v>144954</v>
       </c>
       <c r="AK84" s="13">
-        <v>144954</v>
+        <v>153336</v>
       </c>
       <c r="AL84" s="13">
-        <v>153336</v>
+        <v>290369</v>
       </c>
       <c r="AM84" s="13">
-        <v>290369</v>
+        <v>263632</v>
       </c>
       <c r="AN84" s="13">
         <v>263632</v>
       </c>
       <c r="AO84" s="13">
-        <v>263632</v>
+        <v>4720</v>
       </c>
       <c r="AP84" s="13">
-        <v>4720</v>
+        <v>-19</v>
       </c>
       <c r="AQ84" s="13">
-        <v>-19</v>
+        <v>143662</v>
       </c>
       <c r="AR84" s="13">
-        <v>143662</v>
+        <v>1550873</v>
       </c>
       <c r="AS84" s="13">
-        <v>1550873</v>
+        <v>1339792</v>
       </c>
       <c r="AT84" s="13">
-        <v>1339792</v>
+        <v>1522055</v>
       </c>
       <c r="AU84" s="13">
-        <v>1522055</v>
+        <v>598446</v>
       </c>
       <c r="AV84" s="13">
-        <v>598446</v>
+        <v>341009</v>
       </c>
       <c r="AW84" s="13">
-        <v>341009</v>
+        <v>1061413</v>
       </c>
       <c r="AX84" s="13">
-        <v>1061413</v>
+        <v>559177</v>
       </c>
       <c r="AY84" s="13">
-        <v>559177</v>
+        <v>862431</v>
       </c>
       <c r="AZ84" s="13">
-        <v>862431</v>
+        <v>1055544</v>
       </c>
       <c r="BA84" s="13">
-        <v>1055544</v>
+        <v>807248</v>
       </c>
       <c r="BB84" s="13">
-        <v>807248</v>
+        <v>971246</v>
       </c>
     </row>
     <row r="85" spans="2:54" x14ac:dyDescent="0.3">
@@ -11777,26 +11777,26 @@
       <c r="AI85" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ85" s="11" t="s">
-        <v>58</v>
+      <c r="AJ85" s="11">
+        <v>55414</v>
       </c>
       <c r="AK85" s="11">
-        <v>55414</v>
+        <v>59392</v>
       </c>
       <c r="AL85" s="11">
-        <v>59392</v>
+        <v>18473</v>
       </c>
       <c r="AM85" s="11">
-        <v>18473</v>
+        <v>11498</v>
       </c>
       <c r="AN85" s="11">
         <v>11498</v>
       </c>
       <c r="AO85" s="11">
-        <v>11498</v>
-      </c>
-      <c r="AP85" s="11">
         <v>11257</v>
+      </c>
+      <c r="AP85" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AQ85" s="11" t="s">
         <v>58</v>
@@ -11936,62 +11936,62 @@
       <c r="AI86" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ86" s="13" t="s">
-        <v>58</v>
+      <c r="AJ86" s="13">
+        <v>32600</v>
       </c>
       <c r="AK86" s="13">
-        <v>32600</v>
+        <v>35923</v>
       </c>
       <c r="AL86" s="13">
-        <v>35923</v>
+        <v>29219</v>
       </c>
       <c r="AM86" s="13">
-        <v>29219</v>
+        <v>49267</v>
       </c>
       <c r="AN86" s="13">
         <v>49267</v>
       </c>
       <c r="AO86" s="13">
-        <v>49267</v>
+        <v>42731</v>
       </c>
       <c r="AP86" s="13">
-        <v>42731</v>
+        <v>72175</v>
       </c>
       <c r="AQ86" s="13">
-        <v>72175</v>
+        <v>204656</v>
       </c>
       <c r="AR86" s="13">
-        <v>204656</v>
+        <v>114877</v>
       </c>
       <c r="AS86" s="13">
-        <v>114877</v>
+        <v>77596</v>
       </c>
       <c r="AT86" s="13">
-        <v>77596</v>
+        <v>72221</v>
       </c>
       <c r="AU86" s="13">
-        <v>72221</v>
+        <v>55843</v>
       </c>
       <c r="AV86" s="13">
-        <v>55843</v>
+        <v>70928</v>
       </c>
       <c r="AW86" s="13">
-        <v>70928</v>
+        <v>93636</v>
       </c>
       <c r="AX86" s="13">
-        <v>93636</v>
+        <v>92778</v>
       </c>
       <c r="AY86" s="13">
-        <v>92778</v>
+        <v>102666</v>
       </c>
       <c r="AZ86" s="13">
-        <v>102666</v>
+        <v>160297</v>
       </c>
       <c r="BA86" s="13">
-        <v>160297</v>
+        <v>60994</v>
       </c>
       <c r="BB86" s="13">
-        <v>60994</v>
+        <v>70180</v>
       </c>
     </row>
     <row r="87" spans="2:54" x14ac:dyDescent="0.3">
@@ -12095,17 +12095,17 @@
       <c r="AI87" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ87" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK87" s="11">
+      <c r="AJ87" s="11">
         <v>101644</v>
       </c>
-      <c r="AL87" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM87" s="11">
+      <c r="AK87" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL87" s="11">
         <v>73964</v>
+      </c>
+      <c r="AM87" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AN87" s="11" t="s">
         <v>58</v>
@@ -12272,35 +12272,35 @@
       <c r="AO88" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP88" s="13" t="s">
-        <v>58</v>
+      <c r="AP88" s="13">
+        <v>6437</v>
       </c>
       <c r="AQ88" s="13">
-        <v>6437</v>
+        <v>0</v>
       </c>
       <c r="AR88" s="13">
-        <v>0</v>
+        <v>6247</v>
       </c>
       <c r="AS88" s="13">
-        <v>6247</v>
+        <v>7238</v>
       </c>
       <c r="AT88" s="13">
-        <v>7238</v>
+        <v>0</v>
       </c>
       <c r="AU88" s="13">
         <v>0</v>
       </c>
       <c r="AV88" s="13">
-        <v>0</v>
+        <v>16838</v>
       </c>
       <c r="AW88" s="13">
-        <v>16838</v>
-      </c>
-      <c r="AX88" s="13">
-        <v>0</v>
-      </c>
-      <c r="AY88" s="13" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AX88" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY88" s="13">
+        <v>0</v>
       </c>
       <c r="AZ88" s="13">
         <v>0</v>
@@ -12309,7 +12309,7 @@
         <v>0</v>
       </c>
       <c r="BB88" s="13">
-        <v>0</v>
+        <v>21617</v>
       </c>
     </row>
     <row r="89" spans="2:54" x14ac:dyDescent="0.3">
@@ -12431,44 +12431,44 @@
       <c r="AO89" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP89" s="11" t="s">
-        <v>58</v>
+      <c r="AP89" s="11">
+        <v>12590</v>
       </c>
       <c r="AQ89" s="11">
-        <v>12590</v>
+        <v>34081</v>
       </c>
       <c r="AR89" s="11">
-        <v>34081</v>
+        <v>77096</v>
       </c>
       <c r="AS89" s="11">
-        <v>77096</v>
+        <v>0</v>
       </c>
       <c r="AT89" s="11">
-        <v>0</v>
+        <v>48216</v>
       </c>
       <c r="AU89" s="11">
-        <v>48216</v>
+        <v>51013</v>
       </c>
       <c r="AV89" s="11">
-        <v>51013</v>
+        <v>64692</v>
       </c>
       <c r="AW89" s="11">
-        <v>64692</v>
+        <v>7779</v>
       </c>
       <c r="AX89" s="11">
+        <v>17826</v>
+      </c>
+      <c r="AY89" s="11">
         <v>7779</v>
       </c>
-      <c r="AY89" s="11">
-        <v>17826</v>
-      </c>
       <c r="AZ89" s="11">
-        <v>7779</v>
+        <v>0</v>
       </c>
       <c r="BA89" s="11">
-        <v>0</v>
+        <v>3155</v>
       </c>
       <c r="BB89" s="11">
-        <v>3155</v>
+        <v>12961</v>
       </c>
     </row>
     <row r="90" spans="2:54" x14ac:dyDescent="0.3">
@@ -12596,8 +12596,8 @@
       <c r="AQ90" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR90" s="13" t="s">
-        <v>58</v>
+      <c r="AR90" s="13">
+        <v>0</v>
       </c>
       <c r="AS90" s="13">
         <v>0</v>
@@ -12611,8 +12611,8 @@
       <c r="AV90" s="13">
         <v>0</v>
       </c>
-      <c r="AW90" s="13">
-        <v>0</v>
+      <c r="AW90" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AX90" s="13" t="s">
         <v>58</v>
@@ -12620,8 +12620,8 @@
       <c r="AY90" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ90" s="13" t="s">
-        <v>58</v>
+      <c r="AZ90" s="13">
+        <v>0</v>
       </c>
       <c r="BA90" s="13">
         <v>0</v>
@@ -12749,44 +12749,44 @@
       <c r="AO91" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP91" s="11" t="s">
-        <v>58</v>
+      <c r="AP91" s="11">
+        <v>5416</v>
       </c>
       <c r="AQ91" s="11">
-        <v>5416</v>
+        <v>0</v>
       </c>
       <c r="AR91" s="11">
         <v>0</v>
       </c>
       <c r="AS91" s="11">
-        <v>0</v>
+        <v>327520</v>
       </c>
       <c r="AT91" s="11">
-        <v>327520</v>
+        <v>116927</v>
       </c>
       <c r="AU91" s="11">
-        <v>116927</v>
+        <v>75490</v>
       </c>
       <c r="AV91" s="11">
-        <v>75490</v>
+        <v>32484</v>
       </c>
       <c r="AW91" s="11">
-        <v>32484</v>
+        <v>140960</v>
       </c>
       <c r="AX91" s="11">
-        <v>140960</v>
+        <v>21515</v>
       </c>
       <c r="AY91" s="11">
-        <v>21515</v>
+        <v>53326</v>
       </c>
       <c r="AZ91" s="11">
-        <v>53326</v>
+        <v>21245</v>
       </c>
       <c r="BA91" s="11">
-        <v>21245</v>
+        <v>45994</v>
       </c>
       <c r="BB91" s="11">
-        <v>45994</v>
+        <v>43474</v>
       </c>
     </row>
     <row r="92" spans="2:54" x14ac:dyDescent="0.3">
@@ -12908,8 +12908,8 @@
       <c r="AO92" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP92" s="13" t="s">
-        <v>58</v>
+      <c r="AP92" s="13">
+        <v>0</v>
       </c>
       <c r="AQ92" s="13">
         <v>0</v>
@@ -12932,11 +12932,11 @@
       <c r="AW92" s="13">
         <v>0</v>
       </c>
-      <c r="AX92" s="13">
-        <v>0</v>
-      </c>
-      <c r="AY92" s="13" t="s">
-        <v>58</v>
+      <c r="AX92" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY92" s="13">
+        <v>0</v>
       </c>
       <c r="AZ92" s="13">
         <v>0</v>
@@ -13070,8 +13070,8 @@
       <c r="AP93" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ93" s="11" t="s">
-        <v>58</v>
+      <c r="AQ93" s="11">
+        <v>0</v>
       </c>
       <c r="AR93" s="11">
         <v>0</v>
@@ -13091,8 +13091,8 @@
       <c r="AW93" s="11">
         <v>0</v>
       </c>
-      <c r="AX93" s="11">
-        <v>0</v>
+      <c r="AX93" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AY93" s="11" t="s">
         <v>58</v>
@@ -13177,91 +13177,91 @@
         <v>0</v>
       </c>
       <c r="Z94" s="15">
-        <v>0</v>
+        <v>3655363</v>
       </c>
       <c r="AA94" s="15">
-        <v>3655363</v>
+        <v>3943137</v>
       </c>
       <c r="AB94" s="15">
-        <v>3943137</v>
+        <v>4835493</v>
       </c>
       <c r="AC94" s="15">
-        <v>4835493</v>
+        <v>3815596</v>
       </c>
       <c r="AD94" s="15">
-        <v>3815596</v>
+        <v>4630953</v>
       </c>
       <c r="AE94" s="15">
-        <v>4630953</v>
+        <v>6347852</v>
       </c>
       <c r="AF94" s="15">
-        <v>6347852</v>
+        <v>6548395</v>
       </c>
       <c r="AG94" s="15">
-        <v>6548395</v>
+        <v>5368182</v>
       </c>
       <c r="AH94" s="15">
-        <v>5368182</v>
+        <v>5581282</v>
       </c>
       <c r="AI94" s="15">
-        <v>5581282</v>
+        <v>5342739</v>
       </c>
       <c r="AJ94" s="15">
-        <v>5342739</v>
+        <v>5240683</v>
       </c>
       <c r="AK94" s="15">
-        <v>5240683</v>
+        <v>4326194</v>
       </c>
       <c r="AL94" s="15">
-        <v>4326194</v>
+        <v>5983461</v>
       </c>
       <c r="AM94" s="15">
-        <v>5983461</v>
+        <v>6124782</v>
       </c>
       <c r="AN94" s="15">
         <v>6124782</v>
       </c>
       <c r="AO94" s="15">
-        <v>6124782</v>
+        <v>3385703</v>
       </c>
       <c r="AP94" s="15">
-        <v>3385703</v>
+        <v>8438499</v>
       </c>
       <c r="AQ94" s="15">
-        <v>8438499</v>
+        <v>19815746</v>
       </c>
       <c r="AR94" s="15">
-        <v>19815746</v>
+        <v>28231566</v>
       </c>
       <c r="AS94" s="15">
-        <v>28231566</v>
+        <v>14250509</v>
       </c>
       <c r="AT94" s="15">
-        <v>14250509</v>
+        <v>17983035</v>
       </c>
       <c r="AU94" s="15">
-        <v>17983035</v>
+        <v>17234434</v>
       </c>
       <c r="AV94" s="15">
-        <v>17234434</v>
+        <v>17918961</v>
       </c>
       <c r="AW94" s="15">
-        <v>17918961</v>
+        <v>17716217</v>
       </c>
       <c r="AX94" s="15">
-        <v>17716217</v>
+        <v>19871602</v>
       </c>
       <c r="AY94" s="15">
-        <v>19871602</v>
+        <v>19450857</v>
       </c>
       <c r="AZ94" s="15">
-        <v>19450857</v>
+        <v>24526522</v>
       </c>
       <c r="BA94" s="15">
-        <v>24526522</v>
+        <v>15674385</v>
       </c>
       <c r="BB94" s="15">
-        <v>15674385</v>
+        <v>16379704</v>
       </c>
     </row>
     <row r="95" spans="2:54" x14ac:dyDescent="0.3">
@@ -13425,14 +13425,14 @@
       <c r="AJ96" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK96" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL96" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM96" s="11" t="s">
-        <v>58</v>
+      <c r="AK96" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL96" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM96" s="11">
+        <v>0</v>
       </c>
       <c r="AN96" s="11">
         <v>0</v>
@@ -13446,8 +13446,8 @@
       <c r="AQ96" s="11">
         <v>0</v>
       </c>
-      <c r="AR96" s="11">
-        <v>0</v>
+      <c r="AR96" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS96" s="11" t="s">
         <v>58</v>
@@ -13551,8 +13551,8 @@
       <c r="Y97" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z97" s="13" t="s">
-        <v>58</v>
+      <c r="Z97" s="13">
+        <v>0</v>
       </c>
       <c r="AA97" s="13">
         <v>0</v>
@@ -13584,8 +13584,8 @@
       <c r="AJ97" s="13">
         <v>0</v>
       </c>
-      <c r="AK97" s="13">
-        <v>0</v>
+      <c r="AK97" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AL97" s="13" t="s">
         <v>58</v>
@@ -13963,8 +13963,8 @@
       <c r="AL100" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM100" s="11" t="s">
-        <v>58</v>
+      <c r="AM100" s="11">
+        <v>0</v>
       </c>
       <c r="AN100" s="11">
         <v>0</v>
@@ -13978,8 +13978,8 @@
       <c r="AQ100" s="11">
         <v>0</v>
       </c>
-      <c r="AR100" s="11">
-        <v>0</v>
+      <c r="AR100" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS100" s="11" t="s">
         <v>58</v>
@@ -14083,8 +14083,8 @@
       <c r="Y101" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Z101" s="15" t="s">
-        <v>58</v>
+      <c r="Z101" s="15">
+        <v>0</v>
       </c>
       <c r="AA101" s="15">
         <v>0</v>
@@ -14299,8 +14299,8 @@
       <c r="Y103" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Z103" s="17" t="s">
-        <v>58</v>
+      <c r="Z103" s="17">
+        <v>0</v>
       </c>
       <c r="AA103" s="17">
         <v>0</v>
@@ -14515,92 +14515,92 @@
       <c r="Y105" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z105" s="11" t="s">
-        <v>58</v>
+      <c r="Z105" s="11">
+        <v>-94163</v>
       </c>
       <c r="AA105" s="11">
-        <v>-94163</v>
+        <v>-137794</v>
       </c>
       <c r="AB105" s="11">
-        <v>-137794</v>
+        <v>-160867</v>
       </c>
       <c r="AC105" s="11">
-        <v>-160867</v>
+        <v>-132957</v>
       </c>
       <c r="AD105" s="11">
-        <v>-132957</v>
+        <v>-166178</v>
       </c>
       <c r="AE105" s="11">
-        <v>-166178</v>
+        <v>-159975</v>
       </c>
       <c r="AF105" s="11">
-        <v>-159975</v>
+        <v>-199790</v>
       </c>
       <c r="AG105" s="11">
-        <v>-199790</v>
+        <v>-141327</v>
       </c>
       <c r="AH105" s="11">
-        <v>-141327</v>
+        <v>-226083</v>
       </c>
       <c r="AI105" s="11">
-        <v>-226083</v>
+        <v>-162469</v>
       </c>
       <c r="AJ105" s="11">
-        <v>-162469</v>
+        <v>-9851</v>
       </c>
       <c r="AK105" s="11">
-        <v>-9851</v>
+        <v>-174864</v>
       </c>
       <c r="AL105" s="11">
-        <v>-174864</v>
+        <v>-144552</v>
       </c>
       <c r="AM105" s="11">
-        <v>-144552</v>
+        <v>-194266</v>
       </c>
       <c r="AN105" s="11">
         <v>-194266</v>
       </c>
       <c r="AO105" s="11">
-        <v>-194266</v>
+        <v>-112332</v>
       </c>
       <c r="AP105" s="11">
-        <v>-112332</v>
+        <v>-223594</v>
       </c>
       <c r="AQ105" s="11">
-        <v>-223594</v>
+        <v>-412144</v>
       </c>
       <c r="AR105" s="11">
-        <v>-412144</v>
+        <v>-1150534</v>
       </c>
       <c r="AS105" s="11">
-        <v>-1150534</v>
+        <v>-1545296</v>
       </c>
       <c r="AT105" s="11">
-        <v>-1545296</v>
+        <v>-1258430</v>
       </c>
       <c r="AU105" s="11">
-        <v>-1258430</v>
+        <v>-1711873</v>
       </c>
       <c r="AV105" s="11">
-        <v>-1711873</v>
+        <v>-1862159</v>
       </c>
       <c r="AW105" s="11">
-        <v>-1862159</v>
+        <v>-1571755</v>
       </c>
       <c r="AX105" s="11">
-        <v>-1571755</v>
+        <v>-1437843</v>
       </c>
       <c r="AY105" s="11">
-        <v>-1437843</v>
+        <v>-1498634</v>
       </c>
       <c r="AZ105" s="11">
-        <v>-1498634</v>
+        <v>-2290215</v>
       </c>
       <c r="BA105" s="11">
-        <v>-2290215</v>
+        <v>-1089588</v>
       </c>
       <c r="BB105" s="11">
-        <v>-1089588</v>
+        <v>-1005324</v>
       </c>
     </row>
     <row r="106" spans="2:54" x14ac:dyDescent="0.3">
@@ -14673,91 +14673,91 @@
         <v>0</v>
       </c>
       <c r="Z106" s="15">
-        <v>0</v>
+        <v>3561200</v>
       </c>
       <c r="AA106" s="15">
-        <v>3561200</v>
+        <v>3805343</v>
       </c>
       <c r="AB106" s="15">
-        <v>3805343</v>
+        <v>4674626</v>
       </c>
       <c r="AC106" s="15">
-        <v>4674626</v>
+        <v>3682639</v>
       </c>
       <c r="AD106" s="15">
-        <v>3682639</v>
+        <v>4464775</v>
       </c>
       <c r="AE106" s="15">
-        <v>4464775</v>
+        <v>6187877</v>
       </c>
       <c r="AF106" s="15">
-        <v>6187877</v>
+        <v>6348605</v>
       </c>
       <c r="AG106" s="15">
-        <v>6348605</v>
+        <v>5226855</v>
       </c>
       <c r="AH106" s="15">
-        <v>5226855</v>
+        <v>5355199</v>
       </c>
       <c r="AI106" s="15">
-        <v>5355199</v>
+        <v>5180270</v>
       </c>
       <c r="AJ106" s="15">
-        <v>5180270</v>
+        <v>5230832</v>
       </c>
       <c r="AK106" s="15">
-        <v>5230832</v>
+        <v>4151330</v>
       </c>
       <c r="AL106" s="15">
-        <v>4151330</v>
+        <v>5838909</v>
       </c>
       <c r="AM106" s="15">
-        <v>5838909</v>
+        <v>5930516</v>
       </c>
       <c r="AN106" s="15">
         <v>5930516</v>
       </c>
       <c r="AO106" s="15">
-        <v>5930516</v>
+        <v>3273371</v>
       </c>
       <c r="AP106" s="15">
-        <v>3273371</v>
+        <v>8214905</v>
       </c>
       <c r="AQ106" s="15">
-        <v>8214905</v>
+        <v>19403602</v>
       </c>
       <c r="AR106" s="15">
-        <v>19403602</v>
+        <v>27081032</v>
       </c>
       <c r="AS106" s="15">
-        <v>27081032</v>
+        <v>12705213</v>
       </c>
       <c r="AT106" s="15">
-        <v>12705213</v>
+        <v>16724605</v>
       </c>
       <c r="AU106" s="15">
-        <v>16724605</v>
+        <v>15522561</v>
       </c>
       <c r="AV106" s="15">
-        <v>15522561</v>
+        <v>16056802</v>
       </c>
       <c r="AW106" s="15">
-        <v>16056802</v>
+        <v>16144462</v>
       </c>
       <c r="AX106" s="15">
-        <v>16144462</v>
+        <v>18433759</v>
       </c>
       <c r="AY106" s="15">
-        <v>18433759</v>
+        <v>17952223</v>
       </c>
       <c r="AZ106" s="15">
-        <v>17952223</v>
+        <v>22236307</v>
       </c>
       <c r="BA106" s="15">
-        <v>22236307</v>
+        <v>14584797</v>
       </c>
       <c r="BB106" s="15">
-        <v>14584797</v>
+        <v>15374380</v>
       </c>
     </row>
     <row r="107" spans="2:54" x14ac:dyDescent="0.3">
@@ -15295,62 +15295,62 @@
       <c r="AI113" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ113" s="11" t="s">
-        <v>58</v>
+      <c r="AJ113" s="11">
+        <v>52558379</v>
       </c>
       <c r="AK113" s="11">
-        <v>52558379</v>
+        <v>28841624</v>
       </c>
       <c r="AL113" s="11">
-        <v>28841624</v>
+        <v>38592652</v>
       </c>
       <c r="AM113" s="11">
-        <v>38592652</v>
+        <v>36339652</v>
       </c>
       <c r="AN113" s="11">
         <v>36339652</v>
       </c>
       <c r="AO113" s="11">
-        <v>36339652</v>
+        <v>25664948</v>
       </c>
       <c r="AP113" s="11">
-        <v>25664948</v>
+        <v>38491598</v>
       </c>
       <c r="AQ113" s="11">
-        <v>38491598</v>
+        <v>38580696</v>
       </c>
       <c r="AR113" s="11">
-        <v>38580696</v>
+        <v>22556551</v>
       </c>
       <c r="AS113" s="11">
-        <v>22556551</v>
+        <v>54662835</v>
       </c>
       <c r="AT113" s="11">
-        <v>54662835</v>
+        <v>33706652</v>
       </c>
       <c r="AU113" s="11">
-        <v>33706652</v>
+        <v>31515658</v>
       </c>
       <c r="AV113" s="11">
-        <v>31515658</v>
+        <v>102475410</v>
       </c>
       <c r="AW113" s="11">
-        <v>102475410</v>
+        <v>104384615</v>
       </c>
       <c r="AX113" s="11">
-        <v>104384615</v>
+        <v>59368227</v>
       </c>
       <c r="AY113" s="11">
-        <v>59368227</v>
+        <v>34680297</v>
       </c>
       <c r="AZ113" s="11">
-        <v>34680297</v>
+        <v>38936467</v>
       </c>
       <c r="BA113" s="11">
-        <v>38936467</v>
+        <v>81752648</v>
       </c>
       <c r="BB113" s="11">
-        <v>81752648</v>
+        <v>93145779</v>
       </c>
     </row>
     <row r="114" spans="2:54" x14ac:dyDescent="0.3">
@@ -15427,21 +15427,21 @@
       <c r="Z114" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA114" s="13" t="s">
-        <v>58</v>
+      <c r="AA114" s="13">
+        <v>29999860</v>
       </c>
       <c r="AB114" s="13">
-        <v>29999860</v>
-      </c>
-      <c r="AC114" s="13">
         <v>23237469</v>
       </c>
-      <c r="AD114" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE114" s="13">
+      <c r="AC114" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD114" s="13">
         <v>30322234</v>
       </c>
+      <c r="AE114" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AF114" s="13" t="s">
         <v>58</v>
       </c>
@@ -15457,12 +15457,12 @@
       <c r="AJ114" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK114" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL114" s="13">
+      <c r="AK114" s="13">
         <v>30129167</v>
       </c>
+      <c r="AL114" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AM114" s="13" t="s">
         <v>58</v>
       </c>
@@ -15472,14 +15472,14 @@
       <c r="AO114" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP114" s="13" t="s">
-        <v>58</v>
+      <c r="AP114" s="13">
+        <v>26200000</v>
       </c>
       <c r="AQ114" s="13">
-        <v>26200000</v>
-      </c>
-      <c r="AR114" s="13">
         <v>70067328</v>
+      </c>
+      <c r="AR114" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS114" s="13" t="s">
         <v>58</v>
@@ -15583,38 +15583,38 @@
       <c r="Y115" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z115" s="11" t="s">
-        <v>58</v>
+      <c r="Z115" s="11">
+        <v>102730454</v>
       </c>
       <c r="AA115" s="11">
-        <v>102730454</v>
+        <v>104149576</v>
       </c>
       <c r="AB115" s="11">
-        <v>104149576</v>
+        <v>118866846</v>
       </c>
       <c r="AC115" s="11">
-        <v>118866846</v>
+        <v>111900874</v>
       </c>
       <c r="AD115" s="11">
-        <v>111900874</v>
+        <v>120132603</v>
       </c>
       <c r="AE115" s="11">
-        <v>120132603</v>
+        <v>149343654</v>
       </c>
       <c r="AF115" s="11">
-        <v>149343654</v>
+        <v>153956717</v>
       </c>
       <c r="AG115" s="11">
-        <v>153956717</v>
+        <v>149394206</v>
       </c>
       <c r="AH115" s="11">
-        <v>149394206</v>
+        <v>146214031</v>
       </c>
       <c r="AI115" s="11">
-        <v>146214031</v>
-      </c>
-      <c r="AJ115" s="11">
         <v>149761430</v>
+      </c>
+      <c r="AJ115" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK115" s="11" t="s">
         <v>58</v>
@@ -15772,62 +15772,62 @@
       <c r="AI116" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ116" s="13" t="s">
-        <v>58</v>
+      <c r="AJ116" s="13">
+        <v>155102889</v>
       </c>
       <c r="AK116" s="13">
-        <v>155102889</v>
+        <v>153329811</v>
       </c>
       <c r="AL116" s="13">
-        <v>153329811</v>
+        <v>157393179</v>
       </c>
       <c r="AM116" s="13">
-        <v>157393179</v>
+        <v>157154991</v>
       </c>
       <c r="AN116" s="13">
         <v>157154991</v>
       </c>
       <c r="AO116" s="13">
-        <v>157154991</v>
+        <v>165264958</v>
       </c>
       <c r="AP116" s="13">
-        <v>165264958</v>
+        <v>445174376</v>
       </c>
       <c r="AQ116" s="13">
-        <v>445174376</v>
+        <v>747845129</v>
       </c>
       <c r="AR116" s="13">
-        <v>747845129</v>
+        <v>728356870</v>
       </c>
       <c r="AS116" s="13">
-        <v>728356870</v>
+        <v>686497912</v>
       </c>
       <c r="AT116" s="13">
-        <v>686497912</v>
+        <v>655796685</v>
       </c>
       <c r="AU116" s="13">
-        <v>655796685</v>
+        <v>657427487</v>
       </c>
       <c r="AV116" s="13">
-        <v>657427487</v>
+        <v>664057214</v>
       </c>
       <c r="AW116" s="13">
-        <v>664057214</v>
+        <v>659062505</v>
       </c>
       <c r="AX116" s="13">
-        <v>659062505</v>
+        <v>655486140</v>
       </c>
       <c r="AY116" s="13">
-        <v>655486140</v>
+        <v>662922766</v>
       </c>
       <c r="AZ116" s="13">
-        <v>662922766</v>
+        <v>659959796</v>
       </c>
       <c r="BA116" s="13">
-        <v>659959796</v>
+        <v>660163464</v>
       </c>
       <c r="BB116" s="13">
-        <v>660163464</v>
+        <v>658420589</v>
       </c>
     </row>
     <row r="117" spans="2:54" x14ac:dyDescent="0.3">
@@ -15931,62 +15931,62 @@
       <c r="AI117" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ117" s="11" t="s">
-        <v>58</v>
+      <c r="AJ117" s="11">
+        <v>168163146</v>
       </c>
       <c r="AK117" s="11">
-        <v>168163146</v>
+        <v>167709402</v>
       </c>
       <c r="AL117" s="11">
-        <v>167709402</v>
+        <v>173811779</v>
       </c>
       <c r="AM117" s="11">
-        <v>173811779</v>
+        <v>170345517</v>
       </c>
       <c r="AN117" s="11">
         <v>170345517</v>
       </c>
       <c r="AO117" s="11">
-        <v>170345517</v>
+        <v>182856896</v>
       </c>
       <c r="AP117" s="11">
-        <v>182856896</v>
+        <v>391468100</v>
       </c>
       <c r="AQ117" s="11">
-        <v>391468100</v>
+        <v>767444262</v>
       </c>
       <c r="AR117" s="11">
-        <v>767444262</v>
+        <v>741809653</v>
       </c>
       <c r="AS117" s="11">
-        <v>741809653</v>
+        <v>684772608</v>
       </c>
       <c r="AT117" s="11">
-        <v>684772608</v>
+        <v>664351370</v>
       </c>
       <c r="AU117" s="11">
-        <v>664351370</v>
+        <v>668216021</v>
       </c>
       <c r="AV117" s="11">
-        <v>668216021</v>
+        <v>669100068</v>
       </c>
       <c r="AW117" s="11">
-        <v>669100068</v>
+        <v>683135584</v>
       </c>
       <c r="AX117" s="11">
-        <v>683135584</v>
+        <v>681135510</v>
       </c>
       <c r="AY117" s="11">
-        <v>681135510</v>
+        <v>670795495</v>
       </c>
       <c r="AZ117" s="11">
-        <v>670795495</v>
+        <v>668655334</v>
       </c>
       <c r="BA117" s="11">
-        <v>668655334</v>
+        <v>666920057</v>
       </c>
       <c r="BB117" s="11">
-        <v>666920057</v>
+        <v>684595539</v>
       </c>
     </row>
     <row r="118" spans="2:54" x14ac:dyDescent="0.3">
@@ -16090,62 +16090,62 @@
       <c r="AI118" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ118" s="13" t="s">
-        <v>58</v>
+      <c r="AJ118" s="13">
+        <v>123299218</v>
       </c>
       <c r="AK118" s="13">
-        <v>123299218</v>
+        <v>136031835</v>
       </c>
       <c r="AL118" s="13">
-        <v>136031835</v>
+        <v>133330355</v>
       </c>
       <c r="AM118" s="13">
-        <v>133330355</v>
+        <v>165965904</v>
       </c>
       <c r="AN118" s="13">
         <v>165965904</v>
       </c>
       <c r="AO118" s="13">
-        <v>165965904</v>
+        <v>157379301</v>
       </c>
       <c r="AP118" s="13">
-        <v>157379301</v>
+        <v>356108612</v>
       </c>
       <c r="AQ118" s="13">
-        <v>356108612</v>
+        <v>619675914</v>
       </c>
       <c r="AR118" s="13">
-        <v>619675914</v>
+        <v>586584271</v>
       </c>
       <c r="AS118" s="13">
-        <v>586584271</v>
+        <v>537328256</v>
       </c>
       <c r="AT118" s="13">
-        <v>537328256</v>
+        <v>503937311</v>
       </c>
       <c r="AU118" s="13">
-        <v>503937311</v>
+        <v>511989826</v>
       </c>
       <c r="AV118" s="13">
-        <v>511989826</v>
+        <v>516033012</v>
       </c>
       <c r="AW118" s="13">
-        <v>516033012</v>
+        <v>512922866</v>
       </c>
       <c r="AX118" s="13">
-        <v>512922866</v>
+        <v>509580284</v>
       </c>
       <c r="AY118" s="13">
-        <v>509580284</v>
+        <v>509288577</v>
       </c>
       <c r="AZ118" s="13">
-        <v>509288577</v>
+        <v>510214065</v>
       </c>
       <c r="BA118" s="13">
-        <v>510214065</v>
+        <v>505495522</v>
       </c>
       <c r="BB118" s="13">
-        <v>505495522</v>
+        <v>513080645</v>
       </c>
     </row>
     <row r="119" spans="2:54" x14ac:dyDescent="0.3">
@@ -16249,62 +16249,62 @@
       <c r="AI119" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ119" s="11" t="s">
-        <v>58</v>
+      <c r="AJ119" s="11">
+        <v>141695015</v>
       </c>
       <c r="AK119" s="11">
-        <v>141695015</v>
+        <v>142109361</v>
       </c>
       <c r="AL119" s="11">
-        <v>142109361</v>
+        <v>142968488</v>
       </c>
       <c r="AM119" s="11">
-        <v>142968488</v>
+        <v>144693743</v>
       </c>
       <c r="AN119" s="11">
         <v>144693743</v>
       </c>
       <c r="AO119" s="11">
-        <v>144693743</v>
-      </c>
-      <c r="AP119" s="11">
         <v>143030303</v>
       </c>
-      <c r="AQ119" s="11" t="s">
-        <v>58</v>
+      <c r="AP119" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ119" s="11">
+        <v>662036866</v>
       </c>
       <c r="AR119" s="11">
-        <v>662036866</v>
+        <v>636125103</v>
       </c>
       <c r="AS119" s="11">
-        <v>636125103</v>
+        <v>582265102</v>
       </c>
       <c r="AT119" s="11">
-        <v>582265102</v>
+        <v>543009276</v>
       </c>
       <c r="AU119" s="11">
-        <v>543009276</v>
+        <v>544536852</v>
       </c>
       <c r="AV119" s="11">
-        <v>544536852</v>
+        <v>548245981</v>
       </c>
       <c r="AW119" s="11">
-        <v>548245981</v>
+        <v>542644683</v>
       </c>
       <c r="AX119" s="11">
-        <v>542644683</v>
+        <v>540790135</v>
       </c>
       <c r="AY119" s="11">
-        <v>540790135</v>
+        <v>544807960</v>
       </c>
       <c r="AZ119" s="11">
-        <v>544807960</v>
+        <v>546065184</v>
       </c>
       <c r="BA119" s="11">
-        <v>546065184</v>
+        <v>540688547</v>
       </c>
       <c r="BB119" s="11">
-        <v>540688547</v>
+        <v>549347285</v>
       </c>
     </row>
     <row r="120" spans="2:54" x14ac:dyDescent="0.3">
@@ -16408,26 +16408,26 @@
       <c r="AI120" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ120" s="13" t="s">
-        <v>58</v>
+      <c r="AJ120" s="13">
+        <v>100936248</v>
       </c>
       <c r="AK120" s="13">
-        <v>100936248</v>
+        <v>128000000</v>
       </c>
       <c r="AL120" s="13">
-        <v>128000000</v>
+        <v>100945355</v>
       </c>
       <c r="AM120" s="13">
-        <v>100945355</v>
+        <v>66848837</v>
       </c>
       <c r="AN120" s="13">
         <v>66848837</v>
       </c>
       <c r="AO120" s="13">
-        <v>66848837</v>
-      </c>
-      <c r="AP120" s="13">
         <v>274560976</v>
+      </c>
+      <c r="AP120" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ120" s="13" t="s">
         <v>58</v>
@@ -16567,62 +16567,62 @@
       <c r="AI121" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ121" s="11" t="s">
-        <v>58</v>
+      <c r="AJ121" s="11">
+        <v>350537634</v>
       </c>
       <c r="AK121" s="11">
-        <v>350537634</v>
+        <v>359230000</v>
       </c>
       <c r="AL121" s="11">
-        <v>359230000</v>
+        <v>352036145</v>
       </c>
       <c r="AM121" s="11">
-        <v>352036145</v>
+        <v>289805882</v>
       </c>
       <c r="AN121" s="11">
         <v>289805882</v>
       </c>
       <c r="AO121" s="11">
-        <v>289805882</v>
+        <v>298818182</v>
       </c>
       <c r="AP121" s="11">
-        <v>298818182</v>
+        <v>286408730</v>
       </c>
       <c r="AQ121" s="11">
-        <v>286408730</v>
+        <v>882137931</v>
       </c>
       <c r="AR121" s="11">
-        <v>882137931</v>
+        <v>911722222</v>
       </c>
       <c r="AS121" s="11">
-        <v>911722222</v>
+        <v>923761905</v>
       </c>
       <c r="AT121" s="11">
-        <v>923761905</v>
+        <v>830126437</v>
       </c>
       <c r="AU121" s="11">
-        <v>830126437</v>
+        <v>809318841</v>
       </c>
       <c r="AV121" s="11">
-        <v>809318841</v>
+        <v>788088889</v>
       </c>
       <c r="AW121" s="11">
-        <v>788088889</v>
+        <v>767508197</v>
       </c>
       <c r="AX121" s="11">
-        <v>767508197</v>
+        <v>773150000</v>
       </c>
       <c r="AY121" s="11">
-        <v>773150000</v>
+        <v>777772727</v>
       </c>
       <c r="AZ121" s="11">
-        <v>777772727</v>
+        <v>756117925</v>
       </c>
       <c r="BA121" s="11">
-        <v>756117925</v>
+        <v>792129870</v>
       </c>
       <c r="BB121" s="11">
-        <v>792129870</v>
+        <v>779777778</v>
       </c>
     </row>
     <row r="122" spans="2:54" x14ac:dyDescent="0.3">
@@ -16726,17 +16726,17 @@
       <c r="AI122" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ122" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK122" s="13">
+      <c r="AJ122" s="13">
         <v>119160610</v>
       </c>
-      <c r="AL122" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM122" s="13">
+      <c r="AK122" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL122" s="13">
         <v>113267994</v>
+      </c>
+      <c r="AM122" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AN122" s="13" t="s">
         <v>58</v>
@@ -16903,30 +16903,30 @@
       <c r="AO123" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP123" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ123" s="11">
+      <c r="AP123" s="11">
         <v>1287400000</v>
       </c>
-      <c r="AR123" s="11" t="s">
-        <v>58</v>
+      <c r="AQ123" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR123" s="11">
+        <v>1249400000</v>
       </c>
       <c r="AS123" s="11">
-        <v>1249400000</v>
-      </c>
-      <c r="AT123" s="11">
         <v>1447600000</v>
       </c>
+      <c r="AT123" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AU123" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV123" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW123" s="11">
+      <c r="AV123" s="11">
         <v>1683800000</v>
       </c>
+      <c r="AW123" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AX123" s="11" t="s">
         <v>58</v>
       </c>
@@ -16939,8 +16939,8 @@
       <c r="BA123" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BB123" s="11" t="s">
-        <v>58</v>
+      <c r="BB123" s="11">
+        <v>2161700000</v>
       </c>
     </row>
     <row r="124" spans="2:54" x14ac:dyDescent="0.3">
@@ -17062,44 +17062,44 @@
       <c r="AO124" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP124" s="13" t="s">
-        <v>58</v>
+      <c r="AP124" s="13">
+        <v>224821429</v>
       </c>
       <c r="AQ124" s="13">
-        <v>224821429</v>
+        <v>608589286</v>
       </c>
       <c r="AR124" s="13">
-        <v>608589286</v>
-      </c>
-      <c r="AS124" s="13">
         <v>611873016</v>
       </c>
-      <c r="AT124" s="13" t="s">
-        <v>58</v>
+      <c r="AS124" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT124" s="13">
+        <v>518451613</v>
       </c>
       <c r="AU124" s="13">
-        <v>518451613</v>
+        <v>520540816</v>
       </c>
       <c r="AV124" s="13">
-        <v>520540816</v>
+        <v>517536000</v>
       </c>
       <c r="AW124" s="13">
-        <v>517536000</v>
+        <v>518600000</v>
       </c>
       <c r="AX124" s="13">
+        <v>524294118</v>
+      </c>
+      <c r="AY124" s="13">
         <v>518600000</v>
       </c>
-      <c r="AY124" s="13">
-        <v>524294118</v>
-      </c>
-      <c r="AZ124" s="13">
-        <v>518600000</v>
-      </c>
-      <c r="BA124" s="13" t="s">
-        <v>58</v>
+      <c r="AZ124" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA124" s="13">
+        <v>525833333</v>
       </c>
       <c r="BB124" s="13">
-        <v>525833333</v>
+        <v>518440000</v>
       </c>
     </row>
     <row r="125" spans="2:54" x14ac:dyDescent="0.3">
@@ -17380,44 +17380,44 @@
       <c r="AO126" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP126" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ126" s="13">
+      <c r="AP126" s="13">
         <v>95017544</v>
       </c>
+      <c r="AQ126" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AR126" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS126" s="13" t="s">
-        <v>58</v>
+      <c r="AS126" s="13">
+        <v>550453782</v>
       </c>
       <c r="AT126" s="13">
-        <v>550453782</v>
+        <v>501832618</v>
       </c>
       <c r="AU126" s="13">
-        <v>501832618</v>
+        <v>503266667</v>
       </c>
       <c r="AV126" s="13">
-        <v>503266667</v>
+        <v>499753846</v>
       </c>
       <c r="AW126" s="13">
-        <v>499753846</v>
+        <v>503428571</v>
       </c>
       <c r="AX126" s="13">
-        <v>503428571</v>
+        <v>500348837</v>
       </c>
       <c r="AY126" s="13">
-        <v>500348837</v>
+        <v>503075472</v>
       </c>
       <c r="AZ126" s="13">
-        <v>503075472</v>
+        <v>505833333</v>
       </c>
       <c r="BA126" s="13">
-        <v>505833333</v>
+        <v>133315942</v>
       </c>
       <c r="BB126" s="13">
-        <v>133315942</v>
+        <v>505511628</v>
       </c>
     </row>
     <row r="127" spans="2:54" x14ac:dyDescent="0.3">
@@ -17746,8 +17746,8 @@
       <c r="AL129" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM129" s="11" t="s">
-        <v>58</v>
+      <c r="AM129" s="11">
+        <v>0</v>
       </c>
       <c r="AN129" s="11">
         <v>0</v>
@@ -17761,8 +17761,8 @@
       <c r="AQ129" s="11">
         <v>0</v>
       </c>
-      <c r="AR129" s="11">
-        <v>0</v>
+      <c r="AR129" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS129" s="11" t="s">
         <v>58</v>
